--- a/assets/lectionary.xlsx
+++ b/assets/lectionary.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonys/Dropbox/Christian/CofE/Common Worship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BC99CE6-5C0F-9344-A0C6-C835BD10C558}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3F2CF13-6C6A-094A-8965-191E6B18235D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="300" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lectionary" sheetId="1" r:id="rId1"/>
@@ -2883,9 +2883,6 @@
     <t>Epiphany</t>
   </si>
   <si>
-    <t>Baptism of Christ</t>
-  </si>
-  <si>
     <t>Epiphany 2</t>
   </si>
   <si>
@@ -2901,9 +2898,6 @@
     <t>2 before Lent</t>
   </si>
   <si>
-    <t>Sunday before Lent</t>
-  </si>
-  <si>
     <t>Lent 1</t>
   </si>
   <si>
@@ -2958,9 +2952,6 @@
     <t>2 before Advent</t>
   </si>
   <si>
-    <t>Christ the King</t>
-  </si>
-  <si>
     <t>Naming and Circumcision of Jesus: 1 January</t>
   </si>
   <si>
@@ -3538,6 +3529,15 @@
   </si>
   <si>
     <t>Psalm 43</t>
+  </si>
+  <si>
+    <t>Christ the King: 1 before Advent</t>
+  </si>
+  <si>
+    <t>Baptism of Christ: Epiphany 1</t>
+  </si>
+  <si>
+    <t>1 before Lent</t>
   </si>
 </sst>
 </file>
@@ -4458,7 +4458,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -4498,7 +4498,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -4518,7 +4518,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -4598,7 +4598,7 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>1099</v>
+        <v>1096</v>
       </c>
       <c r="F10" t="s">
         <v>33</v>
@@ -4618,7 +4618,7 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="F11" t="s">
         <v>36</v>
@@ -4638,7 +4638,7 @@
         <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>1100</v>
+        <v>1097</v>
       </c>
       <c r="F12" t="s">
         <v>39</v>
@@ -4738,7 +4738,7 @@
         <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F17" t="s">
         <v>62</v>
@@ -4758,7 +4758,7 @@
         <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F18" t="s">
         <v>65</v>
@@ -4778,7 +4778,7 @@
         <v>67</v>
       </c>
       <c r="E19" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="F19" t="s">
         <v>68</v>
@@ -4792,7 +4792,7 @@
         <v>946</v>
       </c>
       <c r="B20" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -4935,7 +4935,7 @@
         <v>95</v>
       </c>
       <c r="E27" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="F27" t="s">
         <v>96</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>102</v>
       </c>
       <c r="E29" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="F29" t="s">
         <v>103</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -5015,7 +5015,7 @@
         <v>108</v>
       </c>
       <c r="E31" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="F31" t="s">
         <v>109</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D35" t="s">
         <v>121</v>
@@ -5132,7 +5132,7 @@
         <v>129</v>
       </c>
       <c r="E37" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="F37" t="s">
         <v>130</v>
@@ -5272,7 +5272,7 @@
         <v>158</v>
       </c>
       <c r="E44" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="F44" t="s">
         <v>923</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -5469,7 +5469,7 @@
         <v>195</v>
       </c>
       <c r="E54" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="F54" t="s">
         <v>196</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -5569,7 +5569,7 @@
         <v>214</v>
       </c>
       <c r="E59" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F59" t="s">
         <v>215</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -5629,7 +5629,7 @@
         <v>225</v>
       </c>
       <c r="E62" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="F62" t="s">
         <v>226</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -5749,7 +5749,7 @@
         <v>250</v>
       </c>
       <c r="E68" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -5766,7 +5766,7 @@
         <v>251</v>
       </c>
       <c r="E69" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5783,7 +5783,7 @@
         <v>252</v>
       </c>
       <c r="E70" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5800,7 +5800,7 @@
         <v>254</v>
       </c>
       <c r="E71" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F71" t="s">
         <v>255</v>
@@ -5823,7 +5823,7 @@
         <v>254</v>
       </c>
       <c r="E72" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F72" t="s">
         <v>255</v>
@@ -5846,7 +5846,7 @@
         <v>254</v>
       </c>
       <c r="E73" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="F73" t="s">
         <v>255</v>
@@ -5914,7 +5914,7 @@
         <v>271</v>
       </c>
       <c r="E77" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="F77" t="s">
         <v>272</v>
@@ -5931,7 +5931,7 @@
         <v>275</v>
       </c>
       <c r="E78" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="F78" t="s">
         <v>276</v>
@@ -5948,7 +5948,7 @@
         <v>279</v>
       </c>
       <c r="E79" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="F79" t="s">
         <v>280</v>
@@ -6111,7 +6111,7 @@
         <v>304</v>
       </c>
       <c r="E93" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F93" t="s">
         <v>305</v>
@@ -6131,7 +6131,7 @@
         <v>307</v>
       </c>
       <c r="E94" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F94" t="s">
         <v>308</v>
@@ -6151,7 +6151,7 @@
         <v>310</v>
       </c>
       <c r="E95" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="F95" t="s">
         <v>311</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B96" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B97" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -6208,10 +6208,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B98" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B99" t="s">
         <v>74</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B100" t="s">
         <v>74</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="B101" t="s">
         <v>74</v>
@@ -6300,10 +6300,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B102" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>322</v>
       </c>
       <c r="E102" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F102" t="s">
         <v>323</v>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B103" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -6346,10 +6346,10 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B104" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B105" t="s">
         <v>74</v>
@@ -6381,7 +6381,7 @@
         <v>32</v>
       </c>
       <c r="E105" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="F105" t="s">
         <v>322</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B106" t="s">
         <v>74</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B107" t="s">
         <v>74</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B108" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B109" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -6484,10 +6484,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B110" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B111" t="s">
         <v>74</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B112" t="s">
         <v>74</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B113" t="s">
         <v>74</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B114" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>342</v>
       </c>
       <c r="E114" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F114" t="s">
         <v>343</v>
@@ -6599,10 +6599,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B115" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B116" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
@@ -6634,7 +6634,7 @@
         <v>349</v>
       </c>
       <c r="E116" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="F116" t="s">
         <v>350</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B117" t="s">
         <v>74</v>
@@ -6657,7 +6657,7 @@
         <v>352</v>
       </c>
       <c r="E117" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="F117" t="s">
         <v>342</v>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B118" t="s">
         <v>74</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="B119" t="s">
         <v>74</v>
@@ -6703,7 +6703,7 @@
         <v>353</v>
       </c>
       <c r="E119" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="F119" t="s">
         <v>349</v>
@@ -6714,10 +6714,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B120" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -6737,10 +6737,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B121" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -6760,10 +6760,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B122" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B123" t="s">
         <v>74</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B124" t="s">
         <v>74</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B125" t="s">
         <v>74</v>
@@ -6869,10 +6869,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B127" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -6881,7 +6881,7 @@
         <v>371</v>
       </c>
       <c r="E127" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="F127" t="s">
         <v>372</v>
@@ -6892,10 +6892,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B128" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -6915,10 +6915,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B129" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B130" t="s">
         <v>74</v>
@@ -6950,7 +6950,7 @@
         <v>295</v>
       </c>
       <c r="E130" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="F130" t="s">
         <v>371</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B131" t="s">
         <v>74</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="B132" t="s">
         <v>74</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>379</v>
       </c>
       <c r="E133" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F133" t="s">
         <v>380</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -7036,7 +7036,7 @@
         <v>382</v>
       </c>
       <c r="E134" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F134" t="s">
         <v>383</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
@@ -7056,7 +7056,7 @@
         <v>385</v>
       </c>
       <c r="E135" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="F135" t="s">
         <v>386</v>
@@ -7127,7 +7127,7 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="D139" t="s">
         <v>398</v>
@@ -7225,7 +7225,7 @@
         <v>413</v>
       </c>
       <c r="E143" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="F143" t="s">
         <v>404</v>
@@ -7432,7 +7432,7 @@
         <v>433</v>
       </c>
       <c r="E152" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="F152" t="s">
         <v>434</v>
@@ -7524,7 +7524,7 @@
         <v>445</v>
       </c>
       <c r="E156" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="F156" t="s">
         <v>926</v>
@@ -7570,7 +7570,7 @@
         <v>448</v>
       </c>
       <c r="E158" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="F158" t="s">
         <v>449</v>
@@ -7616,7 +7616,7 @@
         <v>929</v>
       </c>
       <c r="E160" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="F160" t="s">
         <v>453</v>
@@ -7639,7 +7639,7 @@
         <v>455</v>
       </c>
       <c r="E161" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="F161" t="s">
         <v>449</v>
@@ -7662,7 +7662,7 @@
         <v>456</v>
       </c>
       <c r="E162" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="F162" t="s">
         <v>451</v>
@@ -7754,7 +7754,7 @@
         <v>467</v>
       </c>
       <c r="E166" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="F166" t="s">
         <v>468</v>
@@ -7777,7 +7777,7 @@
         <v>470</v>
       </c>
       <c r="E167" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="F167" t="s">
         <v>462</v>
@@ -8053,7 +8053,7 @@
         <v>500</v>
       </c>
       <c r="E179" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="F179" t="s">
         <v>491</v>
@@ -8122,7 +8122,7 @@
         <v>506</v>
       </c>
       <c r="E182" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="F182" t="s">
         <v>507</v>
@@ -8260,7 +8260,7 @@
         <v>522</v>
       </c>
       <c r="E188" t="s">
-        <v>1133</v>
+        <v>1130</v>
       </c>
       <c r="F188" t="s">
         <v>523</v>
@@ -8306,7 +8306,7 @@
         <v>529</v>
       </c>
       <c r="E190" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="F190" t="s">
         <v>530</v>
@@ -8398,7 +8398,7 @@
         <v>538</v>
       </c>
       <c r="E194" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="F194" t="s">
         <v>539</v>
@@ -8444,7 +8444,7 @@
         <v>545</v>
       </c>
       <c r="E196" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="F196" t="s">
         <v>546</v>
@@ -8467,7 +8467,7 @@
         <v>548</v>
       </c>
       <c r="E197" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="F197" t="s">
         <v>539</v>
@@ -8513,7 +8513,7 @@
         <v>551</v>
       </c>
       <c r="E199" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="F199" t="s">
         <v>546</v>
@@ -8536,7 +8536,7 @@
         <v>553</v>
       </c>
       <c r="E200" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="F200" t="s">
         <v>554</v>
@@ -8582,7 +8582,7 @@
         <v>559</v>
       </c>
       <c r="E202" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="F202" t="s">
         <v>560</v>
@@ -8651,7 +8651,7 @@
         <v>565</v>
       </c>
       <c r="E205" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="F205" t="s">
         <v>560</v>
@@ -8720,7 +8720,7 @@
         <v>572</v>
       </c>
       <c r="E208" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="F208" t="s">
         <v>573</v>
@@ -8950,7 +8950,7 @@
         <v>598</v>
       </c>
       <c r="E218" t="s">
-        <v>1144</v>
+        <v>1141</v>
       </c>
       <c r="F218" t="s">
         <v>599</v>
@@ -8973,7 +8973,7 @@
         <v>601</v>
       </c>
       <c r="E219" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="F219" t="s">
         <v>602</v>
@@ -8996,7 +8996,7 @@
         <v>604</v>
       </c>
       <c r="E220" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="F220" t="s">
         <v>605</v>
@@ -9134,7 +9134,7 @@
         <v>621</v>
       </c>
       <c r="E226" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="F226" t="s">
         <v>622</v>
@@ -9249,7 +9249,7 @@
         <v>631</v>
       </c>
       <c r="E231" t="s">
-        <v>1151</v>
+        <v>1148</v>
       </c>
       <c r="F231" t="s">
         <v>632</v>
@@ -9295,7 +9295,7 @@
         <v>637</v>
       </c>
       <c r="E233" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="F233" t="s">
         <v>629</v>
@@ -9364,7 +9364,7 @@
         <v>642</v>
       </c>
       <c r="E236" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="F236" t="s">
         <v>643</v>
@@ -9502,7 +9502,7 @@
         <v>210</v>
       </c>
       <c r="E242" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="F242" t="s">
         <v>658</v>
@@ -9548,7 +9548,7 @@
         <v>663</v>
       </c>
       <c r="E244" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="F244" t="s">
         <v>664</v>
@@ -9640,7 +9640,7 @@
         <v>672</v>
       </c>
       <c r="E248" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="F248" t="s">
         <v>246</v>
@@ -9686,7 +9686,7 @@
         <v>678</v>
       </c>
       <c r="E250" t="s">
-        <v>1155</v>
+        <v>1152</v>
       </c>
       <c r="F250" t="s">
         <v>679</v>
@@ -9778,7 +9778,7 @@
         <v>686</v>
       </c>
       <c r="E254" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="F254" t="s">
         <v>687</v>
@@ -9939,7 +9939,7 @@
         <v>706</v>
       </c>
       <c r="E261" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="F261" t="s">
         <v>707</v>
@@ -10054,7 +10054,7 @@
         <v>718</v>
       </c>
       <c r="E266" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="F266" t="s">
         <v>719</v>
@@ -10077,7 +10077,7 @@
         <v>721</v>
       </c>
       <c r="E267" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="F267" t="s">
         <v>722</v>
@@ -10100,7 +10100,7 @@
         <v>724</v>
       </c>
       <c r="E268" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="F268" t="s">
         <v>725</v>
@@ -10180,7 +10180,7 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
@@ -10200,7 +10200,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
@@ -10266,7 +10266,7 @@
         <v>5</v>
       </c>
       <c r="D276" t="s">
-        <v>1094</v>
+        <v>1091</v>
       </c>
       <c r="E276" t="s">
         <v>741</v>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="D278" t="s">
         <v>747</v>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
@@ -10326,7 +10326,7 @@
         <v>750</v>
       </c>
       <c r="E279" t="s">
-        <v>1164</v>
+        <v>1161</v>
       </c>
       <c r="F279" t="s">
         <v>751</v>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C281" t="s">
         <v>9</v>
@@ -10377,10 +10377,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="C282" t="s">
         <v>0</v>
@@ -10400,7 +10400,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B283" t="s">
         <v>74</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
@@ -10452,7 +10452,7 @@
         <v>769</v>
       </c>
       <c r="E285" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="F285" t="s">
         <v>770</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C286" t="s">
         <v>0</v>
@@ -10472,7 +10472,7 @@
         <v>772</v>
       </c>
       <c r="E286" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="F286" t="s">
         <v>773</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="C288" t="s">
         <v>9</v>
@@ -10523,7 +10523,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="C289" t="s">
         <v>0</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="C291" t="s">
         <v>9</v>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="D292" t="s">
         <v>790</v>
@@ -10600,10 +10600,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D293" t="s">
         <v>588</v>
@@ -10620,7 +10620,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="B294" t="s">
         <v>74</v>
@@ -10657,7 +10657,7 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="D296" t="s">
         <v>798</v>
@@ -10728,7 +10728,7 @@
         <v>812</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D300" t="s">
         <v>813</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="D302" t="s">
         <v>816</v>
@@ -10785,7 +10785,7 @@
         <v>819</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D303" t="s">
         <v>820</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="D305" t="s">
         <v>17</v>
@@ -10839,10 +10839,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D306" t="s">
         <v>827</v>
@@ -10859,7 +10859,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="B307" t="s">
         <v>74</v>
@@ -10879,10 +10879,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D308" t="s">
         <v>831</v>
@@ -10899,7 +10899,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="B309" t="s">
         <v>74</v>
@@ -10956,7 +10956,7 @@
         <v>842</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D312" t="s">
         <v>843</v>
@@ -10993,7 +10993,7 @@
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="D314" t="s">
         <v>847</v>
@@ -11030,7 +11030,7 @@
         <v>854</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D316" t="s">
         <v>855</v>
@@ -11104,7 +11104,7 @@
         <v>869</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D320" t="s">
         <v>870</v>
@@ -11195,7 +11195,7 @@
         <v>888</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D325" t="s">
         <v>889</v>
@@ -11249,7 +11249,7 @@
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="D328" t="s">
         <v>899</v>
@@ -11415,7 +11415,7 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>981</v>
+        <v>978</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>934</v>
@@ -11427,22 +11427,22 @@
         <v>936</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1095</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1079</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1080</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>1081</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1082</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11450,7 +11450,7 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -11479,7 +11479,7 @@
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -11563,7 +11563,7 @@
         <v>188</v>
       </c>
       <c r="B6" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -11714,7 +11714,7 @@
         <v>341</v>
       </c>
       <c r="B11" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C11" t="s">
         <v>74</v>
@@ -11746,7 +11746,7 @@
         <v>285</v>
       </c>
       <c r="B12" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C12" t="s">
         <v>74</v>
@@ -11778,7 +11778,7 @@
         <v>285</v>
       </c>
       <c r="B13" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C13" t="s">
         <v>74</v>
@@ -11810,7 +11810,7 @@
         <v>352</v>
       </c>
       <c r="B14" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C14" t="s">
         <v>74</v>
@@ -11842,7 +11842,7 @@
         <v>365</v>
       </c>
       <c r="B15" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C15" t="s">
         <v>74</v>
@@ -11874,7 +11874,7 @@
         <v>192</v>
       </c>
       <c r="B16" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -11900,10 +11900,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>991</v>
+        <v>988</v>
       </c>
       <c r="B17" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C17" t="s">
         <v>74</v>
@@ -11935,7 +11935,7 @@
         <v>198</v>
       </c>
       <c r="B18" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>105</v>
       </c>
       <c r="B20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -12025,7 +12025,7 @@
         <v>398</v>
       </c>
       <c r="B21" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E21">
         <v>139</v>
@@ -12051,7 +12051,7 @@
         <v>206</v>
       </c>
       <c r="B22" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -12112,7 +12112,7 @@
         <v>202</v>
       </c>
       <c r="B24" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -12295,10 +12295,10 @@
         <v>287</v>
       </c>
       <c r="B30" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C30" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -12327,10 +12327,10 @@
         <v>287</v>
       </c>
       <c r="B31" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C31" t="s">
-        <v>987</v>
+        <v>984</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -12490,7 +12490,7 @@
         <v>869</v>
       </c>
       <c r="C36" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E36">
         <v>330</v>
@@ -12513,13 +12513,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="B37" t="s">
         <v>902</v>
       </c>
       <c r="C37" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -12798,13 +12798,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>1010</v>
+        <v>1007</v>
       </c>
       <c r="B46" t="s">
         <v>231</v>
       </c>
       <c r="C46" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E46">
         <v>66</v>
@@ -12946,7 +12946,7 @@
         <v>289</v>
       </c>
       <c r="B51" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C51" t="s">
         <v>74</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1086</v>
+        <v>1083</v>
       </c>
       <c r="B53" t="s">
         <v>282</v>
@@ -13030,13 +13030,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1089</v>
+        <v>1086</v>
       </c>
       <c r="B54" t="s">
         <v>627</v>
       </c>
       <c r="C54" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D54" t="s">
         <v>0</v>
@@ -13129,7 +13129,7 @@
         <v>210</v>
       </c>
       <c r="B57" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>214</v>
       </c>
       <c r="B60" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -13283,7 +13283,7 @@
         <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -13434,7 +13434,7 @@
         <v>179</v>
       </c>
       <c r="B67" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -13524,7 +13524,7 @@
         <v>790</v>
       </c>
       <c r="B70" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E70">
         <v>300</v>
@@ -13579,10 +13579,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="B72" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C72" t="s">
         <v>74</v>
@@ -13614,7 +13614,7 @@
         <v>225</v>
       </c>
       <c r="B73" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -13733,7 +13733,7 @@
         <v>753</v>
       </c>
       <c r="B77" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -13759,13 +13759,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="B78" t="s">
         <v>909</v>
       </c>
       <c r="C78" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D78" t="s">
         <v>0</v>
@@ -13826,7 +13826,7 @@
         <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -13855,7 +13855,7 @@
         <v>195</v>
       </c>
       <c r="B81" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -13910,7 +13910,7 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="B83" t="s">
         <v>909</v>
@@ -13980,7 +13980,7 @@
         <v>136</v>
       </c>
       <c r="C85" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -14073,7 +14073,7 @@
         <v>228</v>
       </c>
       <c r="B88" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>1011</v>
+        <v>1008</v>
       </c>
       <c r="B90" t="s">
         <v>231</v>
@@ -14192,7 +14192,7 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -14317,7 +14317,7 @@
         <v>221</v>
       </c>
       <c r="B96" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D96" t="s">
         <v>0</v>
@@ -14343,13 +14343,13 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1041</v>
+        <v>1038</v>
       </c>
       <c r="B97" t="s">
         <v>447</v>
       </c>
       <c r="C97" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -14375,13 +14375,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1042</v>
+        <v>1039</v>
       </c>
       <c r="B98" t="s">
         <v>447</v>
       </c>
       <c r="C98" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -14846,13 +14846,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>1019</v>
+        <v>1016</v>
       </c>
       <c r="B113" t="s">
         <v>902</v>
       </c>
       <c r="C113" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D113" t="s">
         <v>0</v>
@@ -14881,7 +14881,7 @@
         <v>111</v>
       </c>
       <c r="B114" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D114" t="s">
         <v>0</v>
@@ -15166,7 +15166,7 @@
         <v>175</v>
       </c>
       <c r="B123" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -15384,7 +15384,7 @@
         <v>888</v>
       </c>
       <c r="C130" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E130">
         <v>335</v>
@@ -15410,7 +15410,7 @@
         <v>108</v>
       </c>
       <c r="B131" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -15439,7 +15439,7 @@
         <v>731</v>
       </c>
       <c r="B132" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D132" t="s">
         <v>0</v>
@@ -15529,13 +15529,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B135" t="s">
         <v>278</v>
       </c>
       <c r="C135" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E135">
         <v>81</v>
@@ -15561,7 +15561,7 @@
         <v>769</v>
       </c>
       <c r="B136" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -15625,7 +15625,7 @@
         <v>819</v>
       </c>
       <c r="C138" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E138">
         <v>313</v>
@@ -15776,7 +15776,7 @@
         <v>146</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D143" t="s">
         <v>5</v>
@@ -15898,13 +15898,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="B147" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="C147" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D147" t="s">
         <v>0</v>
@@ -15933,7 +15933,7 @@
         <v>326</v>
       </c>
       <c r="B148" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D148" t="s">
         <v>5</v>
@@ -16084,7 +16084,7 @@
         <v>390</v>
       </c>
       <c r="B153" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E153">
         <v>624</v>
@@ -16107,13 +16107,13 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1065</v>
+        <v>1062</v>
       </c>
       <c r="B154" t="s">
         <v>447</v>
       </c>
       <c r="C154" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D154" t="s">
         <v>5</v>
@@ -16354,7 +16354,7 @@
         <v>288</v>
       </c>
       <c r="B162" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D162" t="s">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         <v>288</v>
       </c>
       <c r="B164" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D164" t="s">
         <v>5</v>
@@ -16441,7 +16441,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1136</v>
+        <v>1133</v>
       </c>
       <c r="B165" t="s">
         <v>537</v>
@@ -16473,10 +16473,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1162</v>
+        <v>1159</v>
       </c>
       <c r="B166" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -16502,10 +16502,10 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B167" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
@@ -16531,10 +16531,10 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B168" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D168" t="s">
         <v>5</v>
@@ -16586,13 +16586,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1105</v>
+        <v>1102</v>
       </c>
       <c r="B170" t="s">
         <v>627</v>
       </c>
       <c r="C170" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D170" t="s">
         <v>5</v>
@@ -16618,7 +16618,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1109</v>
+        <v>1106</v>
       </c>
       <c r="B171" t="s">
         <v>671</v>
@@ -16711,7 +16711,7 @@
         <v>669</v>
       </c>
       <c r="B174" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D174" t="s">
         <v>5</v>
@@ -16769,7 +16769,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1115</v>
+        <v>1112</v>
       </c>
       <c r="B176" t="s">
         <v>274</v>
@@ -16862,7 +16862,7 @@
         <v>203</v>
       </c>
       <c r="B179" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D179" t="s">
         <v>5</v>
@@ -16917,7 +16917,7 @@
         <v>346</v>
       </c>
       <c r="B181" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D181" t="s">
         <v>5</v>
@@ -16946,7 +16946,7 @@
         <v>222</v>
       </c>
       <c r="B182" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D182" t="s">
         <v>0</v>
@@ -16975,7 +16975,7 @@
         <v>222</v>
       </c>
       <c r="B183" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="E183">
         <v>446</v>
@@ -17065,7 +17065,7 @@
         <v>122</v>
       </c>
       <c r="B186" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E186">
         <v>382</v>
@@ -17181,7 +17181,7 @@
         <v>11</v>
       </c>
       <c r="B190" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D190" t="s">
         <v>5</v>
@@ -17335,10 +17335,10 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1104</v>
+        <v>1101</v>
       </c>
       <c r="B195" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D195" t="s">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>207</v>
       </c>
       <c r="B196" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D196" t="s">
         <v>9</v>
@@ -17396,7 +17396,7 @@
         <v>82</v>
       </c>
       <c r="B197" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="E197">
         <v>372</v>
@@ -17480,7 +17480,7 @@
         <v>142</v>
       </c>
       <c r="B200" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
@@ -17544,7 +17544,7 @@
         <v>459</v>
       </c>
       <c r="C202" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D202" t="s">
         <v>5</v>
@@ -17602,7 +17602,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1116</v>
+        <v>1113</v>
       </c>
       <c r="B204" t="s">
         <v>278</v>
@@ -17628,10 +17628,10 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1119</v>
+        <v>1116</v>
       </c>
       <c r="B205" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D205" t="s">
         <v>0</v>
@@ -17657,7 +17657,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1123</v>
+        <v>1120</v>
       </c>
       <c r="B206" t="s">
         <v>401</v>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1113</v>
+        <v>1110</v>
       </c>
       <c r="B208" t="s">
         <v>248</v>
@@ -17747,7 +17747,7 @@
         <v>189</v>
       </c>
       <c r="B209" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D209" t="s">
         <v>0</v>
@@ -17776,7 +17776,7 @@
         <v>189</v>
       </c>
       <c r="B210" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
@@ -17837,7 +17837,7 @@
         <v>757</v>
       </c>
       <c r="B212" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
@@ -17898,7 +17898,7 @@
         <v>748</v>
       </c>
       <c r="B214" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E214">
         <v>609</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1143</v>
+        <v>1140</v>
       </c>
       <c r="B215" t="s">
         <v>552</v>
@@ -17985,7 +17985,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1160</v>
+        <v>1157</v>
       </c>
       <c r="B217" t="s">
         <v>717</v>
@@ -18078,13 +18078,13 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="B220" t="s">
         <v>231</v>
       </c>
       <c r="C220" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E220">
         <v>412</v>
@@ -18142,7 +18142,7 @@
         <v>99</v>
       </c>
       <c r="B222" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D222" t="s">
         <v>9</v>
@@ -18171,7 +18171,7 @@
         <v>99</v>
       </c>
       <c r="B223" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D223" t="s">
         <v>0</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1107</v>
+        <v>1104</v>
       </c>
       <c r="B225" t="s">
         <v>149</v>
@@ -18287,7 +18287,7 @@
         <v>92</v>
       </c>
       <c r="B227" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D227" t="s">
         <v>0</v>
@@ -18316,7 +18316,7 @@
         <v>799</v>
       </c>
       <c r="B228" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E228">
         <v>627</v>
@@ -18394,7 +18394,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1126</v>
+        <v>1123</v>
       </c>
       <c r="B231" t="s">
         <v>447</v>
@@ -18452,13 +18452,13 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1166</v>
+        <v>1163</v>
       </c>
       <c r="B233" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C233" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D233" t="s">
         <v>0</v>
@@ -18484,7 +18484,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1147</v>
+        <v>1144</v>
       </c>
       <c r="B234" t="s">
         <v>597</v>
@@ -18522,7 +18522,7 @@
         <v>472</v>
       </c>
       <c r="C235" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D235" t="s">
         <v>0</v>
@@ -18635,7 +18635,7 @@
         <v>286</v>
       </c>
       <c r="B239" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
@@ -18661,13 +18661,13 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>1026</v>
+        <v>1023</v>
       </c>
       <c r="B240" t="s">
         <v>366</v>
       </c>
       <c r="C240" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E240">
         <v>453</v>
@@ -18693,7 +18693,7 @@
         <v>118</v>
       </c>
       <c r="B241" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1139</v>
+        <v>1136</v>
       </c>
       <c r="B243" t="s">
         <v>537</v>
@@ -18786,7 +18786,7 @@
         <v>176</v>
       </c>
       <c r="B244" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D244" t="s">
         <v>5</v>
@@ -18812,7 +18812,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1141</v>
+        <v>1138</v>
       </c>
       <c r="B245" t="s">
         <v>552</v>
@@ -18905,10 +18905,10 @@
         <v>542</v>
       </c>
       <c r="B248" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C248" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D248" t="s">
         <v>5</v>
@@ -19065,7 +19065,7 @@
         <v>766</v>
       </c>
       <c r="B253" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D253" t="s">
         <v>5</v>
@@ -19094,7 +19094,7 @@
         <v>218</v>
       </c>
       <c r="B254" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
@@ -19123,7 +19123,7 @@
         <v>168</v>
       </c>
       <c r="B255" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D255" t="s">
         <v>9</v>
@@ -19149,7 +19149,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1131</v>
+        <v>1128</v>
       </c>
       <c r="B256" t="s">
         <v>488</v>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1161</v>
+        <v>1158</v>
       </c>
       <c r="B257" t="s">
         <v>717</v>
@@ -19309,7 +19309,7 @@
         <v>355</v>
       </c>
       <c r="B261" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D261" t="s">
         <v>0</v>
@@ -19338,7 +19338,7 @@
         <v>362</v>
       </c>
       <c r="B262" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D262" t="s">
         <v>9</v>
@@ -19399,7 +19399,7 @@
         <v>362</v>
       </c>
       <c r="B264" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E264">
         <v>625</v>
@@ -19422,10 +19422,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1121</v>
+        <v>1118</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D265" t="s">
         <v>0</v>
@@ -19451,7 +19451,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1127</v>
+        <v>1124</v>
       </c>
       <c r="B266" t="s">
         <v>447</v>
@@ -19512,7 +19512,7 @@
         <v>267</v>
       </c>
       <c r="B268" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C268" t="s">
         <v>74</v>
@@ -19599,7 +19599,7 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1097</v>
+        <v>1094</v>
       </c>
       <c r="B271" t="s">
         <v>942</v>
@@ -19654,7 +19654,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1130</v>
+        <v>1127</v>
       </c>
       <c r="B273" t="s">
         <v>459</v>
@@ -19686,7 +19686,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1153</v>
+        <v>1150</v>
       </c>
       <c r="B274" t="s">
         <v>657</v>
@@ -19782,7 +19782,7 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B277" t="s">
         <v>941</v>
@@ -19811,7 +19811,7 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B278" t="s">
         <v>944</v>
@@ -19840,7 +19840,7 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="B279" t="s">
         <v>944</v>
@@ -19872,7 +19872,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1142</v>
+        <v>1139</v>
       </c>
       <c r="B280" t="s">
         <v>566</v>
@@ -19968,7 +19968,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1148</v>
+        <v>1145</v>
       </c>
       <c r="B283" t="s">
         <v>597</v>
@@ -20128,7 +20128,7 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1098</v>
+        <v>1095</v>
       </c>
       <c r="B288" t="s">
         <v>942</v>
@@ -20157,7 +20157,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1135</v>
+        <v>1132</v>
       </c>
       <c r="B289" t="s">
         <v>521</v>
@@ -20192,7 +20192,7 @@
         <v>824</v>
       </c>
       <c r="B290" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E290">
         <v>634</v>
@@ -20279,7 +20279,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1125</v>
+        <v>1122</v>
       </c>
       <c r="B293" t="s">
         <v>447</v>
@@ -20343,7 +20343,7 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1101</v>
+        <v>1098</v>
       </c>
       <c r="B295" t="s">
         <v>944</v>
@@ -20375,7 +20375,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1129</v>
+        <v>1126</v>
       </c>
       <c r="B296" t="s">
         <v>459</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1159</v>
+        <v>1156</v>
       </c>
       <c r="B299" t="s">
         <v>717</v>
@@ -20497,10 +20497,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1163</v>
+        <v>1160</v>
       </c>
       <c r="B300" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D300" t="s">
         <v>0</v>
@@ -20558,10 +20558,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1108</v>
+        <v>1105</v>
       </c>
       <c r="B302" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D302" t="s">
         <v>9</v>
@@ -20587,7 +20587,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1154</v>
+        <v>1151</v>
       </c>
       <c r="B303" t="s">
         <v>657</v>
@@ -20651,7 +20651,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1124</v>
+        <v>1121</v>
       </c>
       <c r="B305" t="s">
         <v>432</v>
@@ -20715,7 +20715,7 @@
         <v>785</v>
       </c>
       <c r="B307" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -20744,7 +20744,7 @@
         <v>211</v>
       </c>
       <c r="B308" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D308" t="s">
         <v>0</v>
@@ -20773,7 +20773,7 @@
         <v>781</v>
       </c>
       <c r="B309" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D309" t="s">
         <v>0</v>
@@ -20956,7 +20956,7 @@
         <v>53</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D315" t="s">
         <v>9</v>
@@ -20985,7 +20985,7 @@
         <v>53</v>
       </c>
       <c r="B316" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E316">
         <v>639</v>
@@ -21066,7 +21066,7 @@
         <v>58</v>
       </c>
       <c r="B319" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D319" t="s">
         <v>5</v>
@@ -21095,7 +21095,7 @@
         <v>58</v>
       </c>
       <c r="B320" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D320" t="s">
         <v>9</v>
@@ -21124,7 +21124,7 @@
         <v>180</v>
       </c>
       <c r="B321" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="C321" t="s">
         <v>74</v>
@@ -21156,7 +21156,7 @@
         <v>180</v>
       </c>
       <c r="B322" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D322" t="s">
         <v>9</v>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1150</v>
+        <v>1147</v>
       </c>
       <c r="B327" t="s">
         <v>627</v>
@@ -21365,7 +21365,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1158</v>
+        <v>1155</v>
       </c>
       <c r="B329" t="s">
         <v>701</v>
@@ -21400,7 +21400,7 @@
         <v>165</v>
       </c>
       <c r="B330" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D330" t="s">
         <v>5</v>
@@ -21426,10 +21426,10 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1122</v>
+        <v>1119</v>
       </c>
       <c r="B331" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E331">
         <v>458</v>
@@ -21452,13 +21452,13 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1134</v>
+        <v>1131</v>
       </c>
       <c r="B332" t="s">
         <v>521</v>
       </c>
       <c r="C332" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D332" t="s">
         <v>0</v>
@@ -21484,7 +21484,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1140</v>
+        <v>1137</v>
       </c>
       <c r="B333" t="s">
         <v>552</v>
@@ -21516,13 +21516,13 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1146</v>
+        <v>1143</v>
       </c>
       <c r="B334" t="s">
         <v>597</v>
       </c>
       <c r="C334" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D334" t="s">
         <v>0</v>
@@ -21548,7 +21548,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1152</v>
+        <v>1149</v>
       </c>
       <c r="B335" t="s">
         <v>641</v>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1157</v>
+        <v>1154</v>
       </c>
       <c r="B336" t="s">
         <v>685</v>
@@ -21612,10 +21612,10 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1110</v>
+        <v>1107</v>
       </c>
       <c r="B337" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D337" t="s">
         <v>5</v>
@@ -21641,7 +21641,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1128</v>
+        <v>1125</v>
       </c>
       <c r="B338" t="s">
         <v>447</v>
@@ -21673,7 +21673,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1137</v>
+        <v>1134</v>
       </c>
       <c r="B339" t="s">
         <v>537</v>
@@ -21705,10 +21705,10 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1165</v>
+        <v>1162</v>
       </c>
       <c r="B340" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C340" t="s">
         <v>74</v>
@@ -21740,7 +21740,7 @@
         <v>114</v>
       </c>
       <c r="B341" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D341" t="s">
         <v>5</v>
@@ -21952,7 +21952,7 @@
         <v>656</v>
       </c>
       <c r="B348" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E348">
         <v>632</v>
@@ -22007,7 +22007,7 @@
         <v>627</v>
       </c>
       <c r="C350" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D350" t="s">
         <v>0</v>
@@ -22033,13 +22033,13 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1145</v>
+        <v>1142</v>
       </c>
       <c r="B351" t="s">
         <v>597</v>
       </c>
       <c r="C351" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D351" t="s">
         <v>0</v>
@@ -22065,7 +22065,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B352" t="s">
         <v>270</v>
@@ -22091,10 +22091,10 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1118</v>
+        <v>1115</v>
       </c>
       <c r="B353" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D353" t="s">
         <v>0</v>
@@ -22120,7 +22120,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B354" t="s">
         <v>432</v>
@@ -22187,7 +22187,7 @@
         <v>399</v>
       </c>
       <c r="B356" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E356">
         <v>462</v>
@@ -22236,7 +22236,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B358" t="s">
         <v>248</v>
@@ -22268,7 +22268,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1112</v>
+        <v>1109</v>
       </c>
       <c r="B359" t="s">
         <v>248</v>
@@ -22300,7 +22300,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1111</v>
+        <v>1108</v>
       </c>
       <c r="B360" t="s">
         <v>248</v>
@@ -22332,7 +22332,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1117</v>
+        <v>1114</v>
       </c>
       <c r="B361" t="s">
         <v>303</v>
@@ -22358,13 +22358,13 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>1025</v>
+        <v>1022</v>
       </c>
       <c r="B362" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C362" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D362" t="s">
         <v>9</v>
@@ -22422,7 +22422,7 @@
         <v>138</v>
       </c>
       <c r="B364" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D364" t="s">
         <v>5</v>
@@ -22477,7 +22477,7 @@
         <v>732</v>
       </c>
       <c r="B366" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="C366" t="s">
         <v>74</v>
@@ -22509,7 +22509,7 @@
         <v>732</v>
       </c>
       <c r="B367" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D367" t="s">
         <v>0</v>
@@ -22773,7 +22773,7 @@
         <v>533</v>
       </c>
       <c r="B376" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D376" t="s">
         <v>9</v>
@@ -22828,7 +22828,7 @@
         <v>199</v>
       </c>
       <c r="B378" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D378" t="s">
         <v>0</v>
@@ -23040,7 +23040,7 @@
         <v>582</v>
       </c>
       <c r="B385" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E385">
         <v>650</v>
@@ -23098,7 +23098,7 @@
         <v>618</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E387">
         <v>635</v>
@@ -23127,7 +23127,7 @@
         <v>943</v>
       </c>
       <c r="C388" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D388" t="s">
         <v>5</v>
@@ -23156,7 +23156,7 @@
         <v>245</v>
       </c>
       <c r="B389" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D389" t="s">
         <v>9</v>
@@ -23295,7 +23295,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1063</v>
+        <v>1060</v>
       </c>
       <c r="B394" t="s">
         <v>231</v>
@@ -23327,7 +23327,7 @@
         <v>106</v>
       </c>
       <c r="B395" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D395" t="s">
         <v>5</v>
@@ -23359,7 +23359,7 @@
         <v>521</v>
       </c>
       <c r="C396" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D396" t="s">
         <v>0</v>
@@ -23388,7 +23388,7 @@
         <v>237</v>
       </c>
       <c r="B397" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D397" t="s">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>317</v>
       </c>
       <c r="B401" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -23545,7 +23545,7 @@
         <v>447</v>
       </c>
       <c r="C402" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D402" t="s">
         <v>5</v>
@@ -23603,10 +23603,10 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1060</v>
+        <v>1057</v>
       </c>
       <c r="B404" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D404" t="s">
         <v>0</v>
@@ -23658,13 +23658,13 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1156</v>
+        <v>1153</v>
       </c>
       <c r="B406" t="s">
         <v>671</v>
       </c>
       <c r="C406" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D406" t="s">
         <v>9</v>
@@ -23815,10 +23815,10 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1103</v>
+        <v>1100</v>
       </c>
       <c r="B411" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -23876,7 +23876,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1132</v>
+        <v>1129</v>
       </c>
       <c r="B413" t="s">
         <v>505</v>
@@ -23908,7 +23908,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1149</v>
+        <v>1146</v>
       </c>
       <c r="B414" t="s">
         <v>612</v>
@@ -24056,7 +24056,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1138</v>
+        <v>1135</v>
       </c>
       <c r="B419" t="s">
         <v>537</v>
@@ -24216,13 +24216,13 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B424" t="s">
         <v>943</v>
       </c>
       <c r="C424" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D424" t="s">
         <v>0</v>
@@ -24248,7 +24248,7 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="B425" t="s">
         <v>943</v>
@@ -24280,7 +24280,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1106</v>
+        <v>1103</v>
       </c>
       <c r="B426" t="s">
         <v>124</v>
@@ -24341,7 +24341,7 @@
         <v>946</v>
       </c>
       <c r="C428" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E428">
         <v>369</v>
@@ -24364,7 +24364,7 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1102</v>
+        <v>1099</v>
       </c>
       <c r="B429" t="s">
         <v>945</v>
@@ -24390,10 +24390,10 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1120</v>
+        <v>1117</v>
       </c>
       <c r="B430" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D430" t="s">
         <v>9</v>
@@ -24480,10 +24480,10 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="B433" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C433" t="s">
         <v>74</v>
@@ -24573,7 +24573,7 @@
         <v>164</v>
       </c>
       <c r="B436" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D436" t="s">
         <v>5</v>
@@ -24599,7 +24599,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1039</v>
+        <v>1036</v>
       </c>
       <c r="B437" t="s">
         <v>282</v>
@@ -24689,13 +24689,13 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="B440" t="s">
         <v>805</v>
       </c>
       <c r="C440" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E440">
         <v>307</v>
@@ -24750,13 +24750,13 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="B442" t="s">
         <v>597</v>
       </c>
       <c r="C442" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D442" t="s">
         <v>9</v>
@@ -24884,7 +24884,7 @@
         <v>472</v>
       </c>
       <c r="C446" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D446" t="s">
         <v>0</v>
@@ -24971,7 +24971,7 @@
         <v>756</v>
       </c>
       <c r="B449" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D449" t="s">
         <v>9</v>
@@ -25180,7 +25180,7 @@
         <v>798</v>
       </c>
       <c r="B456" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E456">
         <v>304</v>
@@ -25206,7 +25206,7 @@
         <v>102</v>
       </c>
       <c r="B457" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D457" t="s">
         <v>0</v>
@@ -25290,13 +25290,13 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B460" t="s">
         <v>943</v>
       </c>
       <c r="C460" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D460" t="s">
         <v>9</v>
@@ -25322,7 +25322,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>1087</v>
+        <v>1084</v>
       </c>
       <c r="B461" t="s">
         <v>282</v>
@@ -25354,7 +25354,7 @@
         <v>812</v>
       </c>
       <c r="C462" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E462">
         <v>310</v>
@@ -25409,7 +25409,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B464" t="s">
         <v>303</v>
@@ -25441,7 +25441,7 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>984</v>
+        <v>981</v>
       </c>
       <c r="B465" t="s">
         <v>921</v>
@@ -25554,13 +25554,13 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>1018</v>
+        <v>1015</v>
       </c>
       <c r="B469" t="s">
         <v>875</v>
       </c>
       <c r="C469" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E469">
         <v>331</v>
@@ -25647,7 +25647,7 @@
         <v>17</v>
       </c>
       <c r="B472" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E472">
         <v>315</v>
@@ -25731,7 +25731,7 @@
         <v>81</v>
       </c>
       <c r="B475" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="D475" t="s">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>88</v>
       </c>
       <c r="B477" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="D477" t="s">
         <v>9</v>
@@ -25818,7 +25818,7 @@
         <v>854</v>
       </c>
       <c r="C478" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E478">
         <v>326</v>
@@ -25844,7 +25844,7 @@
         <v>244</v>
       </c>
       <c r="B479" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D479" t="s">
         <v>9</v>
@@ -25899,13 +25899,13 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="B481" t="s">
         <v>505</v>
       </c>
       <c r="C481" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D481" t="s">
         <v>0</v>
@@ -25966,7 +25966,7 @@
         <v>735</v>
       </c>
       <c r="B483" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D483" t="s">
         <v>9</v>
@@ -25995,7 +25995,7 @@
         <v>91</v>
       </c>
       <c r="B484" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D484" t="s">
         <v>0</v>
@@ -26282,7 +26282,7 @@
         <v>217</v>
       </c>
       <c r="B494" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D494" t="s">
         <v>9</v>
@@ -26337,7 +26337,7 @@
         <v>291</v>
       </c>
       <c r="B496" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C496" t="s">
         <v>74</v>
@@ -26401,7 +26401,7 @@
         <v>291</v>
       </c>
       <c r="B498" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D498" t="s">
         <v>5</v>
@@ -26491,13 +26491,13 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="B501" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C501" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E501">
         <v>285</v>
@@ -26549,7 +26549,7 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>1009</v>
+        <v>1006</v>
       </c>
       <c r="B503" t="s">
         <v>183</v>
@@ -26694,13 +26694,13 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>1017</v>
+        <v>1014</v>
       </c>
       <c r="B508" t="s">
         <v>850</v>
       </c>
       <c r="C508" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E508">
         <v>324</v>
@@ -26726,7 +26726,7 @@
         <v>98</v>
       </c>
       <c r="B509" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D509" t="s">
         <v>9</v>
@@ -26871,7 +26871,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>985</v>
+        <v>982</v>
       </c>
       <c r="B514" t="s">
         <v>303</v>
@@ -26970,10 +26970,10 @@
         <v>588</v>
       </c>
       <c r="B517" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C517" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E517">
         <v>301</v>
@@ -27092,13 +27092,13 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="B521" t="s">
         <v>641</v>
       </c>
       <c r="C521" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D521" t="s">
         <v>5</v>
@@ -27124,13 +27124,13 @@
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="B522" t="s">
         <v>717</v>
       </c>
       <c r="C522" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D522" t="s">
         <v>9</v>
@@ -27316,7 +27316,7 @@
         <v>518</v>
       </c>
       <c r="B528" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D528" t="s">
         <v>9</v>
@@ -27438,7 +27438,7 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>983</v>
+        <v>980</v>
       </c>
       <c r="B532" t="s">
         <v>303</v>
@@ -27476,7 +27476,7 @@
         <v>946</v>
       </c>
       <c r="C533" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E533">
         <v>20</v>
@@ -27534,7 +27534,7 @@
         <v>899</v>
       </c>
       <c r="B535" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E535">
         <v>338</v>
@@ -27592,7 +27592,7 @@
         <v>240</v>
       </c>
       <c r="B537" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D537" t="s">
         <v>5</v>
@@ -27685,7 +27685,7 @@
         <v>842</v>
       </c>
       <c r="C540" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E540">
         <v>321</v>
@@ -27740,7 +27740,7 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1038</v>
+        <v>1035</v>
       </c>
       <c r="B542" t="s">
         <v>278</v>
@@ -27769,13 +27769,13 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1091</v>
+        <v>1088</v>
       </c>
       <c r="B543" t="s">
         <v>671</v>
       </c>
       <c r="C543" t="s">
-        <v>1001</v>
+        <v>998</v>
       </c>
       <c r="D543" t="s">
         <v>9</v>
@@ -27801,13 +27801,13 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="B544" t="s">
         <v>459</v>
       </c>
       <c r="C544" t="s">
-        <v>1004</v>
+        <v>1001</v>
       </c>
       <c r="D544" t="s">
         <v>5</v>
@@ -27833,13 +27833,13 @@
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1088</v>
+        <v>1085</v>
       </c>
       <c r="B545" t="s">
         <v>459</v>
       </c>
       <c r="C545" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D545" t="s">
         <v>5</v>
@@ -27900,10 +27900,10 @@
         <v>831</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C547" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E547">
         <v>318</v>
@@ -28025,7 +28025,7 @@
         <v>780</v>
       </c>
       <c r="B551" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D551" t="s">
         <v>0</v>
@@ -28080,7 +28080,7 @@
         <v>295</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C553" t="s">
         <v>74</v>
@@ -28109,7 +28109,7 @@
         <v>236</v>
       </c>
       <c r="B554" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D554" t="s">
         <v>0</v>
@@ -28164,7 +28164,7 @@
         <v>236</v>
       </c>
       <c r="B556" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C556" t="s">
         <v>74</v>
@@ -28196,7 +28196,7 @@
         <v>236</v>
       </c>
       <c r="B557" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C557" t="s">
         <v>74</v>
@@ -28228,7 +28228,7 @@
         <v>117</v>
       </c>
       <c r="B558" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D558" t="s">
         <v>9</v>
@@ -28283,7 +28283,7 @@
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>1040</v>
+        <v>1037</v>
       </c>
       <c r="B560" t="s">
         <v>366</v>
@@ -28315,7 +28315,7 @@
         <v>784</v>
       </c>
       <c r="B561" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D561" t="s">
         <v>5</v>
@@ -28344,7 +28344,7 @@
         <v>847</v>
       </c>
       <c r="B562" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E562">
         <v>323</v>
@@ -28370,7 +28370,7 @@
         <v>775</v>
       </c>
       <c r="B563" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D563" t="s">
         <v>5</v>
@@ -28492,13 +28492,13 @@
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>1008</v>
+        <v>1005</v>
       </c>
       <c r="B567" t="s">
         <v>183</v>
       </c>
       <c r="C567" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E567">
         <v>52</v>
@@ -28617,7 +28617,7 @@
         <v>764</v>
       </c>
       <c r="B571" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C571" t="s">
         <v>74</v>
@@ -28809,7 +28809,7 @@
         <v>765</v>
       </c>
       <c r="B577" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D577" t="s">
         <v>5</v>
@@ -28870,7 +28870,7 @@
         <v>750</v>
       </c>
       <c r="B579" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D579" t="s">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>772</v>
       </c>
       <c r="B583" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D583" t="s">
         <v>0</v>
@@ -29070,7 +29070,7 @@
         <v>32</v>
       </c>
       <c r="B586" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C586" t="s">
         <v>74</v>
@@ -29099,7 +29099,7 @@
         <v>816</v>
       </c>
       <c r="B587" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E587">
         <v>312</v>
@@ -29125,10 +29125,10 @@
         <v>827</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C588" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E588">
         <v>316</v>
@@ -29183,7 +29183,7 @@
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>1006</v>
+        <v>1003</v>
       </c>
       <c r="B590" t="s">
         <v>942</v>
@@ -29218,7 +29218,7 @@
         <v>121</v>
       </c>
       <c r="B591" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E591">
         <v>35</v>
@@ -29244,7 +29244,7 @@
         <v>777</v>
       </c>
       <c r="B592" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D592" t="s">
         <v>9</v>
@@ -29270,10 +29270,10 @@
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
       <c r="B593" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="C593" t="s">
         <v>74</v>
@@ -29299,13 +29299,13 @@
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1043</v>
+        <v>1040</v>
       </c>
       <c r="B594" t="s">
         <v>459</v>
       </c>
       <c r="C594" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D594" t="s">
         <v>5</v>
@@ -29331,13 +29331,13 @@
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="B595" t="s">
         <v>641</v>
       </c>
       <c r="C595" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D595" t="s">
         <v>5</v>
@@ -29363,13 +29363,13 @@
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>1093</v>
+        <v>1090</v>
       </c>
       <c r="B596" t="s">
         <v>921</v>
       </c>
       <c r="C596" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D596" t="s">
         <v>5</v>
@@ -29398,10 +29398,10 @@
         <v>760</v>
       </c>
       <c r="B597" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C597" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D597" t="s">
         <v>0</v>
@@ -29427,13 +29427,13 @@
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>1092</v>
+        <v>1089</v>
       </c>
       <c r="B598" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="C598" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D598" t="s">
         <v>0</v>
@@ -29459,13 +29459,13 @@
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1090</v>
+        <v>1087</v>
       </c>
       <c r="B599" t="s">
         <v>627</v>
       </c>
       <c r="C599" t="s">
-        <v>1002</v>
+        <v>999</v>
       </c>
       <c r="D599" t="s">
         <v>5</v>
@@ -29491,7 +29491,7 @@
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>1085</v>
+        <v>1082</v>
       </c>
       <c r="B600" t="s">
         <v>946</v>
@@ -29520,13 +29520,13 @@
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="B601" t="s">
         <v>505</v>
       </c>
       <c r="C601" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D601" t="s">
         <v>0</v>
@@ -29552,13 +29552,13 @@
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="B602" t="s">
         <v>597</v>
       </c>
       <c r="C602" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D602" t="s">
         <v>9</v>
@@ -29584,7 +29584,7 @@
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>1007</v>
+        <v>1004</v>
       </c>
       <c r="B603" t="s">
         <v>136</v>
@@ -29645,13 +29645,13 @@
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="B605" t="s">
         <v>717</v>
       </c>
       <c r="C605" t="s">
-        <v>1003</v>
+        <v>1000</v>
       </c>
       <c r="D605" t="s">
         <v>9</v>
@@ -29677,13 +29677,13 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B606" t="s">
         <v>282</v>
       </c>
       <c r="C606" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E606">
         <v>88</v>
@@ -29706,13 +29706,13 @@
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B607" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C607" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D607" t="s">
         <v>5</v>
@@ -29738,13 +29738,13 @@
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>988</v>
+        <v>985</v>
       </c>
       <c r="B608" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C608" t="s">
-        <v>986</v>
+        <v>983</v>
       </c>
       <c r="D608" t="s">
         <v>9</v>
@@ -29770,13 +29770,13 @@
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>1005</v>
+        <v>1002</v>
       </c>
       <c r="B609" t="s">
         <v>942</v>
       </c>
       <c r="C609" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D609" t="s">
         <v>9</v>
@@ -29802,13 +29802,13 @@
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="B610" t="s">
         <v>801</v>
       </c>
       <c r="C610" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E610">
         <v>305</v>
@@ -29944,7 +29944,7 @@
         <v>901</v>
       </c>
       <c r="B615" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E615">
         <v>1102</v>
@@ -29999,7 +29999,7 @@
         <v>84</v>
       </c>
       <c r="B617" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="D617" t="s">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>191</v>
       </c>
       <c r="B618" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D618" t="s">
         <v>0</v>
@@ -30057,7 +30057,7 @@
         <v>104</v>
       </c>
       <c r="B619" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D619" t="s">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         <v>740</v>
       </c>
       <c r="B622" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E622">
         <v>1063</v>
@@ -30251,13 +30251,13 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>1030</v>
+        <v>1027</v>
       </c>
       <c r="B626" t="s">
         <v>183</v>
       </c>
       <c r="C626" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E626">
         <v>929</v>
@@ -30283,7 +30283,7 @@
         <v>163</v>
       </c>
       <c r="B627" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D627" t="s">
         <v>0</v>
@@ -30799,7 +30799,7 @@
         <v>829</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E645">
         <v>1087</v>
@@ -30854,7 +30854,7 @@
         <v>174</v>
       </c>
       <c r="B647" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D647" t="s">
         <v>0</v>
@@ -30941,7 +30941,7 @@
         <v>792</v>
       </c>
       <c r="B650" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E650">
         <v>1077</v>
@@ -31228,7 +31228,7 @@
         <v>752</v>
       </c>
       <c r="B660" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D660" t="s">
         <v>0</v>
@@ -31257,7 +31257,7 @@
         <v>733</v>
       </c>
       <c r="B661" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D661" t="s">
         <v>0</v>
@@ -31315,7 +31315,7 @@
         <v>763</v>
       </c>
       <c r="B663" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D663" t="s">
         <v>0</v>
@@ -31344,7 +31344,7 @@
         <v>774</v>
       </c>
       <c r="B664" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D664" t="s">
         <v>0</v>
@@ -31373,7 +31373,7 @@
         <v>783</v>
       </c>
       <c r="B665" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D665" t="s">
         <v>0</v>
@@ -31399,7 +31399,7 @@
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1071</v>
+        <v>1068</v>
       </c>
       <c r="B666" t="s">
         <v>248</v>
@@ -31431,13 +31431,13 @@
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>1032</v>
+        <v>1029</v>
       </c>
       <c r="B667" t="s">
         <v>278</v>
       </c>
       <c r="C667" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E667">
         <v>956</v>
@@ -31582,7 +31582,7 @@
         <v>87</v>
       </c>
       <c r="B672" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="D672" t="s">
         <v>5</v>
@@ -31611,7 +31611,7 @@
         <v>194</v>
       </c>
       <c r="B673" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D673" t="s">
         <v>5</v>
@@ -31640,7 +31640,7 @@
         <v>768</v>
       </c>
       <c r="B674" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D674" t="s">
         <v>5</v>
@@ -31669,7 +31669,7 @@
         <v>116</v>
       </c>
       <c r="B675" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D675" t="s">
         <v>5</v>
@@ -32104,7 +32104,7 @@
         <v>205</v>
       </c>
       <c r="B690" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D690" t="s">
         <v>5</v>
@@ -32133,7 +32133,7 @@
         <v>178</v>
       </c>
       <c r="B691" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D691" t="s">
         <v>5</v>
@@ -32333,13 +32333,13 @@
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1036</v>
+        <v>1033</v>
       </c>
       <c r="B698" t="s">
         <v>248</v>
       </c>
       <c r="C698" t="s">
-        <v>999</v>
+        <v>996</v>
       </c>
       <c r="D698" t="s">
         <v>5</v>
@@ -32368,7 +32368,7 @@
         <v>755</v>
       </c>
       <c r="B699" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D699" t="s">
         <v>5</v>
@@ -32397,7 +32397,7 @@
         <v>776</v>
       </c>
       <c r="B700" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D700" t="s">
         <v>5</v>
@@ -32478,7 +32478,7 @@
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>1072</v>
+        <v>1069</v>
       </c>
       <c r="B703" t="s">
         <v>248</v>
@@ -32603,7 +32603,7 @@
         <v>40</v>
       </c>
       <c r="B707" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E707">
         <v>1079</v>
@@ -32658,7 +32658,7 @@
         <v>818</v>
       </c>
       <c r="B709" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E709">
         <v>1084</v>
@@ -32681,7 +32681,7 @@
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B710" t="s">
         <v>943</v>
@@ -32713,7 +32713,7 @@
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B711" t="s">
         <v>943</v>
@@ -32745,13 +32745,13 @@
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B712" t="s">
         <v>944</v>
       </c>
       <c r="C712" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D712" t="s">
         <v>5</v>
@@ -32777,13 +32777,13 @@
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>1084</v>
+        <v>1081</v>
       </c>
       <c r="B713" t="s">
         <v>944</v>
       </c>
       <c r="C713" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D713" t="s">
         <v>9</v>
@@ -32838,7 +32838,7 @@
         <v>826</v>
       </c>
       <c r="B715" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="E715">
         <v>1086</v>
@@ -32861,7 +32861,7 @@
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>1083</v>
+        <v>1080</v>
       </c>
       <c r="B716" t="s">
         <v>942</v>
@@ -32980,7 +32980,7 @@
         <v>66</v>
       </c>
       <c r="B720" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E720">
         <v>1076</v>
@@ -33006,7 +33006,7 @@
         <v>120</v>
       </c>
       <c r="B721" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D721" t="s">
         <v>9</v>
@@ -33035,7 +33035,7 @@
         <v>120</v>
       </c>
       <c r="B722" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E722">
         <v>913</v>
@@ -33058,13 +33058,13 @@
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="B723" t="s">
         <v>231</v>
       </c>
       <c r="C723" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E723">
         <v>943</v>
@@ -33177,7 +33177,7 @@
         <v>90</v>
       </c>
       <c r="B727" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="D727" t="s">
         <v>9</v>
@@ -33206,7 +33206,7 @@
         <v>197</v>
       </c>
       <c r="B728" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D728" t="s">
         <v>9</v>
@@ -33235,7 +33235,7 @@
         <v>110</v>
       </c>
       <c r="B729" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D729" t="s">
         <v>9</v>
@@ -33264,7 +33264,7 @@
         <v>737</v>
       </c>
       <c r="B730" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D730" t="s">
         <v>9</v>
@@ -33496,7 +33496,7 @@
         <v>170</v>
       </c>
       <c r="B738" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D738" t="s">
         <v>9</v>
@@ -33554,7 +33554,7 @@
         <v>182</v>
       </c>
       <c r="B740" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D740" t="s">
         <v>9</v>
@@ -33583,7 +33583,7 @@
         <v>849</v>
       </c>
       <c r="B741" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E741">
         <v>1091</v>
@@ -33806,13 +33806,13 @@
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>1035</v>
+        <v>1032</v>
       </c>
       <c r="B749" t="s">
         <v>909</v>
       </c>
       <c r="C749" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D749" t="s">
         <v>0</v>
@@ -33899,7 +33899,7 @@
         <v>220</v>
       </c>
       <c r="B752" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D752" t="s">
         <v>9</v>
@@ -33957,7 +33957,7 @@
         <v>209</v>
       </c>
       <c r="B754" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D754" t="s">
         <v>9</v>
@@ -34044,7 +34044,7 @@
         <v>230</v>
       </c>
       <c r="B757" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D757" t="s">
         <v>9</v>
@@ -34308,7 +34308,7 @@
         <v>759</v>
       </c>
       <c r="B766" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D766" t="s">
         <v>9</v>
@@ -34369,7 +34369,7 @@
         <v>771</v>
       </c>
       <c r="B768" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D768" t="s">
         <v>9</v>
@@ -34398,7 +34398,7 @@
         <v>779</v>
       </c>
       <c r="B769" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D769" t="s">
         <v>9</v>
@@ -34453,7 +34453,7 @@
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>1073</v>
+        <v>1070</v>
       </c>
       <c r="B771" t="s">
         <v>248</v>
@@ -34514,7 +34514,7 @@
         <v>789</v>
       </c>
       <c r="B773" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D773" t="s">
         <v>9</v>
@@ -34604,7 +34604,7 @@
         <v>324</v>
       </c>
       <c r="B776" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D776" t="s">
         <v>0</v>
@@ -34633,7 +34633,7 @@
         <v>328</v>
       </c>
       <c r="B777" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D777" t="s">
         <v>5</v>
@@ -34743,7 +34743,7 @@
         <v>60</v>
       </c>
       <c r="B781" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D781" t="s">
         <v>5</v>
@@ -34801,7 +34801,7 @@
         <v>94</v>
       </c>
       <c r="B783" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D783" t="s">
         <v>0</v>
@@ -34830,7 +34830,7 @@
         <v>97</v>
       </c>
       <c r="B784" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D784" t="s">
         <v>5</v>
@@ -34885,7 +34885,7 @@
         <v>101</v>
       </c>
       <c r="B786" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D786" t="s">
         <v>9</v>
@@ -34914,7 +34914,7 @@
         <v>101</v>
       </c>
       <c r="B787" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D787" t="s">
         <v>5</v>
@@ -34943,7 +34943,7 @@
         <v>101</v>
       </c>
       <c r="B788" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D788" t="s">
         <v>0</v>
@@ -34972,7 +34972,7 @@
         <v>216</v>
       </c>
       <c r="B789" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D789" t="s">
         <v>5</v>
@@ -35030,7 +35030,7 @@
         <v>201</v>
       </c>
       <c r="B791" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D791" t="s">
         <v>0</v>
@@ -35114,7 +35114,7 @@
         <v>227</v>
       </c>
       <c r="B794" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D794" t="s">
         <v>5</v>
@@ -35143,7 +35143,7 @@
         <v>213</v>
       </c>
       <c r="B795" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D795" t="s">
         <v>0</v>
@@ -35169,10 +35169,10 @@
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>1075</v>
+        <v>1072</v>
       </c>
       <c r="B796" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C796" t="s">
         <v>74</v>
@@ -35204,7 +35204,7 @@
         <v>734</v>
       </c>
       <c r="B797" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D797" t="s">
         <v>5</v>
@@ -35349,7 +35349,7 @@
         <v>400</v>
       </c>
       <c r="B802" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E802">
         <v>990</v>
@@ -35430,10 +35430,10 @@
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>1076</v>
+        <v>1073</v>
       </c>
       <c r="B805" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C805" t="s">
         <v>74</v>
@@ -35462,7 +35462,7 @@
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>1069</v>
+        <v>1066</v>
       </c>
       <c r="B806" t="s">
         <v>183</v>
@@ -35494,7 +35494,7 @@
         <v>224</v>
       </c>
       <c r="B807" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D807" t="s">
         <v>0</v>
@@ -35523,7 +35523,7 @@
         <v>334</v>
       </c>
       <c r="B808" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D808" t="s">
         <v>0</v>
@@ -35552,7 +35552,7 @@
         <v>337</v>
       </c>
       <c r="B809" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D809" t="s">
         <v>5</v>
@@ -35581,7 +35581,7 @@
         <v>340</v>
       </c>
       <c r="B810" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D810" t="s">
         <v>9</v>
@@ -35639,7 +35639,7 @@
         <v>239</v>
       </c>
       <c r="B812" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D812" t="s">
         <v>0</v>
@@ -35697,7 +35697,7 @@
         <v>247</v>
       </c>
       <c r="B814" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D814" t="s">
         <v>9</v>
@@ -35749,13 +35749,13 @@
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>1037</v>
+        <v>1034</v>
       </c>
       <c r="B816" t="s">
         <v>248</v>
       </c>
       <c r="C816" t="s">
-        <v>1000</v>
+        <v>997</v>
       </c>
       <c r="D816" t="s">
         <v>5</v>
@@ -35784,7 +35784,7 @@
         <v>243</v>
       </c>
       <c r="B817" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D817" t="s">
         <v>5</v>
@@ -35891,7 +35891,7 @@
         <v>351</v>
       </c>
       <c r="B821" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D821" t="s">
         <v>9</v>
@@ -35920,7 +35920,7 @@
         <v>344</v>
       </c>
       <c r="B822" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D822" t="s">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>387</v>
       </c>
       <c r="B824" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D824" t="s">
         <v>9</v>
@@ -36004,7 +36004,7 @@
         <v>357</v>
       </c>
       <c r="B825" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D825" t="s">
         <v>0</v>
@@ -36030,13 +36030,13 @@
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>1033</v>
+        <v>1030</v>
       </c>
       <c r="B826" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C826" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D826" t="s">
         <v>9</v>
@@ -36065,7 +36065,7 @@
         <v>348</v>
       </c>
       <c r="B827" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D827" t="s">
         <v>5</v>
@@ -36094,7 +36094,7 @@
         <v>360</v>
       </c>
       <c r="B828" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D828" t="s">
         <v>5</v>
@@ -36227,7 +36227,7 @@
         <v>384</v>
       </c>
       <c r="B833" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="D833" t="s">
         <v>5</v>
@@ -36285,7 +36285,7 @@
         <v>373</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D835" t="s">
         <v>0</v>
@@ -36314,7 +36314,7 @@
         <v>376</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D836" t="s">
         <v>5</v>
@@ -36343,7 +36343,7 @@
         <v>378</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D837" t="s">
         <v>9</v>
@@ -36398,7 +36398,7 @@
         <v>787</v>
       </c>
       <c r="B839" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D839" t="s">
         <v>5</v>
@@ -36424,7 +36424,7 @@
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>1070</v>
+        <v>1067</v>
       </c>
       <c r="B840" t="s">
         <v>231</v>
@@ -36453,7 +36453,7 @@
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>1074</v>
+        <v>1071</v>
       </c>
       <c r="B841" t="s">
         <v>278</v>
@@ -36482,13 +36482,13 @@
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>998</v>
+        <v>995</v>
       </c>
       <c r="B842" t="s">
         <v>303</v>
       </c>
       <c r="C842" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E842">
         <v>961</v>
@@ -36540,7 +36540,7 @@
         <v>315</v>
       </c>
       <c r="B844" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="E844">
         <v>965</v>
@@ -36563,13 +36563,13 @@
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>1034</v>
+        <v>1031</v>
       </c>
       <c r="B845" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C845" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D845" t="s">
         <v>0</v>
@@ -36624,7 +36624,7 @@
         <v>331</v>
       </c>
       <c r="B847" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D847" t="s">
         <v>9</v>
@@ -36676,7 +36676,7 @@
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>1013</v>
+        <v>1010</v>
       </c>
       <c r="B849" t="s">
         <v>366</v>
@@ -36705,7 +36705,7 @@
         <v>371</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D850" t="s">
         <v>0</v>
@@ -36734,7 +36734,7 @@
         <v>374</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D851" t="s">
         <v>5</v>
@@ -36786,10 +36786,10 @@
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>989</v>
+        <v>986</v>
       </c>
       <c r="B853" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="E853">
         <v>132</v>
@@ -36815,7 +36815,7 @@
         <v>313</v>
       </c>
       <c r="B854" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D854" t="s">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>322</v>
       </c>
       <c r="B855" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D855" t="s">
         <v>0</v>
@@ -36873,7 +36873,7 @@
         <v>332</v>
       </c>
       <c r="B856" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D856" t="s">
         <v>0</v>
@@ -36902,7 +36902,7 @@
         <v>325</v>
       </c>
       <c r="B857" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D857" t="s">
         <v>5</v>
@@ -36931,7 +36931,7 @@
         <v>335</v>
       </c>
       <c r="B858" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D858" t="s">
         <v>5</v>
@@ -36960,7 +36960,7 @@
         <v>316</v>
       </c>
       <c r="B859" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D859" t="s">
         <v>5</v>
@@ -37015,7 +37015,7 @@
         <v>319</v>
       </c>
       <c r="B861" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D861" t="s">
         <v>9</v>
@@ -37070,7 +37070,7 @@
         <v>342</v>
       </c>
       <c r="B863" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D863" t="s">
         <v>0</v>
@@ -37099,7 +37099,7 @@
         <v>89</v>
       </c>
       <c r="B864" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="D864" t="s">
         <v>9</v>
@@ -37128,7 +37128,7 @@
         <v>345</v>
       </c>
       <c r="B865" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D865" t="s">
         <v>5</v>
@@ -37157,7 +37157,7 @@
         <v>329</v>
       </c>
       <c r="B866" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D866" t="s">
         <v>9</v>
@@ -37186,7 +37186,7 @@
         <v>791</v>
       </c>
       <c r="B867" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="E867">
         <v>302</v>
@@ -37212,7 +37212,7 @@
         <v>338</v>
       </c>
       <c r="B868" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D868" t="s">
         <v>9</v>
@@ -37267,7 +37267,7 @@
         <v>83</v>
       </c>
       <c r="B870" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="D870" t="s">
         <v>0</v>
@@ -37296,7 +37296,7 @@
         <v>358</v>
       </c>
       <c r="B871" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D871" t="s">
         <v>5</v>
@@ -37325,7 +37325,7 @@
         <v>349</v>
       </c>
       <c r="B872" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="D872" t="s">
         <v>9</v>
@@ -37406,7 +37406,7 @@
         <v>828</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1077</v>
+        <v>1074</v>
       </c>
       <c r="E875">
         <v>317</v>
@@ -37429,13 +37429,13 @@
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>1028</v>
+        <v>1025</v>
       </c>
       <c r="B876" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C876" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E876">
         <v>853</v>
@@ -37458,7 +37458,7 @@
     </row>
     <row r="877" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
       <c r="B877" t="s">
         <v>805</v>
@@ -37487,7 +37487,7 @@
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="B878" t="s">
         <v>875</v>
@@ -37519,7 +37519,7 @@
         <v>361</v>
       </c>
       <c r="B879" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D879" t="s">
         <v>9</v>
@@ -37548,7 +37548,7 @@
         <v>377</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="D880" t="s">
         <v>9</v>
@@ -37577,7 +37577,7 @@
         <v>354</v>
       </c>
       <c r="B881" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="D881" t="s">
         <v>0</v>
@@ -37606,7 +37606,7 @@
         <v>86</v>
       </c>
       <c r="B882" t="s">
-        <v>948</v>
+        <v>1165</v>
       </c>
       <c r="D882" t="s">
         <v>5</v>
@@ -37693,7 +37693,7 @@
         <v>200</v>
       </c>
       <c r="B885" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D885" t="s">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>204</v>
       </c>
       <c r="B886" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D886" t="s">
         <v>5</v>
@@ -37806,7 +37806,7 @@
         <v>212</v>
       </c>
       <c r="B889" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D889" t="s">
         <v>0</v>
@@ -37893,7 +37893,7 @@
         <v>190</v>
       </c>
       <c r="B892" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D892" t="s">
         <v>0</v>
@@ -38064,7 +38064,7 @@
         <v>238</v>
       </c>
       <c r="B898" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D898" t="s">
         <v>0</v>
@@ -38148,13 +38148,13 @@
     </row>
     <row r="901" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>997</v>
+        <v>994</v>
       </c>
       <c r="B901" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C901" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D901" t="s">
         <v>9</v>
@@ -38183,7 +38183,7 @@
         <v>162</v>
       </c>
       <c r="B902" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D902" t="s">
         <v>0</v>
@@ -38209,13 +38209,13 @@
     </row>
     <row r="903" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>996</v>
+        <v>993</v>
       </c>
       <c r="B903" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C903" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D903" t="s">
         <v>5</v>
@@ -38331,7 +38331,7 @@
         <v>196</v>
       </c>
       <c r="B907" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D907" t="s">
         <v>9</v>
@@ -38473,7 +38473,7 @@
         <v>817</v>
       </c>
       <c r="B912" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
       <c r="E912">
         <v>851</v>
@@ -38586,7 +38586,7 @@
         <v>736</v>
       </c>
       <c r="B916" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D916" t="s">
         <v>9</v>
@@ -38673,7 +38673,7 @@
         <v>93</v>
       </c>
       <c r="B919" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D919" t="s">
         <v>0</v>
@@ -38731,7 +38731,7 @@
         <v>103</v>
       </c>
       <c r="B921" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D921" t="s">
         <v>0</v>
@@ -38760,7 +38760,7 @@
         <v>112</v>
       </c>
       <c r="B922" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D922" t="s">
         <v>0</v>
@@ -38789,7 +38789,7 @@
         <v>215</v>
       </c>
       <c r="B923" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D923" t="s">
         <v>5</v>
@@ -38844,7 +38844,7 @@
         <v>900</v>
       </c>
       <c r="B925" t="s">
-        <v>980</v>
+        <v>977</v>
       </c>
       <c r="E925">
         <v>872</v>
@@ -39073,7 +39073,7 @@
         <v>219</v>
       </c>
       <c r="B933" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="D933" t="s">
         <v>9</v>
@@ -39128,7 +39128,7 @@
         <v>272</v>
       </c>
       <c r="B935" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="E935">
         <v>757</v>
@@ -39154,7 +39154,7 @@
         <v>100</v>
       </c>
       <c r="B936" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D936" t="s">
         <v>9</v>
@@ -39180,13 +39180,13 @@
     </row>
     <row r="937" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>995</v>
+        <v>992</v>
       </c>
       <c r="B937" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="C937" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D937" t="s">
         <v>0</v>
@@ -39215,7 +39215,7 @@
         <v>109</v>
       </c>
       <c r="B938" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D938" t="s">
         <v>9</v>
@@ -39244,7 +39244,7 @@
         <v>119</v>
       </c>
       <c r="B939" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D939" t="s">
         <v>9</v>
@@ -39305,7 +39305,7 @@
         <v>303</v>
       </c>
       <c r="C941" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D941" t="s">
         <v>5</v>
@@ -39360,13 +39360,13 @@
     </row>
     <row r="943" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>994</v>
+        <v>991</v>
       </c>
       <c r="B943" t="s">
         <v>303</v>
       </c>
       <c r="C943" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D943" t="s">
         <v>9</v>
@@ -39421,13 +39421,13 @@
     </row>
     <row r="945" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>992</v>
+        <v>989</v>
       </c>
       <c r="B945" t="s">
         <v>231</v>
       </c>
       <c r="C945" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E945">
         <v>716</v>
@@ -39482,7 +39482,7 @@
         <v>181</v>
       </c>
       <c r="B947" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D947" t="s">
         <v>9</v>
@@ -39537,7 +39537,7 @@
         <v>177</v>
       </c>
       <c r="B949" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D949" t="s">
         <v>5</v>
@@ -39708,7 +39708,7 @@
         <v>229</v>
       </c>
       <c r="B955" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D955" t="s">
         <v>9</v>
@@ -39966,7 +39966,7 @@
         <v>793</v>
       </c>
       <c r="B964" t="s">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C964" t="s">
         <v>74</v>
@@ -40111,7 +40111,7 @@
         <v>453</v>
       </c>
       <c r="B969" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
       <c r="C969" t="s">
         <v>74</v>
@@ -40169,7 +40169,7 @@
         <v>65</v>
       </c>
       <c r="B971" t="s">
-        <v>974</v>
+        <v>971</v>
       </c>
       <c r="E971">
         <v>843</v>
@@ -40392,7 +40392,7 @@
         <v>366</v>
       </c>
       <c r="C979" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E979">
         <v>747</v>
@@ -40418,7 +40418,7 @@
         <v>782</v>
       </c>
       <c r="B980" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D980" t="s">
         <v>0</v>
@@ -40447,7 +40447,7 @@
         <v>226</v>
       </c>
       <c r="B981" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D981" t="s">
         <v>5</v>
@@ -40725,7 +40725,7 @@
         <v>223</v>
       </c>
       <c r="B991" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D991" t="s">
         <v>0</v>
@@ -40954,7 +40954,7 @@
         <v>246</v>
       </c>
       <c r="B999" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D999" t="s">
         <v>9</v>
@@ -41012,7 +41012,7 @@
         <v>208</v>
       </c>
       <c r="B1001" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="D1001" t="s">
         <v>9</v>
@@ -41096,13 +41096,13 @@
     </row>
     <row r="1004" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>1029</v>
+        <v>1026</v>
       </c>
       <c r="B1004" t="s">
         <v>909</v>
       </c>
       <c r="C1004" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1004" t="s">
         <v>9</v>
@@ -41160,7 +41160,7 @@
         <v>788</v>
       </c>
       <c r="B1006" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D1006" t="s">
         <v>9</v>
@@ -41189,7 +41189,7 @@
         <v>166</v>
       </c>
       <c r="B1007" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D1007" t="s">
         <v>5</v>
@@ -41273,13 +41273,13 @@
     </row>
     <row r="1010" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>993</v>
+        <v>990</v>
       </c>
       <c r="B1010" t="s">
         <v>303</v>
       </c>
       <c r="C1010" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1010" t="s">
         <v>0</v>
@@ -41395,7 +41395,7 @@
         <v>68</v>
       </c>
       <c r="B1014" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D1014" t="s">
         <v>0</v>
@@ -41482,7 +41482,7 @@
         <v>751</v>
       </c>
       <c r="B1017" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D1017" t="s">
         <v>0</v>
@@ -41540,7 +41540,7 @@
         <v>762</v>
       </c>
       <c r="B1019" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D1019" t="s">
         <v>0</v>
@@ -41569,7 +41569,7 @@
         <v>773</v>
       </c>
       <c r="B1020" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D1020" t="s">
         <v>0</v>
@@ -41627,7 +41627,7 @@
         <v>758</v>
       </c>
       <c r="B1022" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D1022" t="s">
         <v>9</v>
@@ -41656,7 +41656,7 @@
         <v>770</v>
       </c>
       <c r="B1023" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D1023" t="s">
         <v>9</v>
@@ -41685,7 +41685,7 @@
         <v>778</v>
       </c>
       <c r="B1024" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D1024" t="s">
         <v>9</v>
@@ -41775,7 +41775,7 @@
         <v>909</v>
       </c>
       <c r="C1027" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1027" t="s">
         <v>5</v>
@@ -41830,7 +41830,7 @@
     </row>
     <row r="1029" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1067</v>
+        <v>1064</v>
       </c>
       <c r="B1029" t="s">
         <v>909</v>
@@ -41978,7 +41978,7 @@
         <v>711</v>
       </c>
       <c r="B1034" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="D1034" t="s">
         <v>5</v>
@@ -42062,7 +42062,7 @@
         <v>830</v>
       </c>
       <c r="B1037" t="s">
-        <v>1061</v>
+        <v>1058</v>
       </c>
       <c r="C1037" t="s">
         <v>74</v>
@@ -42294,7 +42294,7 @@
         <v>123</v>
       </c>
       <c r="B1045" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E1045">
         <v>687</v>
@@ -42346,7 +42346,7 @@
     </row>
     <row r="1047" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1066</v>
+        <v>1063</v>
       </c>
       <c r="B1047" t="s">
         <v>274</v>
@@ -42407,7 +42407,7 @@
         <v>242</v>
       </c>
       <c r="B1049" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D1049" t="s">
         <v>5</v>
@@ -42491,7 +42491,7 @@
         <v>754</v>
       </c>
       <c r="B1052" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="D1052" t="s">
         <v>5</v>
@@ -42520,7 +42520,7 @@
         <v>767</v>
       </c>
       <c r="B1053" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="D1053" t="s">
         <v>5</v>
@@ -42549,7 +42549,7 @@
         <v>800</v>
       </c>
       <c r="B1054" t="s">
-        <v>976</v>
+        <v>973</v>
       </c>
       <c r="E1054">
         <v>846</v>
@@ -42604,7 +42604,7 @@
         <v>933</v>
       </c>
       <c r="B1056" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="D1056" t="s">
         <v>5</v>
@@ -42630,13 +42630,13 @@
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>1027</v>
+        <v>1024</v>
       </c>
       <c r="B1057" t="s">
         <v>274</v>
       </c>
       <c r="C1057" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="E1057">
         <v>726</v>
@@ -42775,7 +42775,7 @@
         <v>749</v>
       </c>
       <c r="B1062" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E1062">
         <v>830</v>
@@ -43033,10 +43033,10 @@
         <v>314</v>
       </c>
       <c r="B1071" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C1071" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1071" t="s">
         <v>0</v>
@@ -43065,10 +43065,10 @@
         <v>323</v>
       </c>
       <c r="B1072" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C1072" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1072" t="s">
         <v>0</v>
@@ -43126,10 +43126,10 @@
         <v>343</v>
       </c>
       <c r="B1074" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C1074" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1074" t="s">
         <v>0</v>
@@ -43158,10 +43158,10 @@
         <v>333</v>
       </c>
       <c r="B1075" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C1075" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1075" t="s">
         <v>0</v>
@@ -43190,7 +43190,7 @@
         <v>333</v>
       </c>
       <c r="B1076" t="s">
-        <v>1062</v>
+        <v>1059</v>
       </c>
       <c r="C1076" t="s">
         <v>74</v>
@@ -43219,10 +43219,10 @@
         <v>356</v>
       </c>
       <c r="B1077" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C1077" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1077" t="s">
         <v>0</v>
@@ -43251,7 +43251,7 @@
         <v>193</v>
       </c>
       <c r="B1078" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="D1078" t="s">
         <v>5</v>
@@ -43306,10 +43306,10 @@
         <v>372</v>
       </c>
       <c r="B1080" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C1080" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1080" t="s">
         <v>0</v>
@@ -43338,7 +43338,7 @@
         <v>173</v>
       </c>
       <c r="B1081" t="s">
-        <v>954</v>
+        <v>1166</v>
       </c>
       <c r="D1081" t="s">
         <v>0</v>
@@ -43367,7 +43367,7 @@
         <v>848</v>
       </c>
       <c r="B1082" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
       <c r="E1082">
         <v>860</v>
@@ -43422,10 +43422,10 @@
         <v>318</v>
       </c>
       <c r="B1084" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C1084" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1084" t="s">
         <v>5</v>
@@ -43480,10 +43480,10 @@
         <v>327</v>
       </c>
       <c r="B1086" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C1086" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1086" t="s">
         <v>5</v>
@@ -43541,10 +43541,10 @@
         <v>336</v>
       </c>
       <c r="B1088" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C1088" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1088" t="s">
         <v>5</v>
@@ -43573,10 +43573,10 @@
         <v>347</v>
       </c>
       <c r="B1089" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C1089" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1089" t="s">
         <v>5</v>
@@ -43605,10 +43605,10 @@
         <v>359</v>
       </c>
       <c r="B1090" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C1090" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1090" t="s">
         <v>5</v>
@@ -43637,10 +43637,10 @@
         <v>375</v>
       </c>
       <c r="B1091" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C1091" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1091" t="s">
         <v>5</v>
@@ -43669,10 +43669,10 @@
         <v>321</v>
       </c>
       <c r="B1092" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C1092" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1092" t="s">
         <v>9</v>
@@ -43701,7 +43701,7 @@
         <v>786</v>
       </c>
       <c r="B1093" t="s">
-        <v>973</v>
+        <v>1164</v>
       </c>
       <c r="D1093" t="s">
         <v>5</v>
@@ -43730,7 +43730,7 @@
         <v>169</v>
       </c>
       <c r="B1094" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D1094" t="s">
         <v>9</v>
@@ -43759,7 +43759,7 @@
         <v>96</v>
       </c>
       <c r="B1095" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="D1095" t="s">
         <v>5</v>
@@ -43788,10 +43788,10 @@
         <v>330</v>
       </c>
       <c r="B1096" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="C1096" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1096" t="s">
         <v>9</v>
@@ -43849,10 +43849,10 @@
         <v>339</v>
       </c>
       <c r="B1098" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C1098" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1098" t="s">
         <v>9</v>
@@ -43878,7 +43878,7 @@
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="B1099" t="s">
         <v>850</v>
@@ -43910,7 +43910,7 @@
         <v>115</v>
       </c>
       <c r="B1100" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="D1100" t="s">
         <v>5</v>
@@ -43991,7 +43991,7 @@
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>1068</v>
+        <v>1065</v>
       </c>
       <c r="B1103" t="s">
         <v>909</v>
@@ -44026,7 +44026,7 @@
         <v>107</v>
       </c>
       <c r="B1104" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="D1104" t="s">
         <v>5</v>
@@ -44055,10 +44055,10 @@
         <v>350</v>
       </c>
       <c r="B1105" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="C1105" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1105" t="s">
         <v>9</v>
@@ -44113,7 +44113,7 @@
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B1107" t="s">
         <v>902</v>
@@ -44145,7 +44145,7 @@
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="B1108" t="s">
         <v>902</v>
@@ -44180,10 +44180,10 @@
         <v>363</v>
       </c>
       <c r="B1109" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C1109" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1109" t="s">
         <v>9</v>
@@ -44212,10 +44212,10 @@
         <v>922</v>
       </c>
       <c r="B1110" s="2" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C1110" t="s">
-        <v>982</v>
+        <v>979</v>
       </c>
       <c r="D1110" t="s">
         <v>9</v>

--- a/assets/lectionary.xlsx
+++ b/assets/lectionary.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anthonys/Dropbox/Christian/CofE/Common Worship/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14309445-78FE-AA41-A872-D35CC2F4FE15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6E16BD-5C6A-E84B-BEE8-688612F9FC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Lectionary" sheetId="1" r:id="rId1"/>
@@ -2466,9 +2466,6 @@
     <t>Song of Solomon 3.1-4</t>
   </si>
   <si>
-    <t>Psalm 42.1-10</t>
-  </si>
-  <si>
     <t>2 Corinthians 5.14-17</t>
   </si>
   <si>
@@ -3538,6 +3535,9 @@
   </si>
   <si>
     <t>Acts 9.1-6[7-20]</t>
+  </si>
+  <si>
+    <t>Psalm 42.1-10 (EV: 1-8)</t>
   </si>
 </sst>
 </file>
@@ -4389,9 +4389,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G334"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E311" sqref="E311"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4406,30 +4406,30 @@
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>905</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>908</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>906</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>907</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C2" t="s">
         <v>0</v>
@@ -4449,7 +4449,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -4458,7 +4458,7 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F3" t="s">
         <v>7</v>
@@ -4469,7 +4469,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -4489,7 +4489,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C5" t="s">
         <v>0</v>
@@ -4498,7 +4498,7 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="F5" t="s">
         <v>15</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
@@ -4518,7 +4518,7 @@
         <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="F6" t="s">
         <v>18</v>
@@ -4529,7 +4529,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
@@ -4549,7 +4549,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C8" t="s">
         <v>0</v>
@@ -4558,7 +4558,7 @@
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -4569,7 +4569,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C9" t="s">
         <v>5</v>
@@ -4589,7 +4589,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
@@ -4598,7 +4598,7 @@
         <v>31</v>
       </c>
       <c r="E10" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="F10" t="s">
         <v>32</v>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
@@ -4618,7 +4618,7 @@
         <v>34</v>
       </c>
       <c r="E11" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F11" t="s">
         <v>35</v>
@@ -4629,7 +4629,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C12" t="s">
         <v>5</v>
@@ -4638,7 +4638,7 @@
         <v>37</v>
       </c>
       <c r="E12" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -4649,7 +4649,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C13" t="s">
         <v>9</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C17" t="s">
         <v>0</v>
@@ -4738,7 +4738,7 @@
         <v>60</v>
       </c>
       <c r="E17" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F17" t="s">
         <v>61</v>
@@ -4749,7 +4749,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C18" t="s">
         <v>5</v>
@@ -4758,7 +4758,7 @@
         <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F18" t="s">
         <v>64</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C19" t="s">
         <v>9</v>
@@ -4778,7 +4778,7 @@
         <v>66</v>
       </c>
       <c r="E19" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="F19" t="s">
         <v>67</v>
@@ -4789,16 +4789,16 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B20" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D20" t="s">
         <v>69</v>
       </c>
       <c r="E20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="F20" t="s">
         <v>70</v>
@@ -4809,7 +4809,7 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="B21" t="s">
         <v>72</v>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D22" t="s">
         <v>75</v>
@@ -4846,7 +4846,7 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C23" t="s">
         <v>0</v>
@@ -4866,7 +4866,7 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C24" t="s">
         <v>5</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="C25" t="s">
         <v>9</v>
@@ -4906,7 +4906,7 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C26" t="s">
         <v>0</v>
@@ -4915,7 +4915,7 @@
         <v>89</v>
       </c>
       <c r="E26" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="F26" t="s">
         <v>90</v>
@@ -4926,7 +4926,7 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C27" t="s">
         <v>5</v>
@@ -4935,7 +4935,7 @@
         <v>92</v>
       </c>
       <c r="E27" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="F27" t="s">
         <v>93</v>
@@ -4946,7 +4946,7 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C28" t="s">
         <v>9</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C29" t="s">
         <v>0</v>
@@ -4975,7 +4975,7 @@
         <v>99</v>
       </c>
       <c r="E29" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="F29" t="s">
         <v>100</v>
@@ -4986,7 +4986,7 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C30" t="s">
         <v>5</v>
@@ -5006,7 +5006,7 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C31" t="s">
         <v>9</v>
@@ -5015,7 +5015,7 @@
         <v>105</v>
       </c>
       <c r="E31" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="F31" t="s">
         <v>106</v>
@@ -5026,7 +5026,7 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C32" t="s">
         <v>0</v>
@@ -5046,7 +5046,7 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C33" t="s">
         <v>5</v>
@@ -5066,7 +5066,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C34" t="s">
         <v>9</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="D35" t="s">
         <v>118</v>
@@ -5132,7 +5132,7 @@
         <v>126</v>
       </c>
       <c r="E37" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="F37" t="s">
         <v>127</v>
@@ -5272,10 +5272,10 @@
         <v>155</v>
       </c>
       <c r="E44" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="F44" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="G44" t="s">
         <v>156</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C45" t="s">
         <v>0</v>
@@ -5303,7 +5303,7 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C46" t="s">
         <v>5</v>
@@ -5312,7 +5312,7 @@
         <v>161</v>
       </c>
       <c r="E46" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="F46" t="s">
         <v>162</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C47" t="s">
         <v>9</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C48" t="s">
         <v>0</v>
@@ -5363,7 +5363,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C49" t="s">
         <v>5</v>
@@ -5383,7 +5383,7 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C50" t="s">
         <v>9</v>
@@ -5409,7 +5409,7 @@
         <v>180</v>
       </c>
       <c r="E51" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="F51" t="s">
         <v>181</v>
@@ -5420,7 +5420,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C52" t="s">
         <v>0</v>
@@ -5440,7 +5440,7 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C53" t="s">
         <v>5</v>
@@ -5449,7 +5449,7 @@
         <v>187</v>
       </c>
       <c r="E53" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="F53" t="s">
         <v>188</v>
@@ -5460,7 +5460,7 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C54" t="s">
         <v>9</v>
@@ -5469,7 +5469,7 @@
         <v>190</v>
       </c>
       <c r="E54" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="F54" t="s">
         <v>191</v>
@@ -5480,7 +5480,7 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C55" t="s">
         <v>0</v>
@@ -5500,7 +5500,7 @@
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C56" t="s">
         <v>5</v>
@@ -5520,7 +5520,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C57" t="s">
         <v>9</v>
@@ -5540,7 +5540,7 @@
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C58" t="s">
         <v>0</v>
@@ -5560,7 +5560,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C59" t="s">
         <v>5</v>
@@ -5569,7 +5569,7 @@
         <v>209</v>
       </c>
       <c r="E59" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F59" t="s">
         <v>210</v>
@@ -5580,7 +5580,7 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C60" t="s">
         <v>9</v>
@@ -5600,7 +5600,7 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C61" t="s">
         <v>0</v>
@@ -5620,7 +5620,7 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C62" t="s">
         <v>5</v>
@@ -5629,7 +5629,7 @@
         <v>220</v>
       </c>
       <c r="E62" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="F62" t="s">
         <v>221</v>
@@ -5640,7 +5640,7 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C63" t="s">
         <v>9</v>
@@ -5666,7 +5666,7 @@
         <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="F64" t="s">
         <v>228</v>
@@ -5677,7 +5677,7 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C65" t="s">
         <v>0</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C66" t="s">
         <v>5</v>
@@ -5706,7 +5706,7 @@
         <v>234</v>
       </c>
       <c r="E66" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="F66" t="s">
         <v>235</v>
@@ -5717,7 +5717,7 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C67" t="s">
         <v>9</v>
@@ -5749,7 +5749,7 @@
         <v>243</v>
       </c>
       <c r="E68" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
@@ -5766,7 +5766,7 @@
         <v>244</v>
       </c>
       <c r="E69" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
@@ -5783,7 +5783,7 @@
         <v>245</v>
       </c>
       <c r="E70" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
@@ -5800,7 +5800,7 @@
         <v>247</v>
       </c>
       <c r="E71" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F71" t="s">
         <v>248</v>
@@ -5823,7 +5823,7 @@
         <v>247</v>
       </c>
       <c r="E72" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F72" t="s">
         <v>248</v>
@@ -5846,7 +5846,7 @@
         <v>247</v>
       </c>
       <c r="E73" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="F73" t="s">
         <v>248</v>
@@ -5911,10 +5911,10 @@
         <v>263</v>
       </c>
       <c r="D77" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="E77" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F77" t="s">
         <v>264</v>
@@ -5931,7 +5931,7 @@
         <v>267</v>
       </c>
       <c r="E78" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="F78" t="s">
         <v>268</v>
@@ -5948,7 +5948,7 @@
         <v>271</v>
       </c>
       <c r="E79" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="F79" t="s">
         <v>272</v>
@@ -6111,7 +6111,7 @@
         <v>296</v>
       </c>
       <c r="E93" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F93" t="s">
         <v>297</v>
@@ -6131,7 +6131,7 @@
         <v>299</v>
       </c>
       <c r="E94" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F94" t="s">
         <v>300</v>
@@ -6151,7 +6151,7 @@
         <v>302</v>
       </c>
       <c r="E95" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="F95" t="s">
         <v>303</v>
@@ -6162,10 +6162,10 @@
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B96" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C96" t="s">
         <v>0</v>
@@ -6185,10 +6185,10 @@
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B97" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C97" t="s">
         <v>5</v>
@@ -6208,10 +6208,10 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B98" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C98" t="s">
         <v>9</v>
@@ -6231,7 +6231,7 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B99" t="s">
         <v>72</v>
@@ -6254,7 +6254,7 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B100" t="s">
         <v>72</v>
@@ -6277,7 +6277,7 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="B101" t="s">
         <v>72</v>
@@ -6300,10 +6300,10 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B102" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C102" t="s">
         <v>0</v>
@@ -6312,7 +6312,7 @@
         <v>314</v>
       </c>
       <c r="E102" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F102" t="s">
         <v>315</v>
@@ -6323,10 +6323,10 @@
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B103" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C103" t="s">
         <v>5</v>
@@ -6346,16 +6346,16 @@
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B104" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C104" t="s">
         <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="E104" t="s">
         <v>139</v>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B105" t="s">
         <v>72</v>
@@ -6381,7 +6381,7 @@
         <v>31</v>
       </c>
       <c r="E105" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="F105" t="s">
         <v>314</v>
@@ -6392,7 +6392,7 @@
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B106" t="s">
         <v>72</v>
@@ -6415,7 +6415,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="B107" t="s">
         <v>72</v>
@@ -6430,7 +6430,7 @@
         <v>139</v>
       </c>
       <c r="F107" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G107" t="s">
         <v>322</v>
@@ -6438,10 +6438,10 @@
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B108" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C108" t="s">
         <v>0</v>
@@ -6461,10 +6461,10 @@
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B109" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C109" t="s">
         <v>5</v>
@@ -6484,10 +6484,10 @@
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B110" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C110" t="s">
         <v>9</v>
@@ -6507,7 +6507,7 @@
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B111" t="s">
         <v>72</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B112" t="s">
         <v>72</v>
@@ -6553,7 +6553,7 @@
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="B113" t="s">
         <v>72</v>
@@ -6576,10 +6576,10 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B114" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C114" t="s">
         <v>0</v>
@@ -6588,7 +6588,7 @@
         <v>333</v>
       </c>
       <c r="E114" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F114" t="s">
         <v>334</v>
@@ -6599,10 +6599,10 @@
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B115" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C115" t="s">
         <v>5</v>
@@ -6622,10 +6622,10 @@
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B116" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C116" t="s">
         <v>9</v>
@@ -6634,7 +6634,7 @@
         <v>340</v>
       </c>
       <c r="E116" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F116" t="s">
         <v>341</v>
@@ -6645,7 +6645,7 @@
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B117" t="s">
         <v>72</v>
@@ -6657,7 +6657,7 @@
         <v>343</v>
       </c>
       <c r="E117" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F117" t="s">
         <v>333</v>
@@ -6668,7 +6668,7 @@
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B118" t="s">
         <v>72</v>
@@ -6691,7 +6691,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="B119" t="s">
         <v>72</v>
@@ -6703,7 +6703,7 @@
         <v>344</v>
       </c>
       <c r="E119" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="F119" t="s">
         <v>340</v>
@@ -6714,10 +6714,10 @@
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B120" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C120" t="s">
         <v>0</v>
@@ -6726,7 +6726,7 @@
         <v>345</v>
       </c>
       <c r="E120" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F120" t="s">
         <v>346</v>
@@ -6737,10 +6737,10 @@
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B121" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -6760,10 +6760,10 @@
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B122" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C122" t="s">
         <v>9</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B123" t="s">
         <v>72</v>
@@ -6795,7 +6795,7 @@
         <v>355</v>
       </c>
       <c r="E123" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="F123" t="s">
         <v>345</v>
@@ -6806,7 +6806,7 @@
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B124" t="s">
         <v>72</v>
@@ -6829,7 +6829,7 @@
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="B125" t="s">
         <v>72</v>
@@ -6869,10 +6869,10 @@
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B127" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C127" t="s">
         <v>0</v>
@@ -6881,7 +6881,7 @@
         <v>361</v>
       </c>
       <c r="E127" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F127" t="s">
         <v>362</v>
@@ -6892,10 +6892,10 @@
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B128" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -6915,10 +6915,10 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B129" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C129" t="s">
         <v>9</v>
@@ -6930,7 +6930,7 @@
         <v>52</v>
       </c>
       <c r="F129" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G129" t="s">
         <v>368</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B130" t="s">
         <v>72</v>
@@ -6950,7 +6950,7 @@
         <v>287</v>
       </c>
       <c r="E130" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="F130" t="s">
         <v>361</v>
@@ -6961,7 +6961,7 @@
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B131" t="s">
         <v>72</v>
@@ -6984,7 +6984,7 @@
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="B132" t="s">
         <v>72</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C133" t="s">
         <v>0</v>
@@ -7016,7 +7016,7 @@
         <v>369</v>
       </c>
       <c r="E133" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F133" t="s">
         <v>370</v>
@@ -7027,7 +7027,7 @@
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -7036,7 +7036,7 @@
         <v>372</v>
       </c>
       <c r="E134" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F134" t="s">
         <v>373</v>
@@ -7047,7 +7047,7 @@
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C135" t="s">
         <v>9</v>
@@ -7056,7 +7056,7 @@
         <v>375</v>
       </c>
       <c r="E135" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="F135" t="s">
         <v>376</v>
@@ -7127,13 +7127,13 @@
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D139" t="s">
         <v>388</v>
       </c>
       <c r="E139" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="F139" t="s">
         <v>264</v>
@@ -7199,7 +7199,7 @@
         <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="E142" t="s">
         <v>47</v>
@@ -7225,7 +7225,7 @@
         <v>401</v>
       </c>
       <c r="E143" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="F143" t="s">
         <v>393</v>
@@ -7314,7 +7314,7 @@
         <v>5</v>
       </c>
       <c r="D147" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E147" t="s">
         <v>130</v>
@@ -7432,13 +7432,13 @@
         <v>421</v>
       </c>
       <c r="E152" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="F152" t="s">
         <v>422</v>
       </c>
       <c r="G152" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.2">
@@ -7458,7 +7458,7 @@
         <v>424</v>
       </c>
       <c r="F153" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G153" t="s">
         <v>425</v>
@@ -7475,7 +7475,7 @@
         <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="E154" t="s">
         <v>426</v>
@@ -7507,7 +7507,7 @@
         <v>422</v>
       </c>
       <c r="G155" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.2">
@@ -7524,10 +7524,10 @@
         <v>431</v>
       </c>
       <c r="E156" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="F156" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="G156" t="s">
         <v>425</v>
@@ -7570,7 +7570,7 @@
         <v>434</v>
       </c>
       <c r="E158" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="F158" t="s">
         <v>435</v>
@@ -7590,10 +7590,10 @@
         <v>5</v>
       </c>
       <c r="D159" t="s">
+        <v>896</v>
+      </c>
+      <c r="E159" t="s">
         <v>897</v>
-      </c>
-      <c r="E159" t="s">
-        <v>898</v>
       </c>
       <c r="F159" t="s">
         <v>437</v>
@@ -7613,10 +7613,10 @@
         <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="E160" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="F160" t="s">
         <v>439</v>
@@ -7639,7 +7639,7 @@
         <v>441</v>
       </c>
       <c r="E161" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F161" t="s">
         <v>435</v>
@@ -7662,7 +7662,7 @@
         <v>442</v>
       </c>
       <c r="E162" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="F162" t="s">
         <v>437</v>
@@ -7754,7 +7754,7 @@
         <v>453</v>
       </c>
       <c r="E166" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="F166" t="s">
         <v>454</v>
@@ -7777,7 +7777,7 @@
         <v>456</v>
       </c>
       <c r="E167" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="F167" t="s">
         <v>448</v>
@@ -7797,10 +7797,10 @@
         <v>5</v>
       </c>
       <c r="D168" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="E168" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="F168" t="s">
         <v>451</v>
@@ -7915,7 +7915,7 @@
         <v>468</v>
       </c>
       <c r="E173" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F173" t="s">
         <v>461</v>
@@ -7961,7 +7961,7 @@
         <v>471</v>
       </c>
       <c r="E175" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="F175" t="s">
         <v>466</v>
@@ -8053,7 +8053,7 @@
         <v>484</v>
       </c>
       <c r="E179" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F179" t="s">
         <v>475</v>
@@ -8099,7 +8099,7 @@
         <v>487</v>
       </c>
       <c r="E181" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="F181" t="s">
         <v>482</v>
@@ -8122,7 +8122,7 @@
         <v>489</v>
       </c>
       <c r="E182" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="F182" t="s">
         <v>490</v>
@@ -8188,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="D185" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E185" t="s">
         <v>500</v>
@@ -8260,7 +8260,7 @@
         <v>505</v>
       </c>
       <c r="E188" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="F188" t="s">
         <v>506</v>
@@ -8306,7 +8306,7 @@
         <v>512</v>
       </c>
       <c r="E190" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="F190" t="s">
         <v>513</v>
@@ -8398,7 +8398,7 @@
         <v>521</v>
       </c>
       <c r="E194" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="F194" t="s">
         <v>522</v>
@@ -8421,7 +8421,7 @@
         <v>524</v>
       </c>
       <c r="E195" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="F195" t="s">
         <v>525</v>
@@ -8444,7 +8444,7 @@
         <v>527</v>
       </c>
       <c r="E196" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="F196" t="s">
         <v>528</v>
@@ -8467,7 +8467,7 @@
         <v>530</v>
       </c>
       <c r="E197" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="F197" t="s">
         <v>522</v>
@@ -8513,7 +8513,7 @@
         <v>533</v>
       </c>
       <c r="E199" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="F199" t="s">
         <v>528</v>
@@ -8536,7 +8536,7 @@
         <v>535</v>
       </c>
       <c r="E200" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="F200" t="s">
         <v>536</v>
@@ -8582,7 +8582,7 @@
         <v>541</v>
       </c>
       <c r="E202" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="F202" t="s">
         <v>542</v>
@@ -8651,7 +8651,7 @@
         <v>547</v>
       </c>
       <c r="E205" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="F205" t="s">
         <v>542</v>
@@ -8720,7 +8720,7 @@
         <v>554</v>
       </c>
       <c r="E208" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="F208" t="s">
         <v>555</v>
@@ -8832,7 +8832,7 @@
         <v>5</v>
       </c>
       <c r="D213" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E213" t="s">
         <v>567</v>
@@ -8950,7 +8950,7 @@
         <v>580</v>
       </c>
       <c r="E218" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="F218" t="s">
         <v>581</v>
@@ -8973,7 +8973,7 @@
         <v>583</v>
       </c>
       <c r="E219" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="F219" t="s">
         <v>584</v>
@@ -8996,7 +8996,7 @@
         <v>586</v>
       </c>
       <c r="E220" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="F220" t="s">
         <v>587</v>
@@ -9114,7 +9114,7 @@
         <v>600</v>
       </c>
       <c r="F225" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G225" t="s">
         <v>601</v>
@@ -9134,7 +9134,7 @@
         <v>602</v>
       </c>
       <c r="E226" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="F226" t="s">
         <v>603</v>
@@ -9183,7 +9183,7 @@
         <v>413</v>
       </c>
       <c r="F228" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G228" t="s">
         <v>601</v>
@@ -9226,7 +9226,7 @@
         <v>609</v>
       </c>
       <c r="E230" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="F230" t="s">
         <v>610</v>
@@ -9249,7 +9249,7 @@
         <v>612</v>
       </c>
       <c r="E231" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F231" t="s">
         <v>613</v>
@@ -9295,7 +9295,7 @@
         <v>618</v>
       </c>
       <c r="E233" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F233" t="s">
         <v>610</v>
@@ -9341,7 +9341,7 @@
         <v>620</v>
       </c>
       <c r="E235" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="F235" t="s">
         <v>616</v>
@@ -9364,7 +9364,7 @@
         <v>622</v>
       </c>
       <c r="E236" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="F236" t="s">
         <v>623</v>
@@ -9453,7 +9453,7 @@
         <v>5</v>
       </c>
       <c r="D240" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="E240" t="s">
         <v>634</v>
@@ -9502,7 +9502,7 @@
         <v>205</v>
       </c>
       <c r="E242" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="F242" t="s">
         <v>638</v>
@@ -9548,7 +9548,7 @@
         <v>643</v>
       </c>
       <c r="E244" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="F244" t="s">
         <v>644</v>
@@ -9571,7 +9571,7 @@
         <v>646</v>
       </c>
       <c r="E245" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="F245" t="s">
         <v>638</v>
@@ -9640,7 +9640,7 @@
         <v>651</v>
       </c>
       <c r="E248" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="F248" t="s">
         <v>239</v>
@@ -9686,7 +9686,7 @@
         <v>657</v>
       </c>
       <c r="E250" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="F250" t="s">
         <v>658</v>
@@ -9709,7 +9709,7 @@
         <v>554</v>
       </c>
       <c r="E251" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="F251" t="s">
         <v>239</v>
@@ -9778,7 +9778,7 @@
         <v>664</v>
       </c>
       <c r="E254" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="F254" t="s">
         <v>665</v>
@@ -9824,7 +9824,7 @@
         <v>671</v>
       </c>
       <c r="E256" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="F256" t="s">
         <v>672</v>
@@ -9939,7 +9939,7 @@
         <v>683</v>
       </c>
       <c r="E261" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="F261" t="s">
         <v>684</v>
@@ -10054,7 +10054,7 @@
         <v>695</v>
       </c>
       <c r="E266" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F266" t="s">
         <v>696</v>
@@ -10077,7 +10077,7 @@
         <v>698</v>
       </c>
       <c r="E267" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F267" t="s">
         <v>699</v>
@@ -10100,7 +10100,7 @@
         <v>701</v>
       </c>
       <c r="E268" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="F268" t="s">
         <v>702</v>
@@ -10166,10 +10166,10 @@
         <v>9</v>
       </c>
       <c r="D271" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="E271" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="F271" t="s">
         <v>702</v>
@@ -10180,13 +10180,13 @@
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C272" t="s">
         <v>0</v>
       </c>
       <c r="D272" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="E272" t="s">
         <v>706</v>
@@ -10200,7 +10200,7 @@
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C273" t="s">
         <v>5</v>
@@ -10220,7 +10220,7 @@
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="C274" t="s">
         <v>9</v>
@@ -10240,7 +10240,7 @@
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C275" t="s">
         <v>0</v>
@@ -10260,13 +10260,13 @@
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C276" t="s">
         <v>5</v>
       </c>
       <c r="D276" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="E276" t="s">
         <v>715</v>
@@ -10280,7 +10280,7 @@
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C277" t="s">
         <v>9</v>
@@ -10300,7 +10300,7 @@
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D278" t="s">
         <v>721</v>
@@ -10317,7 +10317,7 @@
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C279" t="s">
         <v>0</v>
@@ -10326,7 +10326,7 @@
         <v>724</v>
       </c>
       <c r="E279" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F279" t="s">
         <v>725</v>
@@ -10337,7 +10337,7 @@
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C280" t="s">
         <v>5</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C281" t="s">
         <v>9</v>
@@ -10366,7 +10366,7 @@
         <v>730</v>
       </c>
       <c r="E281" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="F281" t="s">
         <v>731</v>
@@ -10377,10 +10377,10 @@
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="C282" t="s">
         <v>0</v>
@@ -10400,7 +10400,7 @@
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B283" t="s">
         <v>72</v>
@@ -10423,7 +10423,7 @@
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C284" t="s">
         <v>5</v>
@@ -10443,7 +10443,7 @@
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C285" t="s">
         <v>9</v>
@@ -10452,7 +10452,7 @@
         <v>742</v>
       </c>
       <c r="E285" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="F285" t="s">
         <v>743</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C286" t="s">
         <v>0</v>
@@ -10472,7 +10472,7 @@
         <v>745</v>
       </c>
       <c r="E286" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="F286" t="s">
         <v>746</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C287" t="s">
         <v>5</v>
@@ -10495,7 +10495,7 @@
         <v>280</v>
       </c>
       <c r="F287" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="G287" t="s">
         <v>749</v>
@@ -10503,7 +10503,7 @@
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="C288" t="s">
         <v>9</v>
@@ -10523,7 +10523,7 @@
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C289" t="s">
         <v>0</v>
@@ -10532,7 +10532,7 @@
         <v>753</v>
       </c>
       <c r="E289" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="F289" t="s">
         <v>754</v>
@@ -10543,7 +10543,7 @@
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C290" t="s">
         <v>5</v>
@@ -10563,7 +10563,7 @@
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="C291" t="s">
         <v>9</v>
@@ -10583,7 +10583,7 @@
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D292" t="s">
         <v>762</v>
@@ -10600,10 +10600,10 @@
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D293" t="s">
         <v>570</v>
@@ -10620,7 +10620,7 @@
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="B294" t="s">
         <v>72</v>
@@ -10657,13 +10657,13 @@
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D296" t="s">
         <v>770</v>
       </c>
       <c r="E296" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="F296" t="s">
         <v>771</v>
@@ -10728,7 +10728,7 @@
         <v>783</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D300" t="s">
         <v>784</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D302" t="s">
         <v>787</v>
@@ -10777,7 +10777,7 @@
         <v>788</v>
       </c>
       <c r="G302" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.2">
@@ -10785,7 +10785,7 @@
         <v>789</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D303" t="s">
         <v>790</v>
@@ -10822,7 +10822,7 @@
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D305" t="s">
         <v>17</v>
@@ -10839,10 +10839,10 @@
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D306" t="s">
         <v>797</v>
@@ -10859,7 +10859,7 @@
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B307" t="s">
         <v>72</v>
@@ -10879,10 +10879,10 @@
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D308" t="s">
         <v>801</v>
@@ -10899,7 +10899,7 @@
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="B309" t="s">
         <v>72</v>
@@ -10942,337 +10942,337 @@
         <v>808</v>
       </c>
       <c r="E311" t="s">
+        <v>1166</v>
+      </c>
+      <c r="F311" t="s">
         <v>809</v>
       </c>
-      <c r="F311" t="s">
+      <c r="G311" t="s">
         <v>810</v>
-      </c>
-      <c r="G311" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
+        <v>811</v>
+      </c>
+      <c r="B312" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D312" t="s">
         <v>812</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="D312" t="s">
-        <v>813</v>
       </c>
       <c r="E312" t="s">
         <v>238</v>
       </c>
       <c r="F312" t="s">
+        <v>813</v>
+      </c>
+      <c r="G312" t="s">
         <v>814</v>
-      </c>
-      <c r="G312" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B313" t="s">
         <v>72</v>
       </c>
       <c r="D313" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="E313" t="s">
         <v>238</v>
       </c>
       <c r="F313" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G313" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="D314" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="E314" t="s">
         <v>52</v>
       </c>
       <c r="F314" t="s">
+        <v>817</v>
+      </c>
+      <c r="G314" t="s">
         <v>818</v>
-      </c>
-      <c r="G314" t="s">
-        <v>819</v>
       </c>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
+        <v>819</v>
+      </c>
+      <c r="D315" t="s">
         <v>820</v>
       </c>
-      <c r="D315" t="s">
+      <c r="E315" t="s">
         <v>821</v>
-      </c>
-      <c r="E315" t="s">
-        <v>822</v>
       </c>
       <c r="F315" t="s">
         <v>64</v>
       </c>
       <c r="G315" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
+        <v>823</v>
+      </c>
+      <c r="B316" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D316" t="s">
         <v>824</v>
       </c>
-      <c r="B316" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="D316" t="s">
+      <c r="E316" t="s">
         <v>825</v>
       </c>
-      <c r="E316" t="s">
+      <c r="F316" t="s">
         <v>826</v>
       </c>
-      <c r="F316" t="s">
+      <c r="G316" t="s">
         <v>827</v>
-      </c>
-      <c r="G316" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="B317" t="s">
         <v>72</v>
       </c>
       <c r="D317" t="s">
+        <v>826</v>
+      </c>
+      <c r="E317" t="s">
+        <v>825</v>
+      </c>
+      <c r="F317" t="s">
+        <v>828</v>
+      </c>
+      <c r="G317" t="s">
         <v>827</v>
-      </c>
-      <c r="E317" t="s">
-        <v>826</v>
-      </c>
-      <c r="F317" t="s">
-        <v>829</v>
-      </c>
-      <c r="G317" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="D318" t="s">
         <v>220</v>
       </c>
       <c r="E318" t="s">
+        <v>830</v>
+      </c>
+      <c r="F318" t="s">
         <v>831</v>
       </c>
-      <c r="F318" t="s">
+      <c r="G318" t="s">
         <v>832</v>
-      </c>
-      <c r="G318" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
+        <v>833</v>
+      </c>
+      <c r="D319" t="s">
         <v>834</v>
       </c>
-      <c r="D319" t="s">
+      <c r="E319" t="s">
         <v>835</v>
       </c>
-      <c r="E319" t="s">
+      <c r="F319" t="s">
         <v>836</v>
       </c>
-      <c r="F319" t="s">
+      <c r="G319" t="s">
         <v>837</v>
-      </c>
-      <c r="G319" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
+        <v>838</v>
+      </c>
+      <c r="B320" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D320" t="s">
         <v>839</v>
       </c>
-      <c r="B320" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="D320" t="s">
+      <c r="E320" t="s">
         <v>840</v>
       </c>
-      <c r="E320" t="s">
+      <c r="F320" t="s">
         <v>841</v>
       </c>
-      <c r="F320" t="s">
+      <c r="G320" t="s">
         <v>842</v>
-      </c>
-      <c r="G320" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B321" t="s">
         <v>72</v>
       </c>
       <c r="D321" t="s">
+        <v>841</v>
+      </c>
+      <c r="E321" t="s">
+        <v>840</v>
+      </c>
+      <c r="F321" t="s">
+        <v>843</v>
+      </c>
+      <c r="G321" t="s">
         <v>842</v>
-      </c>
-      <c r="E321" t="s">
-        <v>841</v>
-      </c>
-      <c r="F321" t="s">
-        <v>844</v>
-      </c>
-      <c r="G321" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
+        <v>844</v>
+      </c>
+      <c r="D322" t="s">
         <v>845</v>
       </c>
-      <c r="D322" t="s">
+      <c r="E322" t="s">
         <v>846</v>
       </c>
-      <c r="E322" t="s">
+      <c r="F322" t="s">
         <v>847</v>
       </c>
-      <c r="F322" t="s">
+      <c r="G322" t="s">
         <v>848</v>
-      </c>
-      <c r="G322" t="s">
-        <v>849</v>
       </c>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
+        <v>849</v>
+      </c>
+      <c r="D323" t="s">
         <v>850</v>
       </c>
-      <c r="D323" t="s">
+      <c r="E323" t="s">
         <v>851</v>
-      </c>
-      <c r="E323" t="s">
-        <v>852</v>
       </c>
       <c r="F323" t="s">
         <v>805</v>
       </c>
       <c r="G323" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D324" t="s">
         <v>56</v>
       </c>
       <c r="E324" t="s">
+        <v>854</v>
+      </c>
+      <c r="F324" t="s">
         <v>855</v>
       </c>
-      <c r="F324" t="s">
+      <c r="G324" t="s">
         <v>856</v>
-      </c>
-      <c r="G324" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
+        <v>857</v>
+      </c>
+      <c r="B325" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="D325" t="s">
         <v>858</v>
       </c>
-      <c r="B325" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="D325" t="s">
+      <c r="E325" t="s">
         <v>859</v>
       </c>
-      <c r="E325" t="s">
+      <c r="F325" t="s">
         <v>860</v>
       </c>
-      <c r="F325" t="s">
+      <c r="G325" t="s">
         <v>861</v>
-      </c>
-      <c r="G325" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B326" t="s">
         <v>72</v>
       </c>
       <c r="D326" t="s">
+        <v>860</v>
+      </c>
+      <c r="E326" t="s">
+        <v>859</v>
+      </c>
+      <c r="F326" t="s">
+        <v>862</v>
+      </c>
+      <c r="G326" t="s">
         <v>861</v>
-      </c>
-      <c r="E326" t="s">
-        <v>860</v>
-      </c>
-      <c r="F326" t="s">
-        <v>863</v>
-      </c>
-      <c r="G326" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
+        <v>863</v>
+      </c>
+      <c r="D327" t="s">
         <v>864</v>
       </c>
-      <c r="D327" t="s">
+      <c r="E327" t="s">
         <v>865</v>
       </c>
-      <c r="E327" t="s">
+      <c r="F327" t="s">
         <v>866</v>
       </c>
-      <c r="F327" t="s">
+      <c r="G327" t="s">
         <v>867</v>
-      </c>
-      <c r="G327" t="s">
-        <v>868</v>
       </c>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="D328" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="E328" t="s">
         <v>564</v>
       </c>
       <c r="F328" t="s">
+        <v>869</v>
+      </c>
+      <c r="G328" t="s">
         <v>870</v>
-      </c>
-      <c r="G328" t="s">
-        <v>871</v>
       </c>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C329" t="s">
         <v>0</v>
       </c>
       <c r="D329" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -11281,38 +11281,38 @@
         <v>723</v>
       </c>
       <c r="G329" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C330" t="s">
         <v>5</v>
       </c>
       <c r="D330" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
       </c>
       <c r="F330" t="s">
+        <v>875</v>
+      </c>
+      <c r="G330" t="s">
         <v>876</v>
-      </c>
-      <c r="G330" t="s">
-        <v>877</v>
       </c>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C331" t="s">
         <v>9</v>
       </c>
       <c r="D331" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -11326,47 +11326,47 @@
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C332" t="s">
         <v>0</v>
       </c>
       <c r="D332" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="E332" t="s">
         <v>164</v>
       </c>
       <c r="F332" t="s">
+        <v>880</v>
+      </c>
+      <c r="G332" t="s">
         <v>881</v>
-      </c>
-      <c r="G332" t="s">
-        <v>882</v>
       </c>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C333" t="s">
         <v>5</v>
       </c>
       <c r="D333" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E333" t="s">
         <v>238</v>
       </c>
       <c r="F333" t="s">
+        <v>883</v>
+      </c>
+      <c r="G333" t="s">
         <v>884</v>
-      </c>
-      <c r="G333" t="s">
-        <v>885</v>
       </c>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C334" t="s">
         <v>9</v>
@@ -11378,10 +11378,10 @@
         <v>430</v>
       </c>
       <c r="F334" t="s">
+        <v>885</v>
+      </c>
+      <c r="G334" t="s">
         <v>886</v>
-      </c>
-      <c r="G334" t="s">
-        <v>887</v>
       </c>
     </row>
   </sheetData>
@@ -11394,9 +11394,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F70A7CF-61F1-1D49-9900-D24B7F3D878C}">
   <dimension ref="A1:J1110"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A214" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A232" sqref="A232"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11415,34 +11415,34 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>903</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>904</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>905</v>
-      </c>
       <c r="E1" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>1041</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>1057</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>1042</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>1043</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>1044</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>1045</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -11450,7 +11450,7 @@
         <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D2" t="s">
         <v>5</v>
@@ -11479,7 +11479,7 @@
         <v>157</v>
       </c>
       <c r="B3" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D3" t="s">
         <v>0</v>
@@ -11534,7 +11534,7 @@
         <v>163</v>
       </c>
       <c r="B5" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -11563,7 +11563,7 @@
         <v>183</v>
       </c>
       <c r="B6" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D6" t="s">
         <v>0</v>
@@ -11714,7 +11714,7 @@
         <v>332</v>
       </c>
       <c r="B11" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C11" t="s">
         <v>72</v>
@@ -11746,7 +11746,7 @@
         <v>277</v>
       </c>
       <c r="B12" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C12" t="s">
         <v>72</v>
@@ -11778,7 +11778,7 @@
         <v>277</v>
       </c>
       <c r="B13" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C13" t="s">
         <v>72</v>
@@ -11810,7 +11810,7 @@
         <v>343</v>
       </c>
       <c r="B14" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C14" t="s">
         <v>72</v>
@@ -11842,7 +11842,7 @@
         <v>355</v>
       </c>
       <c r="B15" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C15" t="s">
         <v>72</v>
@@ -11874,7 +11874,7 @@
         <v>187</v>
       </c>
       <c r="B16" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D16" t="s">
         <v>5</v>
@@ -11900,10 +11900,10 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="B17" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C17" t="s">
         <v>72</v>
@@ -11935,7 +11935,7 @@
         <v>193</v>
       </c>
       <c r="B18" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D18" t="s">
         <v>0</v>
@@ -11996,7 +11996,7 @@
         <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D20" t="s">
         <v>5</v>
@@ -12025,7 +12025,7 @@
         <v>388</v>
       </c>
       <c r="B21" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E21">
         <v>139</v>
@@ -12051,7 +12051,7 @@
         <v>201</v>
       </c>
       <c r="B22" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
@@ -12112,7 +12112,7 @@
         <v>197</v>
       </c>
       <c r="B24" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D24" t="s">
         <v>5</v>
@@ -12295,10 +12295,10 @@
         <v>279</v>
       </c>
       <c r="B30" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C30" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D30" t="s">
         <v>5</v>
@@ -12327,10 +12327,10 @@
         <v>279</v>
       </c>
       <c r="B31" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C31" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D31" t="s">
         <v>9</v>
@@ -12484,13 +12484,13 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="B36" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C36" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E36">
         <v>330</v>
@@ -12513,13 +12513,13 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="B37" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C37" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D37" t="s">
         <v>5</v>
@@ -12798,13 +12798,13 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="B46" t="s">
         <v>226</v>
       </c>
       <c r="C46" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E46">
         <v>66</v>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="B48" t="s">
         <v>263</v>
@@ -12946,7 +12946,7 @@
         <v>281</v>
       </c>
       <c r="B51" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C51" t="s">
         <v>72</v>
@@ -13004,7 +13004,7 @@
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="B53" t="s">
         <v>274</v>
@@ -13030,13 +13030,13 @@
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B54" t="s">
         <v>608</v>
       </c>
       <c r="C54" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D54" t="s">
         <v>0</v>
@@ -13129,7 +13129,7 @@
         <v>205</v>
       </c>
       <c r="B57" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -13222,7 +13222,7 @@
         <v>209</v>
       </c>
       <c r="B60" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D60" t="s">
         <v>5</v>
@@ -13283,7 +13283,7 @@
         <v>167</v>
       </c>
       <c r="B62" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -13373,10 +13373,10 @@
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B65" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E65">
         <v>337</v>
@@ -13434,7 +13434,7 @@
         <v>175</v>
       </c>
       <c r="B67" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D67" t="s">
         <v>9</v>
@@ -13524,7 +13524,7 @@
         <v>762</v>
       </c>
       <c r="B70" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E70">
         <v>300</v>
@@ -13579,10 +13579,10 @@
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="B72" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C72" t="s">
         <v>72</v>
@@ -13614,7 +13614,7 @@
         <v>220</v>
       </c>
       <c r="B73" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D73" t="s">
         <v>5</v>
@@ -13643,7 +13643,7 @@
         <v>220</v>
       </c>
       <c r="B74" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E74">
         <v>328</v>
@@ -13733,7 +13733,7 @@
         <v>727</v>
       </c>
       <c r="B77" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D77" t="s">
         <v>5</v>
@@ -13759,13 +13759,13 @@
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="B78" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C78" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D78" t="s">
         <v>0</v>
@@ -13826,7 +13826,7 @@
         <v>110</v>
       </c>
       <c r="B80" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D80" t="s">
         <v>5</v>
@@ -13855,7 +13855,7 @@
         <v>190</v>
       </c>
       <c r="B81" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D81" t="s">
         <v>9</v>
@@ -13884,7 +13884,7 @@
         <v>190</v>
       </c>
       <c r="B82" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D82" t="s">
         <v>9</v>
@@ -13910,10 +13910,10 @@
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="B83" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C83" t="s">
         <v>72</v>
@@ -13980,7 +13980,7 @@
         <v>133</v>
       </c>
       <c r="C85" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D85" t="s">
         <v>0</v>
@@ -14073,7 +14073,7 @@
         <v>223</v>
       </c>
       <c r="B88" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D88" t="s">
         <v>9</v>
@@ -14131,7 +14131,7 @@
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="B90" t="s">
         <v>226</v>
@@ -14163,7 +14163,7 @@
         <v>66</v>
       </c>
       <c r="B91" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D91" t="s">
         <v>9</v>
@@ -14192,7 +14192,7 @@
         <v>92</v>
       </c>
       <c r="B92" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D92" t="s">
         <v>5</v>
@@ -14250,7 +14250,7 @@
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="B94" t="s">
         <v>406</v>
@@ -14317,7 +14317,7 @@
         <v>216</v>
       </c>
       <c r="B96" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D96" t="s">
         <v>0</v>
@@ -14343,13 +14343,13 @@
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B97" t="s">
         <v>433</v>
       </c>
       <c r="C97" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D97" t="s">
         <v>5</v>
@@ -14375,13 +14375,13 @@
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="B98" t="s">
         <v>433</v>
       </c>
       <c r="C98" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D98" t="s">
         <v>5</v>
@@ -14506,7 +14506,7 @@
         <v>37</v>
       </c>
       <c r="B102" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D102" t="s">
         <v>5</v>
@@ -14782,7 +14782,7 @@
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B111" t="s">
         <v>562</v>
@@ -14846,13 +14846,13 @@
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B113" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C113" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D113" t="s">
         <v>0</v>
@@ -14881,7 +14881,7 @@
         <v>108</v>
       </c>
       <c r="B114" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D114" t="s">
         <v>0</v>
@@ -14971,7 +14971,7 @@
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="B117" t="s">
         <v>390</v>
@@ -15003,7 +15003,7 @@
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="B118" t="s">
         <v>433</v>
@@ -15131,7 +15131,7 @@
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="B122" t="s">
         <v>420</v>
@@ -15166,7 +15166,7 @@
         <v>171</v>
       </c>
       <c r="B123" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D123" t="s">
         <v>5</v>
@@ -15349,10 +15349,10 @@
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="B129" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D129" t="s">
         <v>9</v>
@@ -15378,13 +15378,13 @@
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B130" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C130" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E130">
         <v>335</v>
@@ -15410,7 +15410,7 @@
         <v>105</v>
       </c>
       <c r="B131" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D131" t="s">
         <v>9</v>
@@ -15436,10 +15436,10 @@
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="B132" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D132" t="s">
         <v>0</v>
@@ -15529,13 +15529,13 @@
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="B135" t="s">
         <v>270</v>
       </c>
       <c r="C135" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E135">
         <v>81</v>
@@ -15561,7 +15561,7 @@
         <v>742</v>
       </c>
       <c r="B136" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D136" t="s">
         <v>9</v>
@@ -15625,7 +15625,7 @@
         <v>789</v>
       </c>
       <c r="C138" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E138">
         <v>313</v>
@@ -15776,7 +15776,7 @@
         <v>143</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D143" t="s">
         <v>5</v>
@@ -15898,13 +15898,13 @@
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B147" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C147" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D147" t="s">
         <v>0</v>
@@ -15933,7 +15933,7 @@
         <v>318</v>
       </c>
       <c r="B148" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D148" t="s">
         <v>5</v>
@@ -16084,7 +16084,7 @@
         <v>380</v>
       </c>
       <c r="B153" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E153">
         <v>624</v>
@@ -16107,13 +16107,13 @@
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="B154" t="s">
         <v>433</v>
       </c>
       <c r="C154" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D154" t="s">
         <v>5</v>
@@ -16354,7 +16354,7 @@
         <v>280</v>
       </c>
       <c r="B162" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D162" t="s">
         <v>0</v>
@@ -16415,7 +16415,7 @@
         <v>280</v>
       </c>
       <c r="B164" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D164" t="s">
         <v>5</v>
@@ -16441,7 +16441,7 @@
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="B165" t="s">
         <v>520</v>
@@ -16473,10 +16473,10 @@
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="B166" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D166" t="s">
         <v>9</v>
@@ -16502,10 +16502,10 @@
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B167" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D167" t="s">
         <v>9</v>
@@ -16531,10 +16531,10 @@
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B168" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D168" t="s">
         <v>5</v>
@@ -16586,13 +16586,13 @@
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="B170" t="s">
         <v>608</v>
       </c>
       <c r="C170" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D170" t="s">
         <v>5</v>
@@ -16618,7 +16618,7 @@
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="B171" t="s">
         <v>650</v>
@@ -16650,10 +16650,10 @@
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="B172" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E172">
         <v>647</v>
@@ -16711,7 +16711,7 @@
         <v>648</v>
       </c>
       <c r="B174" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D174" t="s">
         <v>5</v>
@@ -16769,7 +16769,7 @@
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="B176" t="s">
         <v>266</v>
@@ -16862,7 +16862,7 @@
         <v>198</v>
       </c>
       <c r="B179" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D179" t="s">
         <v>5</v>
@@ -16888,10 +16888,10 @@
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B180" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E180">
         <v>642</v>
@@ -16917,7 +16917,7 @@
         <v>337</v>
       </c>
       <c r="B181" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D181" t="s">
         <v>5</v>
@@ -16946,7 +16946,7 @@
         <v>217</v>
       </c>
       <c r="B182" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D182" t="s">
         <v>0</v>
@@ -16975,7 +16975,7 @@
         <v>217</v>
       </c>
       <c r="B183" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="E183">
         <v>446</v>
@@ -17065,7 +17065,7 @@
         <v>119</v>
       </c>
       <c r="B186" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E186">
         <v>382</v>
@@ -17123,7 +17123,7 @@
         <v>715</v>
       </c>
       <c r="B188" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D188" t="s">
         <v>5</v>
@@ -17149,10 +17149,10 @@
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B189" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D189" t="s">
         <v>9</v>
@@ -17178,10 +17178,10 @@
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="B190" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D190" t="s">
         <v>5</v>
@@ -17207,7 +17207,7 @@
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="B191" t="s">
         <v>472</v>
@@ -17239,7 +17239,7 @@
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="B192" t="s">
         <v>637</v>
@@ -17335,10 +17335,10 @@
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B195" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D195" t="s">
         <v>0</v>
@@ -17367,7 +17367,7 @@
         <v>202</v>
       </c>
       <c r="B196" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D196" t="s">
         <v>9</v>
@@ -17396,7 +17396,7 @@
         <v>80</v>
       </c>
       <c r="B197" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="E197">
         <v>372</v>
@@ -17480,7 +17480,7 @@
         <v>139</v>
       </c>
       <c r="B200" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D200" t="s">
         <v>9</v>
@@ -17544,7 +17544,7 @@
         <v>445</v>
       </c>
       <c r="C202" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D202" t="s">
         <v>5</v>
@@ -17602,7 +17602,7 @@
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="B204" t="s">
         <v>270</v>
@@ -17628,10 +17628,10 @@
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="B205" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D205" t="s">
         <v>0</v>
@@ -17657,7 +17657,7 @@
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B206" t="s">
         <v>390</v>
@@ -17715,7 +17715,7 @@
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="B208" t="s">
         <v>241</v>
@@ -17747,7 +17747,7 @@
         <v>184</v>
       </c>
       <c r="B209" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D209" t="s">
         <v>0</v>
@@ -17776,7 +17776,7 @@
         <v>184</v>
       </c>
       <c r="B210" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D210" t="s">
         <v>9</v>
@@ -17834,10 +17834,10 @@
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="B212" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D212" t="s">
         <v>9</v>
@@ -17898,7 +17898,7 @@
         <v>722</v>
       </c>
       <c r="B214" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E214">
         <v>609</v>
@@ -17921,7 +17921,7 @@
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="B215" t="s">
         <v>534</v>
@@ -17985,7 +17985,7 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="B217" t="s">
         <v>694</v>
@@ -18020,7 +18020,7 @@
         <v>712</v>
       </c>
       <c r="B218" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D218" t="s">
         <v>0</v>
@@ -18078,13 +18078,13 @@
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="B220" t="s">
         <v>226</v>
       </c>
       <c r="C220" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E220">
         <v>412</v>
@@ -18142,7 +18142,7 @@
         <v>96</v>
       </c>
       <c r="B222" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D222" t="s">
         <v>9</v>
@@ -18171,7 +18171,7 @@
         <v>96</v>
       </c>
       <c r="B223" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D223" t="s">
         <v>0</v>
@@ -18223,7 +18223,7 @@
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="B225" t="s">
         <v>146</v>
@@ -18284,10 +18284,10 @@
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="B227" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D227" t="s">
         <v>0</v>
@@ -18313,10 +18313,10 @@
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="B228" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E228">
         <v>627</v>
@@ -18394,7 +18394,7 @@
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="B231" t="s">
         <v>433</v>
@@ -18426,7 +18426,7 @@
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>809</v>
+        <v>1166</v>
       </c>
       <c r="B232" t="s">
         <v>807</v>
@@ -18452,13 +18452,13 @@
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="B233" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C233" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D233" t="s">
         <v>0</v>
@@ -18484,7 +18484,7 @@
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="B234" t="s">
         <v>579</v>
@@ -18516,13 +18516,13 @@
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B235" t="s">
         <v>458</v>
       </c>
       <c r="C235" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D235" t="s">
         <v>0</v>
@@ -18548,10 +18548,10 @@
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="B236" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E236">
         <v>640</v>
@@ -18635,7 +18635,7 @@
         <v>278</v>
       </c>
       <c r="B239" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D239" t="s">
         <v>9</v>
@@ -18661,13 +18661,13 @@
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="B240" t="s">
         <v>356</v>
       </c>
       <c r="C240" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E240">
         <v>453</v>
@@ -18693,7 +18693,7 @@
         <v>115</v>
       </c>
       <c r="B241" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D241" t="s">
         <v>9</v>
@@ -18751,7 +18751,7 @@
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="B243" t="s">
         <v>520</v>
@@ -18786,7 +18786,7 @@
         <v>172</v>
       </c>
       <c r="B244" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D244" t="s">
         <v>5</v>
@@ -18812,7 +18812,7 @@
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="B245" t="s">
         <v>534</v>
@@ -18876,7 +18876,7 @@
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="B247" t="s">
         <v>179</v>
@@ -18902,13 +18902,13 @@
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B248" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C248" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D248" t="s">
         <v>5</v>
@@ -18934,7 +18934,7 @@
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="B249" t="s">
         <v>520</v>
@@ -18966,7 +18966,7 @@
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="B250" t="s">
         <v>608</v>
@@ -19065,7 +19065,7 @@
         <v>739</v>
       </c>
       <c r="B253" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D253" t="s">
         <v>5</v>
@@ -19094,7 +19094,7 @@
         <v>213</v>
       </c>
       <c r="B254" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D254" t="s">
         <v>9</v>
@@ -19123,7 +19123,7 @@
         <v>164</v>
       </c>
       <c r="B255" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D255" t="s">
         <v>9</v>
@@ -19149,7 +19149,7 @@
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="B256" t="s">
         <v>472</v>
@@ -19181,7 +19181,7 @@
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="B257" t="s">
         <v>694</v>
@@ -19216,7 +19216,7 @@
         <v>164</v>
       </c>
       <c r="B258" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D258" t="s">
         <v>0</v>
@@ -19242,7 +19242,7 @@
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="B259" t="s">
         <v>458</v>
@@ -19274,7 +19274,7 @@
     </row>
     <row r="260" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="B260" t="s">
         <v>663</v>
@@ -19306,10 +19306,10 @@
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="B261" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D261" t="s">
         <v>0</v>
@@ -19338,7 +19338,7 @@
         <v>352</v>
       </c>
       <c r="B262" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D262" t="s">
         <v>9</v>
@@ -19399,7 +19399,7 @@
         <v>352</v>
       </c>
       <c r="B264" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E264">
         <v>625</v>
@@ -19422,10 +19422,10 @@
     </row>
     <row r="265" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D265" t="s">
         <v>0</v>
@@ -19451,7 +19451,7 @@
     </row>
     <row r="266" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="B266" t="s">
         <v>433</v>
@@ -19512,7 +19512,7 @@
         <v>260</v>
       </c>
       <c r="B268" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C268" t="s">
         <v>72</v>
@@ -19599,10 +19599,10 @@
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="B271" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D271" t="s">
         <v>0</v>
@@ -19631,7 +19631,7 @@
         <v>76</v>
       </c>
       <c r="B272" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E272">
         <v>371</v>
@@ -19654,7 +19654,7 @@
     </row>
     <row r="273" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B273" t="s">
         <v>445</v>
@@ -19686,7 +19686,7 @@
     </row>
     <row r="274" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="B274" t="s">
         <v>637</v>
@@ -19782,10 +19782,10 @@
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B277" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D277" t="s">
         <v>5</v>
@@ -19811,10 +19811,10 @@
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="B278" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D278" t="s">
         <v>0</v>
@@ -19840,10 +19840,10 @@
     </row>
     <row r="279" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="B279" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C279" t="s">
         <v>72</v>
@@ -19872,7 +19872,7 @@
     </row>
     <row r="280" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="B280" t="s">
         <v>548</v>
@@ -19904,7 +19904,7 @@
     </row>
     <row r="281" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="B281" t="s">
         <v>650</v>
@@ -19968,7 +19968,7 @@
     </row>
     <row r="283" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="B283" t="s">
         <v>579</v>
@@ -20096,7 +20096,7 @@
     </row>
     <row r="287" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="B287" t="s">
         <v>694</v>
@@ -20128,10 +20128,10 @@
     </row>
     <row r="288" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B288" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D288" t="s">
         <v>5</v>
@@ -20157,7 +20157,7 @@
     </row>
     <row r="289" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="B289" t="s">
         <v>504</v>
@@ -20192,7 +20192,7 @@
         <v>794</v>
       </c>
       <c r="B290" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E290">
         <v>634</v>
@@ -20279,7 +20279,7 @@
     </row>
     <row r="293" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="B293" t="s">
         <v>433</v>
@@ -20343,10 +20343,10 @@
     </row>
     <row r="295" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="B295" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C295" t="s">
         <v>72</v>
@@ -20375,7 +20375,7 @@
     </row>
     <row r="296" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="B296" t="s">
         <v>445</v>
@@ -20465,7 +20465,7 @@
     </row>
     <row r="299" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="B299" t="s">
         <v>694</v>
@@ -20497,10 +20497,10 @@
     </row>
     <row r="300" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B300" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D300" t="s">
         <v>0</v>
@@ -20558,10 +20558,10 @@
     </row>
     <row r="302" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="B302" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D302" t="s">
         <v>9</v>
@@ -20587,7 +20587,7 @@
     </row>
     <row r="303" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="B303" t="s">
         <v>637</v>
@@ -20651,7 +20651,7 @@
     </row>
     <row r="305" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="B305" t="s">
         <v>420</v>
@@ -20715,7 +20715,7 @@
         <v>757</v>
       </c>
       <c r="B307" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D307" t="s">
         <v>5</v>
@@ -20744,7 +20744,7 @@
         <v>206</v>
       </c>
       <c r="B308" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D308" t="s">
         <v>0</v>
@@ -20770,10 +20770,10 @@
     </row>
     <row r="309" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A309" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="B309" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D309" t="s">
         <v>0</v>
@@ -20956,7 +20956,7 @@
         <v>52</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D315" t="s">
         <v>9</v>
@@ -20985,7 +20985,7 @@
         <v>52</v>
       </c>
       <c r="B316" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E316">
         <v>639</v>
@@ -21066,7 +21066,7 @@
         <v>57</v>
       </c>
       <c r="B319" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D319" t="s">
         <v>5</v>
@@ -21095,7 +21095,7 @@
         <v>57</v>
       </c>
       <c r="B320" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D320" t="s">
         <v>9</v>
@@ -21124,7 +21124,7 @@
         <v>176</v>
       </c>
       <c r="B321" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="C321" t="s">
         <v>72</v>
@@ -21156,7 +21156,7 @@
         <v>176</v>
       </c>
       <c r="B322" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D322" t="s">
         <v>9</v>
@@ -21249,7 +21249,7 @@
         <v>430</v>
       </c>
       <c r="B325" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D325" t="s">
         <v>9</v>
@@ -21307,7 +21307,7 @@
     </row>
     <row r="327" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="B327" t="s">
         <v>608</v>
@@ -21339,10 +21339,10 @@
     </row>
     <row r="328" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="B328" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E328">
         <v>644</v>
@@ -21365,7 +21365,7 @@
     </row>
     <row r="329" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="B329" t="s">
         <v>678</v>
@@ -21397,10 +21397,10 @@
     </row>
     <row r="330" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B330" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D330" t="s">
         <v>5</v>
@@ -21426,10 +21426,10 @@
     </row>
     <row r="331" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="B331" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E331">
         <v>458</v>
@@ -21452,13 +21452,13 @@
     </row>
     <row r="332" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="B332" t="s">
         <v>504</v>
       </c>
       <c r="C332" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D332" t="s">
         <v>0</v>
@@ -21484,7 +21484,7 @@
     </row>
     <row r="333" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="B333" t="s">
         <v>534</v>
@@ -21516,13 +21516,13 @@
     </row>
     <row r="334" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="B334" t="s">
         <v>579</v>
       </c>
       <c r="C334" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D334" t="s">
         <v>0</v>
@@ -21548,7 +21548,7 @@
     </row>
     <row r="335" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B335" t="s">
         <v>621</v>
@@ -21580,7 +21580,7 @@
     </row>
     <row r="336" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="B336" t="s">
         <v>663</v>
@@ -21612,10 +21612,10 @@
     </row>
     <row r="337" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="B337" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D337" t="s">
         <v>5</v>
@@ -21641,7 +21641,7 @@
     </row>
     <row r="338" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="B338" t="s">
         <v>433</v>
@@ -21673,7 +21673,7 @@
     </row>
     <row r="339" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="B339" t="s">
         <v>520</v>
@@ -21705,10 +21705,10 @@
     </row>
     <row r="340" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="B340" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="C340" t="s">
         <v>72</v>
@@ -21740,7 +21740,7 @@
         <v>111</v>
       </c>
       <c r="B341" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D341" t="s">
         <v>5</v>
@@ -21952,7 +21952,7 @@
         <v>636</v>
       </c>
       <c r="B348" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E348">
         <v>632</v>
@@ -22007,7 +22007,7 @@
         <v>608</v>
       </c>
       <c r="C350" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D350" t="s">
         <v>0</v>
@@ -22033,13 +22033,13 @@
     </row>
     <row r="351" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B351" t="s">
         <v>579</v>
       </c>
       <c r="C351" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D351" t="s">
         <v>0</v>
@@ -22065,7 +22065,7 @@
     </row>
     <row r="352" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B352" t="s">
         <v>263</v>
@@ -22091,10 +22091,10 @@
     </row>
     <row r="353" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="B353" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D353" t="s">
         <v>0</v>
@@ -22120,7 +22120,7 @@
     </row>
     <row r="354" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="B354" t="s">
         <v>420</v>
@@ -22184,10 +22184,10 @@
     </row>
     <row r="356" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B356" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E356">
         <v>462</v>
@@ -22210,10 +22210,10 @@
     </row>
     <row r="357" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="B357" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E357">
         <v>649</v>
@@ -22236,7 +22236,7 @@
     </row>
     <row r="358" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B358" t="s">
         <v>241</v>
@@ -22268,7 +22268,7 @@
     </row>
     <row r="359" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="B359" t="s">
         <v>241</v>
@@ -22300,7 +22300,7 @@
     </row>
     <row r="360" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B360" t="s">
         <v>241</v>
@@ -22332,7 +22332,7 @@
     </row>
     <row r="361" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B361" t="s">
         <v>295</v>
@@ -22358,13 +22358,13 @@
     </row>
     <row r="362" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="B362" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C362" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D362" t="s">
         <v>9</v>
@@ -22422,7 +22422,7 @@
         <v>135</v>
       </c>
       <c r="B364" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D364" t="s">
         <v>5</v>
@@ -22477,7 +22477,7 @@
         <v>706</v>
       </c>
       <c r="B366" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C366" t="s">
         <v>72</v>
@@ -22509,7 +22509,7 @@
         <v>706</v>
       </c>
       <c r="B367" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D367" t="s">
         <v>0</v>
@@ -22622,10 +22622,10 @@
     </row>
     <row r="371" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="B371" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E371">
         <v>643</v>
@@ -22648,10 +22648,10 @@
     </row>
     <row r="372" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="B372" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E372">
         <v>646</v>
@@ -22773,7 +22773,7 @@
         <v>516</v>
       </c>
       <c r="B376" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D376" t="s">
         <v>9</v>
@@ -22799,10 +22799,10 @@
     </row>
     <row r="377" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="B377" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E377">
         <v>648</v>
@@ -22828,7 +22828,7 @@
         <v>194</v>
       </c>
       <c r="B378" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D378" t="s">
         <v>0</v>
@@ -22889,7 +22889,7 @@
         <v>2</v>
       </c>
       <c r="B380" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D380" t="s">
         <v>0</v>
@@ -22918,7 +22918,7 @@
         <v>2</v>
       </c>
       <c r="B381" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E381">
         <v>651</v>
@@ -23040,7 +23040,7 @@
         <v>564</v>
       </c>
       <c r="B385" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E385">
         <v>650</v>
@@ -23098,7 +23098,7 @@
         <v>600</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E387">
         <v>635</v>
@@ -23124,10 +23124,10 @@
         <v>238</v>
       </c>
       <c r="B388" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C388" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D388" t="s">
         <v>5</v>
@@ -23156,7 +23156,7 @@
         <v>238</v>
       </c>
       <c r="B389" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D389" t="s">
         <v>9</v>
@@ -23243,7 +23243,7 @@
         <v>238</v>
       </c>
       <c r="B392" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E392">
         <v>638</v>
@@ -23269,7 +23269,7 @@
         <v>238</v>
       </c>
       <c r="B393" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D393" t="s">
         <v>5</v>
@@ -23295,7 +23295,7 @@
     </row>
     <row r="394" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="B394" t="s">
         <v>226</v>
@@ -23327,7 +23327,7 @@
         <v>103</v>
       </c>
       <c r="B395" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D395" t="s">
         <v>5</v>
@@ -23359,7 +23359,7 @@
         <v>504</v>
       </c>
       <c r="C396" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D396" t="s">
         <v>0</v>
@@ -23388,7 +23388,7 @@
         <v>231</v>
       </c>
       <c r="B397" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D397" t="s">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>309</v>
       </c>
       <c r="B401" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D401" t="s">
         <v>5</v>
@@ -23545,7 +23545,7 @@
         <v>433</v>
       </c>
       <c r="C402" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D402" t="s">
         <v>5</v>
@@ -23603,10 +23603,10 @@
     </row>
     <row r="404" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="B404" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D404" t="s">
         <v>0</v>
@@ -23658,13 +23658,13 @@
     </row>
     <row r="406" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="B406" t="s">
         <v>650</v>
       </c>
       <c r="C406" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D406" t="s">
         <v>9</v>
@@ -23815,10 +23815,10 @@
     </row>
     <row r="411" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="B411" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D411" t="s">
         <v>5</v>
@@ -23876,7 +23876,7 @@
     </row>
     <row r="413" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="B413" t="s">
         <v>488</v>
@@ -23908,7 +23908,7 @@
     </row>
     <row r="414" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="B414" t="s">
         <v>594</v>
@@ -23998,10 +23998,10 @@
     </row>
     <row r="417" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B417" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E417">
         <v>641</v>
@@ -24024,7 +24024,7 @@
     </row>
     <row r="418" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="B418" t="s">
         <v>458</v>
@@ -24056,7 +24056,7 @@
     </row>
     <row r="419" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="B419" t="s">
         <v>520</v>
@@ -24216,13 +24216,13 @@
     </row>
     <row r="424" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B424" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C424" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D424" t="s">
         <v>0</v>
@@ -24248,10 +24248,10 @@
     </row>
     <row r="425" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="B425" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C425" t="s">
         <v>72</v>
@@ -24280,7 +24280,7 @@
     </row>
     <row r="426" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="B426" t="s">
         <v>121</v>
@@ -24309,10 +24309,10 @@
     </row>
     <row r="427" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="B427" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E427">
         <v>645</v>
@@ -24335,13 +24335,13 @@
     </row>
     <row r="428" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="B428" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C428" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E428">
         <v>369</v>
@@ -24364,10 +24364,10 @@
     </row>
     <row r="429" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="B429" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="E429">
         <v>368</v>
@@ -24390,10 +24390,10 @@
     </row>
     <row r="430" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="B430" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D430" t="s">
         <v>9</v>
@@ -24454,7 +24454,7 @@
         <v>596</v>
       </c>
       <c r="B432" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D432" t="s">
         <v>9</v>
@@ -24480,10 +24480,10 @@
     </row>
     <row r="433" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="B433" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C433" t="s">
         <v>72</v>
@@ -24544,10 +24544,10 @@
     </row>
     <row r="435" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="B435" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E435">
         <v>329</v>
@@ -24573,7 +24573,7 @@
         <v>161</v>
       </c>
       <c r="B436" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D436" t="s">
         <v>5</v>
@@ -24599,7 +24599,7 @@
     </row>
     <row r="437" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B437" t="s">
         <v>274</v>
@@ -24689,13 +24689,13 @@
     </row>
     <row r="440" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B440" t="s">
         <v>776</v>
       </c>
       <c r="C440" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E440">
         <v>307</v>
@@ -24750,13 +24750,13 @@
     </row>
     <row r="442" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="B442" t="s">
         <v>579</v>
       </c>
       <c r="C442" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D442" t="s">
         <v>9</v>
@@ -24884,7 +24884,7 @@
         <v>458</v>
       </c>
       <c r="C446" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D446" t="s">
         <v>0</v>
@@ -24971,7 +24971,7 @@
         <v>730</v>
       </c>
       <c r="B449" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D449" t="s">
         <v>9</v>
@@ -25000,7 +25000,7 @@
         <v>1</v>
       </c>
       <c r="B450" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D450" t="s">
         <v>0</v>
@@ -25151,7 +25151,7 @@
         <v>34</v>
       </c>
       <c r="B455" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D455" t="s">
         <v>0</v>
@@ -25180,7 +25180,7 @@
         <v>770</v>
       </c>
       <c r="B456" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E456">
         <v>304</v>
@@ -25206,7 +25206,7 @@
         <v>99</v>
       </c>
       <c r="B457" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D457" t="s">
         <v>0</v>
@@ -25264,7 +25264,7 @@
         <v>14</v>
       </c>
       <c r="B459" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D459" t="s">
         <v>0</v>
@@ -25290,13 +25290,13 @@
     </row>
     <row r="460" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B460" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C460" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D460" t="s">
         <v>9</v>
@@ -25322,7 +25322,7 @@
     </row>
     <row r="461" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="B461" t="s">
         <v>274</v>
@@ -25354,7 +25354,7 @@
         <v>783</v>
       </c>
       <c r="C462" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E462">
         <v>310</v>
@@ -25409,7 +25409,7 @@
     </row>
     <row r="464" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B464" t="s">
         <v>295</v>
@@ -25441,10 +25441,10 @@
     </row>
     <row r="465" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="B465" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C465" t="s">
         <v>72</v>
@@ -25473,10 +25473,10 @@
     </row>
     <row r="466" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="B466" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E466">
         <v>333</v>
@@ -25528,7 +25528,7 @@
         <v>24</v>
       </c>
       <c r="B468" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D468" t="s">
         <v>0</v>
@@ -25554,13 +25554,13 @@
     </row>
     <row r="469" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="B469" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C469" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E469">
         <v>331</v>
@@ -25618,7 +25618,7 @@
         <v>17</v>
       </c>
       <c r="B471" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D471" t="s">
         <v>5</v>
@@ -25647,7 +25647,7 @@
         <v>17</v>
       </c>
       <c r="B472" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E472">
         <v>315</v>
@@ -25731,7 +25731,7 @@
         <v>79</v>
       </c>
       <c r="B475" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D475" t="s">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>86</v>
       </c>
       <c r="B477" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D477" t="s">
         <v>9</v>
@@ -25812,13 +25812,13 @@
     </row>
     <row r="478" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="B478" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C478" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E478">
         <v>326</v>
@@ -25844,7 +25844,7 @@
         <v>237</v>
       </c>
       <c r="B479" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D479" t="s">
         <v>9</v>
@@ -25899,13 +25899,13 @@
     </row>
     <row r="481" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="B481" t="s">
         <v>488</v>
       </c>
       <c r="C481" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D481" t="s">
         <v>0</v>
@@ -25966,7 +25966,7 @@
         <v>709</v>
       </c>
       <c r="B483" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D483" t="s">
         <v>9</v>
@@ -25995,7 +25995,7 @@
         <v>89</v>
       </c>
       <c r="B484" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D484" t="s">
         <v>0</v>
@@ -26198,7 +26198,7 @@
         <v>56</v>
       </c>
       <c r="B491" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E491">
         <v>334</v>
@@ -26282,7 +26282,7 @@
         <v>212</v>
       </c>
       <c r="B494" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D494" t="s">
         <v>9</v>
@@ -26337,7 +26337,7 @@
         <v>283</v>
       </c>
       <c r="B496" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C496" t="s">
         <v>72</v>
@@ -26401,7 +26401,7 @@
         <v>283</v>
       </c>
       <c r="B498" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D498" t="s">
         <v>5</v>
@@ -26491,13 +26491,13 @@
     </row>
     <row r="501" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="B501" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C501" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E501">
         <v>285</v>
@@ -26549,7 +26549,7 @@
     </row>
     <row r="503" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="B503" t="s">
         <v>179</v>
@@ -26613,7 +26613,7 @@
         <v>75</v>
       </c>
       <c r="B505" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E505">
         <v>22</v>
@@ -26639,7 +26639,7 @@
         <v>27</v>
       </c>
       <c r="B506" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D506" t="s">
         <v>5</v>
@@ -26668,7 +26668,7 @@
         <v>63</v>
       </c>
       <c r="B507" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D507" t="s">
         <v>5</v>
@@ -26694,13 +26694,13 @@
     </row>
     <row r="508" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="B508" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C508" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E508">
         <v>324</v>
@@ -26726,7 +26726,7 @@
         <v>95</v>
       </c>
       <c r="B509" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D509" t="s">
         <v>9</v>
@@ -26784,7 +26784,7 @@
         <v>60</v>
       </c>
       <c r="B511" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D511" t="s">
         <v>0</v>
@@ -26813,7 +26813,7 @@
         <v>6</v>
       </c>
       <c r="B512" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D512" t="s">
         <v>5</v>
@@ -26871,7 +26871,7 @@
     </row>
     <row r="514" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="B514" t="s">
         <v>295</v>
@@ -26970,10 +26970,10 @@
         <v>570</v>
       </c>
       <c r="B517" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C517" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E517">
         <v>301</v>
@@ -27092,13 +27092,13 @@
     </row>
     <row r="521" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="B521" t="s">
         <v>621</v>
       </c>
       <c r="C521" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D521" t="s">
         <v>5</v>
@@ -27124,13 +27124,13 @@
     </row>
     <row r="522" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="B522" t="s">
         <v>694</v>
       </c>
       <c r="C522" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D522" t="s">
         <v>9</v>
@@ -27316,7 +27316,7 @@
         <v>501</v>
       </c>
       <c r="B528" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D528" t="s">
         <v>9</v>
@@ -27438,7 +27438,7 @@
     </row>
     <row r="532" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
       <c r="B532" t="s">
         <v>295</v>
@@ -27473,10 +27473,10 @@
         <v>69</v>
       </c>
       <c r="B533" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C533" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E533">
         <v>20</v>
@@ -27531,10 +27531,10 @@
     </row>
     <row r="535" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B535" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E535">
         <v>338</v>
@@ -27592,7 +27592,7 @@
         <v>234</v>
       </c>
       <c r="B537" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D537" t="s">
         <v>5</v>
@@ -27653,7 +27653,7 @@
         <v>10</v>
       </c>
       <c r="B539" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D539" t="s">
         <v>9</v>
@@ -27679,13 +27679,13 @@
     </row>
     <row r="540" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="B540" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C540" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E540">
         <v>321</v>
@@ -27740,7 +27740,7 @@
     </row>
     <row r="542" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B542" t="s">
         <v>270</v>
@@ -27769,13 +27769,13 @@
     </row>
     <row r="543" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="B543" t="s">
         <v>650</v>
       </c>
       <c r="C543" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="D543" t="s">
         <v>9</v>
@@ -27801,13 +27801,13 @@
     </row>
     <row r="544" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="B544" t="s">
         <v>445</v>
       </c>
       <c r="C544" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D544" t="s">
         <v>5</v>
@@ -27833,13 +27833,13 @@
     </row>
     <row r="545" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B545" t="s">
         <v>445</v>
       </c>
       <c r="C545" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D545" t="s">
         <v>5</v>
@@ -27900,10 +27900,10 @@
         <v>801</v>
       </c>
       <c r="B547" s="2" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C547" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E547">
         <v>318</v>
@@ -28025,7 +28025,7 @@
         <v>753</v>
       </c>
       <c r="B551" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D551" t="s">
         <v>0</v>
@@ -28080,7 +28080,7 @@
         <v>287</v>
       </c>
       <c r="B553" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C553" t="s">
         <v>72</v>
@@ -28109,7 +28109,7 @@
         <v>230</v>
       </c>
       <c r="B554" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D554" t="s">
         <v>0</v>
@@ -28164,7 +28164,7 @@
         <v>230</v>
       </c>
       <c r="B556" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C556" t="s">
         <v>72</v>
@@ -28196,7 +28196,7 @@
         <v>230</v>
       </c>
       <c r="B557" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C557" t="s">
         <v>72</v>
@@ -28228,7 +28228,7 @@
         <v>114</v>
       </c>
       <c r="B558" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D558" t="s">
         <v>9</v>
@@ -28257,7 +28257,7 @@
         <v>718</v>
       </c>
       <c r="B559" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D559" t="s">
         <v>9</v>
@@ -28283,7 +28283,7 @@
     </row>
     <row r="560" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B560" t="s">
         <v>356</v>
@@ -28315,7 +28315,7 @@
         <v>756</v>
       </c>
       <c r="B561" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D561" t="s">
         <v>5</v>
@@ -28341,10 +28341,10 @@
     </row>
     <row r="562" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B562" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E562">
         <v>323</v>
@@ -28370,7 +28370,7 @@
         <v>748</v>
       </c>
       <c r="B563" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D563" t="s">
         <v>5</v>
@@ -28492,13 +28492,13 @@
     </row>
     <row r="567" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="B567" t="s">
         <v>179</v>
       </c>
       <c r="C567" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E567">
         <v>52</v>
@@ -28521,10 +28521,10 @@
     </row>
     <row r="568" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="B568" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D568" t="s">
         <v>5</v>
@@ -28617,7 +28617,7 @@
         <v>737</v>
       </c>
       <c r="B571" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C571" t="s">
         <v>72</v>
@@ -28809,7 +28809,7 @@
         <v>738</v>
       </c>
       <c r="B577" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D577" t="s">
         <v>5</v>
@@ -28870,7 +28870,7 @@
         <v>724</v>
       </c>
       <c r="B579" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D579" t="s">
         <v>0</v>
@@ -28899,7 +28899,7 @@
         <v>40</v>
       </c>
       <c r="B580" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D580" t="s">
         <v>9</v>
@@ -28986,7 +28986,7 @@
         <v>745</v>
       </c>
       <c r="B583" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D583" t="s">
         <v>0</v>
@@ -29015,7 +29015,7 @@
         <v>31</v>
       </c>
       <c r="B584" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D584" t="s">
         <v>9</v>
@@ -29070,7 +29070,7 @@
         <v>31</v>
       </c>
       <c r="B586" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C586" t="s">
         <v>72</v>
@@ -29099,7 +29099,7 @@
         <v>787</v>
       </c>
       <c r="B587" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E587">
         <v>312</v>
@@ -29125,10 +29125,10 @@
         <v>797</v>
       </c>
       <c r="B588" s="2" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C588" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E588">
         <v>316</v>
@@ -29183,10 +29183,10 @@
     </row>
     <row r="590" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="B590" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C590" t="s">
         <v>72</v>
@@ -29218,7 +29218,7 @@
         <v>118</v>
       </c>
       <c r="B591" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E591">
         <v>35</v>
@@ -29244,7 +29244,7 @@
         <v>750</v>
       </c>
       <c r="B592" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D592" t="s">
         <v>9</v>
@@ -29270,10 +29270,10 @@
     </row>
     <row r="593" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B593" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C593" t="s">
         <v>72</v>
@@ -29299,13 +29299,13 @@
     </row>
     <row r="594" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="B594" t="s">
         <v>445</v>
       </c>
       <c r="C594" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D594" t="s">
         <v>5</v>
@@ -29331,13 +29331,13 @@
     </row>
     <row r="595" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="B595" t="s">
         <v>621</v>
       </c>
       <c r="C595" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D595" t="s">
         <v>5</v>
@@ -29363,13 +29363,13 @@
     </row>
     <row r="596" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="B596" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="C596" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D596" t="s">
         <v>5</v>
@@ -29398,10 +29398,10 @@
         <v>733</v>
       </c>
       <c r="B597" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C597" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D597" t="s">
         <v>0</v>
@@ -29427,13 +29427,13 @@
     </row>
     <row r="598" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="B598" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="C598" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D598" t="s">
         <v>0</v>
@@ -29459,13 +29459,13 @@
     </row>
     <row r="599" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B599" t="s">
         <v>608</v>
       </c>
       <c r="C599" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="D599" t="s">
         <v>5</v>
@@ -29491,10 +29491,10 @@
     </row>
     <row r="600" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="B600" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C600" t="s">
         <v>72</v>
@@ -29520,13 +29520,13 @@
     </row>
     <row r="601" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="B601" t="s">
         <v>488</v>
       </c>
       <c r="C601" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D601" t="s">
         <v>0</v>
@@ -29552,13 +29552,13 @@
     </row>
     <row r="602" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="B602" t="s">
         <v>579</v>
       </c>
       <c r="C602" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D602" t="s">
         <v>9</v>
@@ -29584,7 +29584,7 @@
     </row>
     <row r="603" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B603" t="s">
         <v>133</v>
@@ -29619,7 +29619,7 @@
         <v>73</v>
       </c>
       <c r="B604" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C604" t="s">
         <v>72</v>
@@ -29645,13 +29645,13 @@
     </row>
     <row r="605" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="B605" t="s">
         <v>694</v>
       </c>
       <c r="C605" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="D605" t="s">
         <v>9</v>
@@ -29677,13 +29677,13 @@
     </row>
     <row r="606" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B606" t="s">
         <v>274</v>
       </c>
       <c r="C606" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E606">
         <v>88</v>
@@ -29706,13 +29706,13 @@
     </row>
     <row r="607" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B607" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C607" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D607" t="s">
         <v>5</v>
@@ -29738,13 +29738,13 @@
     </row>
     <row r="608" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="B608" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C608" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D608" t="s">
         <v>9</v>
@@ -29770,13 +29770,13 @@
     </row>
     <row r="609" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="B609" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C609" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D609" t="s">
         <v>9</v>
@@ -29802,13 +29802,13 @@
     </row>
     <row r="610" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="B610" t="s">
         <v>772</v>
       </c>
       <c r="C610" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E610">
         <v>305</v>
@@ -29834,7 +29834,7 @@
         <v>36</v>
       </c>
       <c r="B611" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D611" t="s">
         <v>0</v>
@@ -29889,7 +29889,7 @@
         <v>78</v>
       </c>
       <c r="B613" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E613">
         <v>900</v>
@@ -29915,7 +29915,7 @@
         <v>62</v>
       </c>
       <c r="B614" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D614" t="s">
         <v>0</v>
@@ -29941,10 +29941,10 @@
     </row>
     <row r="615" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="B615" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E615">
         <v>1102</v>
@@ -29970,7 +29970,7 @@
         <v>16</v>
       </c>
       <c r="B616" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D616" t="s">
         <v>0</v>
@@ -29999,7 +29999,7 @@
         <v>82</v>
       </c>
       <c r="B617" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D617" t="s">
         <v>0</v>
@@ -30028,7 +30028,7 @@
         <v>186</v>
       </c>
       <c r="B618" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D618" t="s">
         <v>0</v>
@@ -30057,7 +30057,7 @@
         <v>101</v>
       </c>
       <c r="B619" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D619" t="s">
         <v>0</v>
@@ -30083,10 +30083,10 @@
     </row>
     <row r="620" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B620" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E620">
         <v>1099</v>
@@ -30112,7 +30112,7 @@
         <v>714</v>
       </c>
       <c r="B621" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D621" t="s">
         <v>0</v>
@@ -30141,7 +30141,7 @@
         <v>714</v>
       </c>
       <c r="B622" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E622">
         <v>1063</v>
@@ -30251,13 +30251,13 @@
     </row>
     <row r="626" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="B626" t="s">
         <v>179</v>
       </c>
       <c r="C626" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E626">
         <v>929</v>
@@ -30283,7 +30283,7 @@
         <v>160</v>
       </c>
       <c r="B627" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D627" t="s">
         <v>0</v>
@@ -30309,10 +30309,10 @@
     </row>
     <row r="628" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="B628" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D628" t="s">
         <v>5</v>
@@ -30396,10 +30396,10 @@
     </row>
     <row r="631" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="B631" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E631">
         <v>1095</v>
@@ -30422,7 +30422,7 @@
     </row>
     <row r="632" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B632" t="s">
         <v>420</v>
@@ -30451,10 +30451,10 @@
     </row>
     <row r="633" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="B633" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E633">
         <v>1100</v>
@@ -30538,7 +30538,7 @@
         <v>26</v>
       </c>
       <c r="B636" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D636" t="s">
         <v>0</v>
@@ -30799,7 +30799,7 @@
         <v>799</v>
       </c>
       <c r="B645" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E645">
         <v>1087</v>
@@ -30854,7 +30854,7 @@
         <v>170</v>
       </c>
       <c r="B647" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D647" t="s">
         <v>0</v>
@@ -30941,7 +30941,7 @@
         <v>764</v>
       </c>
       <c r="B650" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E650">
         <v>1077</v>
@@ -30993,10 +30993,10 @@
     </row>
     <row r="652" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="B652" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E652">
         <v>1090</v>
@@ -31051,10 +31051,10 @@
     </row>
     <row r="654" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="B654" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D654" t="s">
         <v>0</v>
@@ -31228,7 +31228,7 @@
         <v>726</v>
       </c>
       <c r="B660" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D660" t="s">
         <v>0</v>
@@ -31257,7 +31257,7 @@
         <v>707</v>
       </c>
       <c r="B661" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D661" t="s">
         <v>0</v>
@@ -31286,7 +31286,7 @@
         <v>4</v>
       </c>
       <c r="B662" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D662" t="s">
         <v>0</v>
@@ -31315,7 +31315,7 @@
         <v>736</v>
       </c>
       <c r="B663" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D663" t="s">
         <v>0</v>
@@ -31344,7 +31344,7 @@
         <v>747</v>
       </c>
       <c r="B664" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D664" t="s">
         <v>0</v>
@@ -31373,7 +31373,7 @@
         <v>755</v>
       </c>
       <c r="B665" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D665" t="s">
         <v>0</v>
@@ -31399,7 +31399,7 @@
     </row>
     <row r="666" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="B666" t="s">
         <v>241</v>
@@ -31431,13 +31431,13 @@
     </row>
     <row r="667" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="B667" t="s">
         <v>270</v>
       </c>
       <c r="C667" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E667">
         <v>956</v>
@@ -31553,7 +31553,7 @@
         <v>19</v>
       </c>
       <c r="B671" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D671" t="s">
         <v>5</v>
@@ -31582,7 +31582,7 @@
         <v>85</v>
       </c>
       <c r="B672" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D672" t="s">
         <v>5</v>
@@ -31611,7 +31611,7 @@
         <v>189</v>
       </c>
       <c r="B673" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D673" t="s">
         <v>5</v>
@@ -31640,7 +31640,7 @@
         <v>741</v>
       </c>
       <c r="B674" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D674" t="s">
         <v>5</v>
@@ -31669,7 +31669,7 @@
         <v>113</v>
       </c>
       <c r="B675" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D675" t="s">
         <v>5</v>
@@ -32104,7 +32104,7 @@
         <v>200</v>
       </c>
       <c r="B690" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D690" t="s">
         <v>5</v>
@@ -32133,7 +32133,7 @@
         <v>174</v>
       </c>
       <c r="B691" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D691" t="s">
         <v>5</v>
@@ -32333,13 +32333,13 @@
     </row>
     <row r="698" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="B698" t="s">
         <v>241</v>
       </c>
       <c r="C698" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="D698" t="s">
         <v>5</v>
@@ -32368,7 +32368,7 @@
         <v>729</v>
       </c>
       <c r="B699" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D699" t="s">
         <v>5</v>
@@ -32397,7 +32397,7 @@
         <v>749</v>
       </c>
       <c r="B700" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D700" t="s">
         <v>5</v>
@@ -32452,7 +32452,7 @@
         <v>8</v>
       </c>
       <c r="B702" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D702" t="s">
         <v>5</v>
@@ -32478,7 +32478,7 @@
     </row>
     <row r="703" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="B703" t="s">
         <v>241</v>
@@ -32574,7 +32574,7 @@
         <v>39</v>
       </c>
       <c r="B706" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D706" t="s">
         <v>5</v>
@@ -32603,7 +32603,7 @@
         <v>39</v>
       </c>
       <c r="B707" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E707">
         <v>1079</v>
@@ -32629,7 +32629,7 @@
         <v>43</v>
       </c>
       <c r="B708" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D708" t="s">
         <v>9</v>
@@ -32655,10 +32655,10 @@
     </row>
     <row r="709" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="B709" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E709">
         <v>1084</v>
@@ -32681,10 +32681,10 @@
     </row>
     <row r="710" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B710" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C710" t="s">
         <v>72</v>
@@ -32713,10 +32713,10 @@
     </row>
     <row r="711" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B711" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C711" t="s">
         <v>72</v>
@@ -32745,13 +32745,13 @@
     </row>
     <row r="712" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B712" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C712" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D712" t="s">
         <v>5</v>
@@ -32777,13 +32777,13 @@
     </row>
     <row r="713" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="B713" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C713" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D713" t="s">
         <v>9</v>
@@ -32809,10 +32809,10 @@
     </row>
     <row r="714" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="B714" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E714">
         <v>1092</v>
@@ -32838,7 +32838,7 @@
         <v>796</v>
       </c>
       <c r="B715" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="E715">
         <v>1086</v>
@@ -32861,10 +32861,10 @@
     </row>
     <row r="716" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="B716" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D716" t="s">
         <v>9</v>
@@ -32951,7 +32951,7 @@
         <v>65</v>
       </c>
       <c r="B719" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D719" t="s">
         <v>5</v>
@@ -32980,7 +32980,7 @@
         <v>65</v>
       </c>
       <c r="B720" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E720">
         <v>1076</v>
@@ -33006,7 +33006,7 @@
         <v>117</v>
       </c>
       <c r="B721" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D721" t="s">
         <v>9</v>
@@ -33035,7 +33035,7 @@
         <v>117</v>
       </c>
       <c r="B722" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E722">
         <v>913</v>
@@ -33058,13 +33058,13 @@
     </row>
     <row r="723" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="B723" t="s">
         <v>226</v>
       </c>
       <c r="C723" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E723">
         <v>943</v>
@@ -33090,7 +33090,7 @@
         <v>68</v>
       </c>
       <c r="B724" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D724" t="s">
         <v>9</v>
@@ -33119,7 +33119,7 @@
         <v>23</v>
       </c>
       <c r="B725" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D725" t="s">
         <v>9</v>
@@ -33148,7 +33148,7 @@
         <v>33</v>
       </c>
       <c r="B726" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D726" t="s">
         <v>9</v>
@@ -33177,7 +33177,7 @@
         <v>88</v>
       </c>
       <c r="B727" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D727" t="s">
         <v>9</v>
@@ -33206,7 +33206,7 @@
         <v>192</v>
       </c>
       <c r="B728" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D728" t="s">
         <v>9</v>
@@ -33235,7 +33235,7 @@
         <v>107</v>
       </c>
       <c r="B729" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D729" t="s">
         <v>9</v>
@@ -33264,7 +33264,7 @@
         <v>711</v>
       </c>
       <c r="B730" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D730" t="s">
         <v>9</v>
@@ -33351,7 +33351,7 @@
         <v>720</v>
       </c>
       <c r="B733" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D733" t="s">
         <v>9</v>
@@ -33496,7 +33496,7 @@
         <v>166</v>
       </c>
       <c r="B738" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D738" t="s">
         <v>9</v>
@@ -33554,7 +33554,7 @@
         <v>178</v>
       </c>
       <c r="B740" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D740" t="s">
         <v>9</v>
@@ -33580,10 +33580,10 @@
     </row>
     <row r="741" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="B741" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E741">
         <v>1091</v>
@@ -33664,10 +33664,10 @@
     </row>
     <row r="744" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="B744" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E744">
         <v>1097</v>
@@ -33806,13 +33806,13 @@
     </row>
     <row r="749" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B749" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C749" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D749" t="s">
         <v>0</v>
@@ -33899,7 +33899,7 @@
         <v>215</v>
       </c>
       <c r="B752" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D752" t="s">
         <v>9</v>
@@ -33957,7 +33957,7 @@
         <v>204</v>
       </c>
       <c r="B754" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D754" t="s">
         <v>9</v>
@@ -34044,7 +34044,7 @@
         <v>225</v>
       </c>
       <c r="B757" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D757" t="s">
         <v>9</v>
@@ -34218,7 +34218,7 @@
         <v>673</v>
       </c>
       <c r="B763" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C763" t="s">
         <v>72</v>
@@ -34308,7 +34308,7 @@
         <v>732</v>
       </c>
       <c r="B766" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D766" t="s">
         <v>9</v>
@@ -34369,7 +34369,7 @@
         <v>744</v>
       </c>
       <c r="B768" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D768" t="s">
         <v>9</v>
@@ -34398,7 +34398,7 @@
         <v>752</v>
       </c>
       <c r="B769" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D769" t="s">
         <v>9</v>
@@ -34427,7 +34427,7 @@
         <v>13</v>
       </c>
       <c r="B770" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D770" t="s">
         <v>9</v>
@@ -34453,7 +34453,7 @@
     </row>
     <row r="771" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B771" t="s">
         <v>241</v>
@@ -34485,10 +34485,10 @@
     </row>
     <row r="772" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="B772" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E772">
         <v>1093</v>
@@ -34514,7 +34514,7 @@
         <v>761</v>
       </c>
       <c r="B773" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D773" t="s">
         <v>9</v>
@@ -34604,7 +34604,7 @@
         <v>316</v>
       </c>
       <c r="B776" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D776" t="s">
         <v>0</v>
@@ -34633,7 +34633,7 @@
         <v>320</v>
       </c>
       <c r="B777" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D777" t="s">
         <v>5</v>
@@ -34717,7 +34717,7 @@
         <v>71</v>
       </c>
       <c r="B780" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E780">
         <v>899</v>
@@ -34743,7 +34743,7 @@
         <v>59</v>
       </c>
       <c r="B781" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D781" t="s">
         <v>5</v>
@@ -34772,7 +34772,7 @@
         <v>30</v>
       </c>
       <c r="B782" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D782" t="s">
         <v>5</v>
@@ -34801,7 +34801,7 @@
         <v>91</v>
       </c>
       <c r="B783" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D783" t="s">
         <v>0</v>
@@ -34830,7 +34830,7 @@
         <v>94</v>
       </c>
       <c r="B784" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D784" t="s">
         <v>5</v>
@@ -34856,10 +34856,10 @@
     </row>
     <row r="785" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="B785" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E785">
         <v>1096</v>
@@ -34885,7 +34885,7 @@
         <v>98</v>
       </c>
       <c r="B786" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D786" t="s">
         <v>9</v>
@@ -34914,7 +34914,7 @@
         <v>98</v>
       </c>
       <c r="B787" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D787" t="s">
         <v>5</v>
@@ -34943,7 +34943,7 @@
         <v>98</v>
       </c>
       <c r="B788" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D788" t="s">
         <v>0</v>
@@ -34972,7 +34972,7 @@
         <v>211</v>
       </c>
       <c r="B789" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D789" t="s">
         <v>5</v>
@@ -35001,7 +35001,7 @@
         <v>211</v>
       </c>
       <c r="B790" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D790" t="s">
         <v>9</v>
@@ -35030,7 +35030,7 @@
         <v>196</v>
       </c>
       <c r="B791" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D791" t="s">
         <v>0</v>
@@ -35085,10 +35085,10 @@
     </row>
     <row r="793" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="B793" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E793">
         <v>1094</v>
@@ -35114,7 +35114,7 @@
         <v>222</v>
       </c>
       <c r="B794" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D794" t="s">
         <v>5</v>
@@ -35143,7 +35143,7 @@
         <v>208</v>
       </c>
       <c r="B795" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D795" t="s">
         <v>0</v>
@@ -35169,10 +35169,10 @@
     </row>
     <row r="796" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="B796" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C796" t="s">
         <v>72</v>
@@ -35204,7 +35204,7 @@
         <v>708</v>
       </c>
       <c r="B797" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D797" t="s">
         <v>5</v>
@@ -35288,10 +35288,10 @@
     </row>
     <row r="800" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="B800" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D800" t="s">
         <v>9</v>
@@ -35349,7 +35349,7 @@
         <v>389</v>
       </c>
       <c r="B802" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E802">
         <v>990</v>
@@ -35430,10 +35430,10 @@
     </row>
     <row r="805" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="B805" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C805" t="s">
         <v>72</v>
@@ -35462,7 +35462,7 @@
     </row>
     <row r="806" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="B806" t="s">
         <v>179</v>
@@ -35494,7 +35494,7 @@
         <v>219</v>
       </c>
       <c r="B807" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D807" t="s">
         <v>0</v>
@@ -35523,7 +35523,7 @@
         <v>325</v>
       </c>
       <c r="B808" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D808" t="s">
         <v>0</v>
@@ -35552,7 +35552,7 @@
         <v>328</v>
       </c>
       <c r="B809" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D809" t="s">
         <v>5</v>
@@ -35581,7 +35581,7 @@
         <v>331</v>
       </c>
       <c r="B810" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D810" t="s">
         <v>9</v>
@@ -35607,10 +35607,10 @@
     </row>
     <row r="811" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="B811" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D811" t="s">
         <v>5</v>
@@ -35639,7 +35639,7 @@
         <v>233</v>
       </c>
       <c r="B812" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D812" t="s">
         <v>0</v>
@@ -35668,7 +35668,7 @@
         <v>717</v>
       </c>
       <c r="B813" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D813" t="s">
         <v>5</v>
@@ -35697,7 +35697,7 @@
         <v>240</v>
       </c>
       <c r="B814" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D814" t="s">
         <v>9</v>
@@ -35749,13 +35749,13 @@
     </row>
     <row r="816" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B816" t="s">
         <v>241</v>
       </c>
       <c r="C816" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="D816" t="s">
         <v>5</v>
@@ -35784,7 +35784,7 @@
         <v>236</v>
       </c>
       <c r="B817" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D817" t="s">
         <v>5</v>
@@ -35891,7 +35891,7 @@
         <v>342</v>
       </c>
       <c r="B821" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D821" t="s">
         <v>9</v>
@@ -35920,7 +35920,7 @@
         <v>335</v>
       </c>
       <c r="B822" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D822" t="s">
         <v>0</v>
@@ -35975,7 +35975,7 @@
         <v>377</v>
       </c>
       <c r="B824" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D824" t="s">
         <v>9</v>
@@ -36004,7 +36004,7 @@
         <v>347</v>
       </c>
       <c r="B825" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D825" t="s">
         <v>0</v>
@@ -36030,13 +36030,13 @@
     </row>
     <row r="826" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="B826" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C826" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D826" t="s">
         <v>9</v>
@@ -36065,7 +36065,7 @@
         <v>339</v>
       </c>
       <c r="B827" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D827" t="s">
         <v>5</v>
@@ -36094,7 +36094,7 @@
         <v>350</v>
       </c>
       <c r="B828" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D828" t="s">
         <v>5</v>
@@ -36172,10 +36172,10 @@
     </row>
     <row r="831" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="B831" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E831">
         <v>1098</v>
@@ -36227,7 +36227,7 @@
         <v>374</v>
       </c>
       <c r="B833" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="D833" t="s">
         <v>5</v>
@@ -36285,7 +36285,7 @@
         <v>363</v>
       </c>
       <c r="B835" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D835" t="s">
         <v>0</v>
@@ -36314,7 +36314,7 @@
         <v>366</v>
       </c>
       <c r="B836" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D836" t="s">
         <v>5</v>
@@ -36343,7 +36343,7 @@
         <v>368</v>
       </c>
       <c r="B837" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D837" t="s">
         <v>9</v>
@@ -36398,7 +36398,7 @@
         <v>759</v>
       </c>
       <c r="B839" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D839" t="s">
         <v>5</v>
@@ -36424,7 +36424,7 @@
     </row>
     <row r="840" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="B840" t="s">
         <v>226</v>
@@ -36453,7 +36453,7 @@
     </row>
     <row r="841" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="B841" t="s">
         <v>270</v>
@@ -36482,13 +36482,13 @@
     </row>
     <row r="842" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="B842" t="s">
         <v>295</v>
       </c>
       <c r="C842" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E842">
         <v>961</v>
@@ -36511,7 +36511,7 @@
     </row>
     <row r="843" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="B843" t="s">
         <v>807</v>
@@ -36540,7 +36540,7 @@
         <v>307</v>
       </c>
       <c r="B844" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="E844">
         <v>965</v>
@@ -36563,13 +36563,13 @@
     </row>
     <row r="845" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B845" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C845" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D845" t="s">
         <v>0</v>
@@ -36624,7 +36624,7 @@
         <v>322</v>
       </c>
       <c r="B847" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D847" t="s">
         <v>9</v>
@@ -36650,10 +36650,10 @@
     </row>
     <row r="848" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="B848" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E848">
         <v>1101</v>
@@ -36676,7 +36676,7 @@
     </row>
     <row r="849" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="B849" t="s">
         <v>356</v>
@@ -36705,7 +36705,7 @@
         <v>361</v>
       </c>
       <c r="B850" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D850" t="s">
         <v>0</v>
@@ -36734,7 +36734,7 @@
         <v>364</v>
       </c>
       <c r="B851" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D851" t="s">
         <v>5</v>
@@ -36786,10 +36786,10 @@
     </row>
     <row r="853" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="B853" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="E853">
         <v>132</v>
@@ -36815,7 +36815,7 @@
         <v>305</v>
       </c>
       <c r="B854" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D854" t="s">
         <v>0</v>
@@ -36844,7 +36844,7 @@
         <v>314</v>
       </c>
       <c r="B855" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D855" t="s">
         <v>0</v>
@@ -36873,7 +36873,7 @@
         <v>323</v>
       </c>
       <c r="B856" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D856" t="s">
         <v>0</v>
@@ -36902,7 +36902,7 @@
         <v>317</v>
       </c>
       <c r="B857" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D857" t="s">
         <v>5</v>
@@ -36931,7 +36931,7 @@
         <v>326</v>
       </c>
       <c r="B858" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D858" t="s">
         <v>5</v>
@@ -36960,7 +36960,7 @@
         <v>308</v>
       </c>
       <c r="B859" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D859" t="s">
         <v>5</v>
@@ -36986,10 +36986,10 @@
     </row>
     <row r="860" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B860" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="E860">
         <v>327</v>
@@ -37015,7 +37015,7 @@
         <v>311</v>
       </c>
       <c r="B861" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="D861" t="s">
         <v>9</v>
@@ -37041,10 +37041,10 @@
     </row>
     <row r="862" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="B862" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E862">
         <v>336</v>
@@ -37070,7 +37070,7 @@
         <v>333</v>
       </c>
       <c r="B863" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D863" t="s">
         <v>0</v>
@@ -37099,7 +37099,7 @@
         <v>87</v>
       </c>
       <c r="B864" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D864" t="s">
         <v>9</v>
@@ -37128,7 +37128,7 @@
         <v>336</v>
       </c>
       <c r="B865" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D865" t="s">
         <v>5</v>
@@ -37154,10 +37154,10 @@
     </row>
     <row r="866" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="B866" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="D866" t="s">
         <v>9</v>
@@ -37186,7 +37186,7 @@
         <v>763</v>
       </c>
       <c r="B867" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E867">
         <v>302</v>
@@ -37212,7 +37212,7 @@
         <v>329</v>
       </c>
       <c r="B868" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="D868" t="s">
         <v>9</v>
@@ -37267,7 +37267,7 @@
         <v>81</v>
       </c>
       <c r="B870" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D870" t="s">
         <v>0</v>
@@ -37296,7 +37296,7 @@
         <v>348</v>
       </c>
       <c r="B871" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D871" t="s">
         <v>5</v>
@@ -37325,7 +37325,7 @@
         <v>340</v>
       </c>
       <c r="B872" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="D872" t="s">
         <v>9</v>
@@ -37377,10 +37377,10 @@
     </row>
     <row r="874" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="B874" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="E874">
         <v>322</v>
@@ -37406,7 +37406,7 @@
         <v>798</v>
       </c>
       <c r="B875" s="2" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="E875">
         <v>317</v>
@@ -37429,13 +37429,13 @@
     </row>
     <row r="876" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B876" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C876" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E876">
         <v>853</v>
@@ -37458,7 +37458,7 @@
     </row>
     <row r="877" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="B877" t="s">
         <v>776</v>
@@ -37487,10 +37487,10 @@
     </row>
     <row r="878" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="B878" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C878" t="s">
         <v>72</v>
@@ -37519,7 +37519,7 @@
         <v>351</v>
       </c>
       <c r="B879" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D879" t="s">
         <v>9</v>
@@ -37548,7 +37548,7 @@
         <v>367</v>
       </c>
       <c r="B880" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="D880" t="s">
         <v>9</v>
@@ -37577,7 +37577,7 @@
         <v>345</v>
       </c>
       <c r="B881" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D881" t="s">
         <v>0</v>
@@ -37606,7 +37606,7 @@
         <v>84</v>
       </c>
       <c r="B882" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="D882" t="s">
         <v>5</v>
@@ -37635,7 +37635,7 @@
         <v>35</v>
       </c>
       <c r="B883" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D883" t="s">
         <v>0</v>
@@ -37693,7 +37693,7 @@
         <v>195</v>
       </c>
       <c r="B885" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D885" t="s">
         <v>0</v>
@@ -37722,7 +37722,7 @@
         <v>199</v>
       </c>
       <c r="B886" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D886" t="s">
         <v>5</v>
@@ -37806,7 +37806,7 @@
         <v>207</v>
       </c>
       <c r="B889" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D889" t="s">
         <v>0</v>
@@ -37893,7 +37893,7 @@
         <v>185</v>
       </c>
       <c r="B892" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D892" t="s">
         <v>0</v>
@@ -38064,7 +38064,7 @@
         <v>232</v>
       </c>
       <c r="B898" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D898" t="s">
         <v>0</v>
@@ -38148,13 +38148,13 @@
     </row>
     <row r="901" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="B901" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C901" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D901" t="s">
         <v>9</v>
@@ -38183,7 +38183,7 @@
         <v>159</v>
       </c>
       <c r="B902" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D902" t="s">
         <v>0</v>
@@ -38209,13 +38209,13 @@
     </row>
     <row r="903" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="B903" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C903" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D903" t="s">
         <v>5</v>
@@ -38331,7 +38331,7 @@
         <v>191</v>
       </c>
       <c r="B907" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D907" t="s">
         <v>9</v>
@@ -38357,10 +38357,10 @@
     </row>
     <row r="908" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="B908" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E908">
         <v>869</v>
@@ -38473,7 +38473,7 @@
         <v>788</v>
       </c>
       <c r="B912" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="E912">
         <v>851</v>
@@ -38528,7 +38528,7 @@
         <v>3</v>
       </c>
       <c r="B914" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D914" t="s">
         <v>0</v>
@@ -38586,7 +38586,7 @@
         <v>710</v>
       </c>
       <c r="B916" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D916" t="s">
         <v>9</v>
@@ -38615,7 +38615,7 @@
         <v>15</v>
       </c>
       <c r="B917" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D917" t="s">
         <v>0</v>
@@ -38644,7 +38644,7 @@
         <v>38</v>
       </c>
       <c r="B918" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D918" t="s">
         <v>5</v>
@@ -38673,7 +38673,7 @@
         <v>90</v>
       </c>
       <c r="B919" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D919" t="s">
         <v>0</v>
@@ -38702,7 +38702,7 @@
         <v>7</v>
       </c>
       <c r="B920" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D920" t="s">
         <v>5</v>
@@ -38731,7 +38731,7 @@
         <v>100</v>
       </c>
       <c r="B921" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D921" t="s">
         <v>0</v>
@@ -38760,7 +38760,7 @@
         <v>109</v>
       </c>
       <c r="B922" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D922" t="s">
         <v>0</v>
@@ -38789,7 +38789,7 @@
         <v>210</v>
       </c>
       <c r="B923" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D923" t="s">
         <v>5</v>
@@ -38841,10 +38841,10 @@
     </row>
     <row r="925" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="B925" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="E925">
         <v>872</v>
@@ -38983,10 +38983,10 @@
     </row>
     <row r="930" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="B930" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C930" t="s">
         <v>72</v>
@@ -39073,7 +39073,7 @@
         <v>214</v>
       </c>
       <c r="B933" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D933" t="s">
         <v>9</v>
@@ -39128,7 +39128,7 @@
         <v>264</v>
       </c>
       <c r="B935" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="E935">
         <v>757</v>
@@ -39154,7 +39154,7 @@
         <v>97</v>
       </c>
       <c r="B936" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D936" t="s">
         <v>9</v>
@@ -39180,13 +39180,13 @@
     </row>
     <row r="937" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="B937" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C937" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D937" t="s">
         <v>0</v>
@@ -39215,7 +39215,7 @@
         <v>106</v>
       </c>
       <c r="B938" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D938" t="s">
         <v>9</v>
@@ -39244,7 +39244,7 @@
         <v>116</v>
       </c>
       <c r="B939" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D939" t="s">
         <v>9</v>
@@ -39305,7 +39305,7 @@
         <v>295</v>
       </c>
       <c r="C941" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D941" t="s">
         <v>5</v>
@@ -39360,13 +39360,13 @@
     </row>
     <row r="943" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
       <c r="B943" t="s">
         <v>295</v>
       </c>
       <c r="C943" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D943" t="s">
         <v>9</v>
@@ -39392,7 +39392,7 @@
     </row>
     <row r="944" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="B944" t="s">
         <v>146</v>
@@ -39421,13 +39421,13 @@
     </row>
     <row r="945" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="B945" t="s">
         <v>226</v>
       </c>
       <c r="C945" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E945">
         <v>716</v>
@@ -39482,7 +39482,7 @@
         <v>177</v>
       </c>
       <c r="B947" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D947" t="s">
         <v>9</v>
@@ -39508,10 +39508,10 @@
     </row>
     <row r="948" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="B948" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E948">
         <v>864</v>
@@ -39537,7 +39537,7 @@
         <v>173</v>
       </c>
       <c r="B949" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D949" t="s">
         <v>5</v>
@@ -39592,10 +39592,10 @@
     </row>
     <row r="951" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="B951" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C951" t="s">
         <v>72</v>
@@ -39650,7 +39650,7 @@
     </row>
     <row r="953" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B953" t="s">
         <v>420</v>
@@ -39679,7 +39679,7 @@
     </row>
     <row r="954" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="B954" t="s">
         <v>807</v>
@@ -39708,7 +39708,7 @@
         <v>224</v>
       </c>
       <c r="B955" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D955" t="s">
         <v>9</v>
@@ -39818,10 +39818,10 @@
     </row>
     <row r="959" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="B959" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="D959" t="s">
         <v>0</v>
@@ -39966,7 +39966,7 @@
         <v>765</v>
       </c>
       <c r="B964" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="C964" t="s">
         <v>72</v>
@@ -40050,10 +40050,10 @@
     </row>
     <row r="967" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="B967" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C967" t="s">
         <v>72</v>
@@ -40111,7 +40111,7 @@
         <v>439</v>
       </c>
       <c r="B969" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C969" t="s">
         <v>72</v>
@@ -40140,7 +40140,7 @@
         <v>64</v>
       </c>
       <c r="B970" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D970" t="s">
         <v>5</v>
@@ -40169,7 +40169,7 @@
         <v>64</v>
       </c>
       <c r="B971" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E971">
         <v>843</v>
@@ -40195,7 +40195,7 @@
         <v>64</v>
       </c>
       <c r="B972" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E972">
         <v>861</v>
@@ -40279,7 +40279,7 @@
         <v>70</v>
       </c>
       <c r="B975" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E975">
         <v>673</v>
@@ -40360,7 +40360,7 @@
         <v>719</v>
       </c>
       <c r="B978" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D978" t="s">
         <v>9</v>
@@ -40392,7 +40392,7 @@
         <v>356</v>
       </c>
       <c r="C979" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E979">
         <v>747</v>
@@ -40418,7 +40418,7 @@
         <v>754</v>
       </c>
       <c r="B980" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D980" t="s">
         <v>0</v>
@@ -40447,7 +40447,7 @@
         <v>221</v>
       </c>
       <c r="B981" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D981" t="s">
         <v>5</v>
@@ -40531,7 +40531,7 @@
         <v>805</v>
       </c>
       <c r="B984" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E984">
         <v>868</v>
@@ -40557,7 +40557,7 @@
         <v>805</v>
       </c>
       <c r="B985" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D985" t="s">
         <v>9</v>
@@ -40586,7 +40586,7 @@
         <v>77</v>
       </c>
       <c r="B986" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E986">
         <v>674</v>
@@ -40725,7 +40725,7 @@
         <v>218</v>
       </c>
       <c r="B991" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D991" t="s">
         <v>0</v>
@@ -40812,7 +40812,7 @@
         <v>22</v>
       </c>
       <c r="B994" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D994" t="s">
         <v>9</v>
@@ -40925,10 +40925,10 @@
     </row>
     <row r="998" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="B998" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E998">
         <v>863</v>
@@ -40954,7 +40954,7 @@
         <v>239</v>
       </c>
       <c r="B999" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D999" t="s">
         <v>9</v>
@@ -41012,7 +41012,7 @@
         <v>203</v>
       </c>
       <c r="B1001" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D1001" t="s">
         <v>9</v>
@@ -41070,7 +41070,7 @@
         <v>32</v>
       </c>
       <c r="B1003" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D1003" t="s">
         <v>9</v>
@@ -41096,13 +41096,13 @@
     </row>
     <row r="1004" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1004" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="B1004" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C1004" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1004" t="s">
         <v>9</v>
@@ -41160,7 +41160,7 @@
         <v>760</v>
       </c>
       <c r="B1006" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D1006" t="s">
         <v>9</v>
@@ -41189,7 +41189,7 @@
         <v>162</v>
       </c>
       <c r="B1007" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D1007" t="s">
         <v>5</v>
@@ -41273,13 +41273,13 @@
     </row>
     <row r="1010" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1010" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
       <c r="B1010" t="s">
         <v>295</v>
       </c>
       <c r="C1010" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1010" t="s">
         <v>0</v>
@@ -41337,7 +41337,7 @@
         <v>67</v>
       </c>
       <c r="B1012" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D1012" t="s">
         <v>9</v>
@@ -41395,7 +41395,7 @@
         <v>67</v>
       </c>
       <c r="B1014" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D1014" t="s">
         <v>0</v>
@@ -41482,7 +41482,7 @@
         <v>725</v>
       </c>
       <c r="B1017" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D1017" t="s">
         <v>0</v>
@@ -41511,7 +41511,7 @@
         <v>12</v>
       </c>
       <c r="B1018" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D1018" t="s">
         <v>9</v>
@@ -41540,7 +41540,7 @@
         <v>735</v>
       </c>
       <c r="B1019" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D1019" t="s">
         <v>0</v>
@@ -41569,7 +41569,7 @@
         <v>746</v>
       </c>
       <c r="B1020" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D1020" t="s">
         <v>0</v>
@@ -41598,7 +41598,7 @@
         <v>29</v>
       </c>
       <c r="B1021" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D1021" t="s">
         <v>5</v>
@@ -41627,7 +41627,7 @@
         <v>731</v>
       </c>
       <c r="B1022" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D1022" t="s">
         <v>9</v>
@@ -41656,7 +41656,7 @@
         <v>743</v>
       </c>
       <c r="B1023" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D1023" t="s">
         <v>9</v>
@@ -41685,7 +41685,7 @@
         <v>751</v>
       </c>
       <c r="B1024" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D1024" t="s">
         <v>9</v>
@@ -41772,10 +41772,10 @@
         <v>630</v>
       </c>
       <c r="B1027" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C1027" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1027" t="s">
         <v>5</v>
@@ -41830,10 +41830,10 @@
     </row>
     <row r="1029" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1029" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="B1029" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C1029" t="s">
         <v>72</v>
@@ -41978,7 +41978,7 @@
         <v>688</v>
       </c>
       <c r="B1034" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D1034" t="s">
         <v>5</v>
@@ -42004,10 +42004,10 @@
     </row>
     <row r="1035" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1035" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="B1035" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="E1035">
         <v>867</v>
@@ -42062,7 +42062,7 @@
         <v>800</v>
       </c>
       <c r="B1037" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="C1037" t="s">
         <v>72</v>
@@ -42233,10 +42233,10 @@
     </row>
     <row r="1043" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1043" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="B1043" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C1043" t="s">
         <v>72</v>
@@ -42265,7 +42265,7 @@
         <v>61</v>
       </c>
       <c r="B1044" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="D1044" t="s">
         <v>0</v>
@@ -42294,7 +42294,7 @@
         <v>120</v>
       </c>
       <c r="B1045" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="E1045">
         <v>687</v>
@@ -42346,7 +42346,7 @@
     </row>
     <row r="1047" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1047" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="B1047" t="s">
         <v>266</v>
@@ -42407,7 +42407,7 @@
         <v>235</v>
       </c>
       <c r="B1049" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D1049" t="s">
         <v>5</v>
@@ -42491,7 +42491,7 @@
         <v>728</v>
       </c>
       <c r="B1052" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="D1052" t="s">
         <v>5</v>
@@ -42520,7 +42520,7 @@
         <v>740</v>
       </c>
       <c r="B1053" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="D1053" t="s">
         <v>5</v>
@@ -42549,7 +42549,7 @@
         <v>771</v>
       </c>
       <c r="B1054" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E1054">
         <v>846</v>
@@ -42575,7 +42575,7 @@
         <v>42</v>
       </c>
       <c r="B1055" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D1055" t="s">
         <v>9</v>
@@ -42601,10 +42601,10 @@
     </row>
     <row r="1056" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1056" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="B1056" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D1056" t="s">
         <v>5</v>
@@ -42630,13 +42630,13 @@
     </row>
     <row r="1057" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1057" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B1057" t="s">
         <v>266</v>
       </c>
       <c r="C1057" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E1057">
         <v>726</v>
@@ -42775,7 +42775,7 @@
         <v>723</v>
       </c>
       <c r="B1062" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="E1062">
         <v>830</v>
@@ -42801,7 +42801,7 @@
         <v>723</v>
       </c>
       <c r="B1063" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D1063" t="s">
         <v>0</v>
@@ -42885,7 +42885,7 @@
     </row>
     <row r="1066" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1066" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="B1066" t="s">
         <v>594</v>
@@ -42975,7 +42975,7 @@
         <v>25</v>
       </c>
       <c r="B1069" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D1069" t="s">
         <v>0</v>
@@ -43033,10 +43033,10 @@
         <v>306</v>
       </c>
       <c r="B1071" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C1071" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1071" t="s">
         <v>0</v>
@@ -43065,10 +43065,10 @@
         <v>315</v>
       </c>
       <c r="B1072" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C1072" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1072" t="s">
         <v>0</v>
@@ -43094,10 +43094,10 @@
     </row>
     <row r="1073" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1073" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="B1073" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="D1073" t="s">
         <v>5</v>
@@ -43126,10 +43126,10 @@
         <v>334</v>
       </c>
       <c r="B1074" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C1074" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1074" t="s">
         <v>0</v>
@@ -43158,10 +43158,10 @@
         <v>324</v>
       </c>
       <c r="B1075" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1075" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1075" t="s">
         <v>0</v>
@@ -43190,7 +43190,7 @@
         <v>324</v>
       </c>
       <c r="B1076" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="C1076" t="s">
         <v>72</v>
@@ -43219,10 +43219,10 @@
         <v>346</v>
       </c>
       <c r="B1077" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C1077" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1077" t="s">
         <v>0</v>
@@ -43251,7 +43251,7 @@
         <v>188</v>
       </c>
       <c r="B1078" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="D1078" t="s">
         <v>5</v>
@@ -43306,10 +43306,10 @@
         <v>362</v>
       </c>
       <c r="B1080" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C1080" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1080" t="s">
         <v>0</v>
@@ -43338,7 +43338,7 @@
         <v>169</v>
       </c>
       <c r="B1081" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="D1081" t="s">
         <v>0</v>
@@ -43364,10 +43364,10 @@
     </row>
     <row r="1082" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1082" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="B1082" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="E1082">
         <v>860</v>
@@ -43393,7 +43393,7 @@
         <v>18</v>
       </c>
       <c r="B1083" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D1083" t="s">
         <v>5</v>
@@ -43422,10 +43422,10 @@
         <v>310</v>
       </c>
       <c r="B1084" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C1084" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1084" t="s">
         <v>5</v>
@@ -43451,10 +43451,10 @@
     </row>
     <row r="1085" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1085" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="B1085" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="E1085">
         <v>871</v>
@@ -43480,10 +43480,10 @@
         <v>319</v>
       </c>
       <c r="B1086" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C1086" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1086" t="s">
         <v>5</v>
@@ -43512,7 +43512,7 @@
         <v>713</v>
       </c>
       <c r="B1087" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D1087" t="s">
         <v>0</v>
@@ -43541,10 +43541,10 @@
         <v>327</v>
       </c>
       <c r="B1088" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1088" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1088" t="s">
         <v>5</v>
@@ -43573,10 +43573,10 @@
         <v>338</v>
       </c>
       <c r="B1089" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C1089" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1089" t="s">
         <v>5</v>
@@ -43605,10 +43605,10 @@
         <v>349</v>
       </c>
       <c r="B1090" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C1090" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1090" t="s">
         <v>5</v>
@@ -43637,10 +43637,10 @@
         <v>365</v>
       </c>
       <c r="B1091" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C1091" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1091" t="s">
         <v>5</v>
@@ -43669,10 +43669,10 @@
         <v>313</v>
       </c>
       <c r="B1092" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="C1092" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1092" t="s">
         <v>9</v>
@@ -43701,7 +43701,7 @@
         <v>758</v>
       </c>
       <c r="B1093" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="D1093" t="s">
         <v>5</v>
@@ -43730,7 +43730,7 @@
         <v>165</v>
       </c>
       <c r="B1094" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="D1094" t="s">
         <v>9</v>
@@ -43759,7 +43759,7 @@
         <v>93</v>
       </c>
       <c r="B1095" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D1095" t="s">
         <v>5</v>
@@ -43788,10 +43788,10 @@
         <v>321</v>
       </c>
       <c r="B1096" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
       <c r="C1096" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1096" t="s">
         <v>9</v>
@@ -43820,7 +43820,7 @@
         <v>330</v>
       </c>
       <c r="B1097" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D1097" t="s">
         <v>0</v>
@@ -43849,10 +43849,10 @@
         <v>330</v>
       </c>
       <c r="B1098" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
       <c r="C1098" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1098" t="s">
         <v>9</v>
@@ -43878,10 +43878,10 @@
     </row>
     <row r="1099" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1099" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="B1099" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C1099" t="s">
         <v>72</v>
@@ -43910,7 +43910,7 @@
         <v>112</v>
       </c>
       <c r="B1100" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="D1100" t="s">
         <v>5</v>
@@ -43936,7 +43936,7 @@
     </row>
     <row r="1101" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1101" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B1101" t="s">
         <v>772</v>
@@ -43965,10 +43965,10 @@
     </row>
     <row r="1102" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1102" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B1102" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E1102">
         <v>865</v>
@@ -43991,10 +43991,10 @@
     </row>
     <row r="1103" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1103" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="B1103" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="C1103" t="s">
         <v>72</v>
@@ -44026,7 +44026,7 @@
         <v>104</v>
       </c>
       <c r="B1104" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D1104" t="s">
         <v>5</v>
@@ -44055,10 +44055,10 @@
         <v>341</v>
       </c>
       <c r="B1105" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
       <c r="C1105" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1105" t="s">
         <v>9</v>
@@ -44087,7 +44087,7 @@
         <v>716</v>
       </c>
       <c r="B1106" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="D1106" t="s">
         <v>5</v>
@@ -44113,10 +44113,10 @@
     </row>
     <row r="1107" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1107" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1107" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C1107" t="s">
         <v>72</v>
@@ -44145,10 +44145,10 @@
     </row>
     <row r="1108" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1108" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="B1108" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="C1108" t="s">
         <v>72</v>
@@ -44180,10 +44180,10 @@
         <v>353</v>
       </c>
       <c r="B1109" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C1109" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1109" t="s">
         <v>9</v>
@@ -44209,13 +44209,13 @@
     </row>
     <row r="1110" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1110" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="B1110" s="2" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C1110" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="D1110" t="s">
         <v>9</v>
